--- a/app/Dataset.xlsx
+++ b/app/Dataset.xlsx
@@ -9277,19 +9277,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -9325,7 +9319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -9336,12 +9330,6 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
@@ -9349,7 +9337,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9659,15 +9647,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="28.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="48.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="36.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="255.57642857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="220.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="28.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="48.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="36.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="255.57642857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="220.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9687,14 +9675,14 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -9707,14 +9695,14 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -9727,14 +9715,14 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -9747,14 +9735,14 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -9767,14 +9755,14 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -9787,14 +9775,14 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -9807,14 +9795,14 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -9827,14 +9815,14 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -9847,14 +9835,14 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -9867,14 +9855,14 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -9887,14 +9875,14 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -9907,14 +9895,14 @@
         <v>40</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -9927,14 +9915,14 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -9947,14 +9935,14 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -9967,14 +9955,14 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -9987,14 +9975,14 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -10007,14 +9995,14 @@
         <v>51</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -10027,14 +10015,14 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -10047,14 +10035,14 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>2</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -10067,14 +10055,14 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -10087,14 +10075,14 @@
         <v>66</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -10107,14 +10095,14 @@
         <v>69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -10127,14 +10115,14 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>2</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -10154,7 +10142,7 @@
       <c r="B25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -10174,7 +10162,7 @@
       <c r="B26" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -10194,7 +10182,7 @@
       <c r="B27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="2">
         <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -10214,7 +10202,7 @@
       <c r="B28" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="2">
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -10234,7 +10222,7 @@
       <c r="B29" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="2">
         <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -10254,7 +10242,7 @@
       <c r="B30" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="2">
         <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -10274,7 +10262,7 @@
       <c r="B31" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="2">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -10294,7 +10282,7 @@
       <c r="B32" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="2">
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -10314,7 +10302,7 @@
       <c r="B33" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="2">
         <v>2</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -10334,7 +10322,7 @@
       <c r="B34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="2">
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -10354,7 +10342,7 @@
       <c r="B35" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="2">
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -10374,7 +10362,7 @@
       <c r="B36" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="2">
         <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -10394,7 +10382,7 @@
       <c r="B37" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="2">
         <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -10414,7 +10402,7 @@
       <c r="B38" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="2">
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -10434,7 +10422,7 @@
       <c r="B39" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="2">
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -10454,7 +10442,7 @@
       <c r="B40" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="2">
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -10474,7 +10462,7 @@
       <c r="B41" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="2">
         <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -10494,7 +10482,7 @@
       <c r="B42" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="2">
         <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -10514,7 +10502,7 @@
       <c r="B43" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="2">
         <v>1</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -10534,7 +10522,7 @@
       <c r="B44" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="2">
         <v>1</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -10554,7 +10542,7 @@
       <c r="B45" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="2">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -10574,7 +10562,7 @@
       <c r="B46" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="2">
         <v>1</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -10594,7 +10582,7 @@
       <c r="B47" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="2">
         <v>1</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -10614,7 +10602,7 @@
       <c r="B48" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="2">
         <v>1</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -10634,7 +10622,7 @@
       <c r="B49" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="2">
         <v>2</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -10654,7 +10642,7 @@
       <c r="B50" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="2">
         <v>2</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -10674,7 +10662,7 @@
       <c r="B51" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="2">
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -10694,7 +10682,7 @@
       <c r="B52" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="2">
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -10714,7 +10702,7 @@
       <c r="B53" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="2">
         <v>1</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -10734,7 +10722,7 @@
       <c r="B54" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="2">
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -10754,7 +10742,7 @@
       <c r="B55" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="2">
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -10774,7 +10762,7 @@
       <c r="B56" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="2">
         <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -10794,7 +10782,7 @@
       <c r="B57" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="2">
         <v>2</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -10814,7 +10802,7 @@
       <c r="B58" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="2">
         <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -10834,7 +10822,7 @@
       <c r="B59" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="2">
         <v>7</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -10854,7 +10842,7 @@
       <c r="B60" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="2">
         <v>2</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -10874,7 +10862,7 @@
       <c r="B61" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="2">
         <v>9</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -10894,7 +10882,7 @@
       <c r="B62" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="2">
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -10914,7 +10902,7 @@
       <c r="B63" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="2">
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -10934,7 +10922,7 @@
       <c r="B64" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="2">
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -10954,7 +10942,7 @@
       <c r="B65" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="2">
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -10974,7 +10962,7 @@
       <c r="B66" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="2">
         <v>8</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -10994,7 +10982,7 @@
       <c r="B67" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="2">
         <v>2</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -11014,7 +11002,7 @@
       <c r="B68" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="2">
         <v>4</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -11034,7 +11022,7 @@
       <c r="B69" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="2">
         <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -11054,7 +11042,7 @@
       <c r="B70" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="2">
         <v>5</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -11074,7 +11062,7 @@
       <c r="B71" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="2">
         <v>5</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -11094,7 +11082,7 @@
       <c r="B72" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="2">
         <v>4</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -11114,7 +11102,7 @@
       <c r="B73" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="2">
         <v>5</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -11134,7 +11122,7 @@
       <c r="B74" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="2">
         <v>1</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -11154,7 +11142,7 @@
       <c r="B75" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="2">
         <v>2</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -11174,7 +11162,7 @@
       <c r="B76" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="2">
         <v>2</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -11194,7 +11182,7 @@
       <c r="B77" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="2">
         <v>1</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -11214,7 +11202,7 @@
       <c r="B78" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="2">
         <v>1</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -11234,7 +11222,7 @@
       <c r="B79" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="2">
         <v>5</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -11254,7 +11242,7 @@
       <c r="B80" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="2">
         <v>2</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -11274,7 +11262,7 @@
       <c r="B81" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="2">
         <v>7</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -11294,7 +11282,7 @@
       <c r="B82" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="2">
         <v>1</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -11314,7 +11302,7 @@
       <c r="B83" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="2">
         <v>8</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -11334,7 +11322,7 @@
       <c r="B84" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="2">
         <v>2</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -11354,7 +11342,7 @@
       <c r="B85" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="2">
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -11374,7 +11362,7 @@
       <c r="B86" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="2">
         <v>2</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -11394,7 +11382,7 @@
       <c r="B87" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="2">
         <v>5</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -11414,7 +11402,7 @@
       <c r="B88" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="2">
         <v>2</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -11434,7 +11422,7 @@
       <c r="B89" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="2">
         <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -11454,7 +11442,7 @@
       <c r="B90" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="2">
         <v>1</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -11474,7 +11462,7 @@
       <c r="B91" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="2">
         <v>1</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -11494,7 +11482,7 @@
       <c r="B92" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="2">
         <v>1</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -11514,7 +11502,7 @@
       <c r="B93" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="2">
         <v>1</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -11534,7 +11522,7 @@
       <c r="B94" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="2">
         <v>1</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -11554,7 +11542,7 @@
       <c r="B95" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="2">
         <v>1</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -11574,7 +11562,7 @@
       <c r="B96" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="2">
         <v>1</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -11594,7 +11582,7 @@
       <c r="B97" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="2">
         <v>1</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -11614,7 +11602,7 @@
       <c r="B98" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="2">
         <v>1</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -11634,7 +11622,7 @@
       <c r="B99" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="2">
         <v>1</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -11654,7 +11642,7 @@
       <c r="B100" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="2">
         <v>1</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -11674,7 +11662,7 @@
       <c r="B101" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="2">
         <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -11694,7 +11682,7 @@
       <c r="B102" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="2">
         <v>2</v>
       </c>
       <c r="D102" s="1" t="s">
@@ -11714,7 +11702,7 @@
       <c r="B103" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="2">
         <v>1</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -11734,7 +11722,7 @@
       <c r="B104" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="2">
         <v>2</v>
       </c>
       <c r="D104" s="1" t="s">
@@ -11754,7 +11742,7 @@
       <c r="B105" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="2">
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
@@ -11774,7 +11762,7 @@
       <c r="B106" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="2">
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
@@ -11794,7 +11782,7 @@
       <c r="B107" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="2">
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
@@ -11814,7 +11802,7 @@
       <c r="B108" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="2">
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
@@ -11834,7 +11822,7 @@
       <c r="B109" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="2">
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
@@ -11854,7 +11842,7 @@
       <c r="B110" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="2">
         <v>2</v>
       </c>
       <c r="D110" s="1" t="s">
@@ -11874,7 +11862,7 @@
       <c r="B111" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="2">
         <v>1</v>
       </c>
       <c r="D111" s="1" t="s">
@@ -11894,7 +11882,7 @@
       <c r="B112" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="2">
         <v>9</v>
       </c>
       <c r="D112" s="1" t="s">
@@ -11914,7 +11902,7 @@
       <c r="B113" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="2">
         <v>7</v>
       </c>
       <c r="D113" s="1" t="s">
@@ -11934,7 +11922,7 @@
       <c r="B114" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="2">
         <v>4</v>
       </c>
       <c r="D114" s="1" t="s">
@@ -11954,7 +11942,7 @@
       <c r="B115" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="2">
         <v>2</v>
       </c>
       <c r="D115" s="1" t="s">
@@ -11974,7 +11962,7 @@
       <c r="B116" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="2">
         <v>5</v>
       </c>
       <c r="D116" s="1" t="s">
@@ -11994,7 +11982,7 @@
       <c r="B117" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="2">
         <v>6</v>
       </c>
       <c r="D117" s="1" t="s">
@@ -12014,7 +12002,7 @@
       <c r="B118" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="2">
         <v>5</v>
       </c>
       <c r="D118" s="1" t="s">
@@ -12034,7 +12022,7 @@
       <c r="B119" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="2">
         <v>4</v>
       </c>
       <c r="D119" s="1" t="s">
@@ -12054,7 +12042,7 @@
       <c r="B120" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="2">
         <v>1</v>
       </c>
       <c r="D120" s="1" t="s">
@@ -12074,7 +12062,7 @@
       <c r="B121" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121" s="2">
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
@@ -12094,7 +12082,7 @@
       <c r="B122" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122" s="2">
         <v>4</v>
       </c>
       <c r="D122" s="1" t="s">
@@ -12114,7 +12102,7 @@
       <c r="B123" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C123" s="2">
         <v>4</v>
       </c>
       <c r="D123" s="1" t="s">
@@ -12134,7 +12122,7 @@
       <c r="B124" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C124" s="4">
+      <c r="C124" s="2">
         <v>2</v>
       </c>
       <c r="D124" s="1" t="s">
@@ -12154,7 +12142,7 @@
       <c r="B125" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C125" s="2">
         <v>4</v>
       </c>
       <c r="D125" s="1" t="s">
@@ -12174,7 +12162,7 @@
       <c r="B126" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C126" s="4">
+      <c r="C126" s="2">
         <v>2</v>
       </c>
       <c r="D126" s="1" t="s">
@@ -12194,7 +12182,7 @@
       <c r="B127" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C127" s="4">
+      <c r="C127" s="2">
         <v>5</v>
       </c>
       <c r="D127" s="1" t="s">
@@ -12214,7 +12202,7 @@
       <c r="B128" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C128" s="4">
+      <c r="C128" s="2">
         <v>4</v>
       </c>
       <c r="D128" s="1" t="s">
@@ -12234,7 +12222,7 @@
       <c r="B129" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C129" s="4">
+      <c r="C129" s="2">
         <v>4</v>
       </c>
       <c r="D129" s="1" t="s">
@@ -12254,7 +12242,7 @@
       <c r="B130" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C130" s="4">
+      <c r="C130" s="2">
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
@@ -12274,7 +12262,7 @@
       <c r="B131" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C131" s="4">
+      <c r="C131" s="2">
         <v>4</v>
       </c>
       <c r="D131" s="1" t="s">
@@ -12294,7 +12282,7 @@
       <c r="B132" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C132" s="4">
+      <c r="C132" s="2">
         <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
@@ -12314,7 +12302,7 @@
       <c r="B133" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C133" s="4">
+      <c r="C133" s="2">
         <v>4</v>
       </c>
       <c r="D133" s="1" t="s">
@@ -12334,7 +12322,7 @@
       <c r="B134" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134" s="2">
         <v>3</v>
       </c>
       <c r="D134" s="1" t="s">
@@ -12354,7 +12342,7 @@
       <c r="B135" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C135" s="4">
+      <c r="C135" s="2">
         <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
@@ -12374,7 +12362,7 @@
       <c r="B136" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C136" s="4">
+      <c r="C136" s="2">
         <v>4</v>
       </c>
       <c r="D136" s="1" t="s">
@@ -12394,7 +12382,7 @@
       <c r="B137" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C137" s="2">
         <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
@@ -12414,7 +12402,7 @@
       <c r="B138" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138" s="2">
         <v>3</v>
       </c>
       <c r="D138" s="1" t="s">
@@ -12434,7 +12422,7 @@
       <c r="B139" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C139" s="4">
+      <c r="C139" s="2">
         <v>3</v>
       </c>
       <c r="D139" s="1" t="s">
@@ -12454,7 +12442,7 @@
       <c r="B140" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C140" s="4">
+      <c r="C140" s="2">
         <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
@@ -12474,7 +12462,7 @@
       <c r="B141" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="2">
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
@@ -12494,7 +12482,7 @@
       <c r="B142" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142" s="2">
         <v>4</v>
       </c>
       <c r="D142" s="1" t="s">
@@ -12514,7 +12502,7 @@
       <c r="B143" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C143" s="2">
         <v>4</v>
       </c>
       <c r="D143" s="1" t="s">
@@ -12534,7 +12522,7 @@
       <c r="B144" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C144" s="4">
+      <c r="C144" s="2">
         <v>4</v>
       </c>
       <c r="D144" s="1" t="s">
@@ -12554,7 +12542,7 @@
       <c r="B145" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C145" s="4">
+      <c r="C145" s="2">
         <v>2</v>
       </c>
       <c r="D145" s="1" t="s">
@@ -12574,7 +12562,7 @@
       <c r="B146" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C146" s="4">
+      <c r="C146" s="2">
         <v>4</v>
       </c>
       <c r="D146" s="1" t="s">
@@ -12594,7 +12582,7 @@
       <c r="B147" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C147" s="4">
+      <c r="C147" s="2">
         <v>2</v>
       </c>
       <c r="D147" s="1" t="s">
@@ -12614,7 +12602,7 @@
       <c r="B148" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C148" s="4">
+      <c r="C148" s="2">
         <v>4</v>
       </c>
       <c r="D148" s="1" t="s">
@@ -12634,7 +12622,7 @@
       <c r="B149" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C149" s="4">
+      <c r="C149" s="2">
         <v>2</v>
       </c>
       <c r="D149" s="1" t="s">
@@ -12654,7 +12642,7 @@
       <c r="B150" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="C150" s="4">
+      <c r="C150" s="2">
         <v>2</v>
       </c>
       <c r="D150" s="1" t="s">
@@ -12674,7 +12662,7 @@
       <c r="B151" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C151" s="4">
+      <c r="C151" s="2">
         <v>7</v>
       </c>
       <c r="D151" s="1" t="s">
@@ -12694,7 +12682,7 @@
       <c r="B152" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C152" s="4">
+      <c r="C152" s="2">
         <v>2</v>
       </c>
       <c r="D152" s="1" t="s">
@@ -12714,7 +12702,7 @@
       <c r="B153" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C153" s="4">
+      <c r="C153" s="2">
         <v>6</v>
       </c>
       <c r="D153" s="1" t="s">
@@ -12734,7 +12722,7 @@
       <c r="B154" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C154" s="4">
+      <c r="C154" s="2">
         <v>6</v>
       </c>
       <c r="D154" s="1" t="s">
@@ -12754,7 +12742,7 @@
       <c r="B155" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C155" s="4">
+      <c r="C155" s="2">
         <v>2</v>
       </c>
       <c r="D155" s="1" t="s">
@@ -12774,7 +12762,7 @@
       <c r="B156" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C156" s="4">
+      <c r="C156" s="2">
         <v>5</v>
       </c>
       <c r="D156" s="1" t="s">
@@ -12794,7 +12782,7 @@
       <c r="B157" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C157" s="4">
+      <c r="C157" s="2">
         <v>1</v>
       </c>
       <c r="D157" s="1" t="s">
@@ -12814,7 +12802,7 @@
       <c r="B158" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="C158" s="4">
+      <c r="C158" s="2">
         <v>1</v>
       </c>
       <c r="D158" s="1" t="s">
@@ -12834,7 +12822,7 @@
       <c r="B159" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C159" s="4">
+      <c r="C159" s="2">
         <v>1</v>
       </c>
       <c r="D159" s="1" t="s">
@@ -12854,7 +12842,7 @@
       <c r="B160" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C160" s="4">
+      <c r="C160" s="2">
         <v>4</v>
       </c>
       <c r="D160" s="1" t="s">
@@ -12874,7 +12862,7 @@
       <c r="B161" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="C161" s="4">
+      <c r="C161" s="2">
         <v>3</v>
       </c>
       <c r="D161" s="1" t="s">
@@ -12894,7 +12882,7 @@
       <c r="B162" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C162" s="4">
+      <c r="C162" s="2">
         <v>3</v>
       </c>
       <c r="D162" s="1" t="s">
@@ -12914,7 +12902,7 @@
       <c r="B163" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C163" s="4">
+      <c r="C163" s="2">
         <v>2</v>
       </c>
       <c r="D163" s="1" t="s">
@@ -12934,7 +12922,7 @@
       <c r="B164" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C164" s="4">
+      <c r="C164" s="2">
         <v>5</v>
       </c>
       <c r="D164" s="1" t="s">
@@ -12954,7 +12942,7 @@
       <c r="B165" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C165" s="4">
+      <c r="C165" s="2">
         <v>2</v>
       </c>
       <c r="D165" s="1" t="s">
@@ -12974,7 +12962,7 @@
       <c r="B166" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C166" s="4">
+      <c r="C166" s="2">
         <v>1</v>
       </c>
       <c r="D166" s="1" t="s">
@@ -12994,7 +12982,7 @@
       <c r="B167" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C167" s="4">
+      <c r="C167" s="2">
         <v>2</v>
       </c>
       <c r="D167" s="1" t="s">
@@ -13014,7 +13002,7 @@
       <c r="B168" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C168" s="4">
+      <c r="C168" s="2">
         <v>1</v>
       </c>
       <c r="D168" s="1" t="s">
@@ -13034,7 +13022,7 @@
       <c r="B169" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="C169" s="4">
+      <c r="C169" s="2">
         <v>2</v>
       </c>
       <c r="D169" s="1" t="s">
@@ -13054,7 +13042,7 @@
       <c r="B170" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C170" s="4">
+      <c r="C170" s="2">
         <v>1</v>
       </c>
       <c r="D170" s="1" t="s">
@@ -13074,7 +13062,7 @@
       <c r="B171" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C171" s="4">
+      <c r="C171" s="2">
         <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
@@ -13094,7 +13082,7 @@
       <c r="B172" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C172" s="4">
+      <c r="C172" s="2">
         <v>5</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -13114,7 +13102,7 @@
       <c r="B173" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C173" s="4">
+      <c r="C173" s="2">
         <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
@@ -13134,7 +13122,7 @@
       <c r="B174" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C174" s="4">
+      <c r="C174" s="2">
         <v>1</v>
       </c>
       <c r="D174" s="1" t="s">
@@ -13154,7 +13142,7 @@
       <c r="B175" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C175" s="4">
+      <c r="C175" s="2">
         <v>1</v>
       </c>
       <c r="D175" s="1" t="s">
@@ -13174,7 +13162,7 @@
       <c r="B176" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C176" s="4">
+      <c r="C176" s="2">
         <v>3</v>
       </c>
       <c r="D176" s="1" t="s">
@@ -13194,7 +13182,7 @@
       <c r="B177" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C177" s="4">
+      <c r="C177" s="2">
         <v>1</v>
       </c>
       <c r="D177" s="1" t="s">
@@ -13214,7 +13202,7 @@
       <c r="B178" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C178" s="4">
+      <c r="C178" s="2">
         <v>4</v>
       </c>
       <c r="D178" s="1" t="s">
@@ -13234,7 +13222,7 @@
       <c r="B179" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="C179" s="4">
+      <c r="C179" s="2">
         <v>1</v>
       </c>
       <c r="D179" s="1" t="s">
@@ -13254,7 +13242,7 @@
       <c r="B180" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C180" s="4">
+      <c r="C180" s="2">
         <v>3</v>
       </c>
       <c r="D180" s="1" t="s">
@@ -13274,7 +13262,7 @@
       <c r="B181" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C181" s="4">
+      <c r="C181" s="2">
         <v>2</v>
       </c>
       <c r="D181" s="1" t="s">
@@ -13294,7 +13282,7 @@
       <c r="B182" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="C182" s="4">
+      <c r="C182" s="2">
         <v>4</v>
       </c>
       <c r="D182" s="1" t="s">
@@ -13314,7 +13302,7 @@
       <c r="B183" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C183" s="4">
+      <c r="C183" s="2">
         <v>1</v>
       </c>
       <c r="D183" s="1" t="s">
@@ -13334,7 +13322,7 @@
       <c r="B184" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C184" s="4">
+      <c r="C184" s="2">
         <v>1</v>
       </c>
       <c r="D184" s="1" t="s">
@@ -13354,7 +13342,7 @@
       <c r="B185" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="C185" s="4">
+      <c r="C185" s="2">
         <v>1</v>
       </c>
       <c r="D185" s="1" t="s">
@@ -13374,7 +13362,7 @@
       <c r="B186" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="C186" s="4">
+      <c r="C186" s="2">
         <v>3</v>
       </c>
       <c r="D186" s="1" t="s">
@@ -13394,7 +13382,7 @@
       <c r="B187" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C187" s="4">
+      <c r="C187" s="2">
         <v>1</v>
       </c>
       <c r="D187" s="1" t="s">
@@ -13414,7 +13402,7 @@
       <c r="B188" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="C188" s="4">
+      <c r="C188" s="2">
         <v>1</v>
       </c>
       <c r="D188" s="1" t="s">
@@ -13434,7 +13422,7 @@
       <c r="B189" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="C189" s="4">
+      <c r="C189" s="2">
         <v>1</v>
       </c>
       <c r="D189" s="1" t="s">
@@ -13454,7 +13442,7 @@
       <c r="B190" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="C190" s="4">
+      <c r="C190" s="2">
         <v>1</v>
       </c>
       <c r="D190" s="1" t="s">
@@ -13474,7 +13462,7 @@
       <c r="B191" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="C191" s="4">
+      <c r="C191" s="2">
         <v>1</v>
       </c>
       <c r="D191" s="1" t="s">
@@ -13494,7 +13482,7 @@
       <c r="B192" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="C192" s="4">
+      <c r="C192" s="2">
         <v>1</v>
       </c>
       <c r="D192" s="1" t="s">
@@ -13514,7 +13502,7 @@
       <c r="B193" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="C193" s="4">
+      <c r="C193" s="2">
         <v>1</v>
       </c>
       <c r="D193" s="1" t="s">
@@ -13534,7 +13522,7 @@
       <c r="B194" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="C194" s="4">
+      <c r="C194" s="2">
         <v>3</v>
       </c>
       <c r="D194" s="1" t="s">
@@ -13554,7 +13542,7 @@
       <c r="B195" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="C195" s="4">
+      <c r="C195" s="2">
         <v>3</v>
       </c>
       <c r="D195" s="1" t="s">
@@ -13574,7 +13562,7 @@
       <c r="B196" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="C196" s="4">
+      <c r="C196" s="2">
         <v>2</v>
       </c>
       <c r="D196" s="1" t="s">
@@ -13594,7 +13582,7 @@
       <c r="B197" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C197" s="4">
+      <c r="C197" s="2">
         <v>3</v>
       </c>
       <c r="D197" s="1" t="s">
@@ -13614,7 +13602,7 @@
       <c r="B198" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="C198" s="4">
+      <c r="C198" s="2">
         <v>2</v>
       </c>
       <c r="D198" s="1" t="s">
@@ -13634,7 +13622,7 @@
       <c r="B199" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="C199" s="4">
+      <c r="C199" s="2">
         <v>2</v>
       </c>
       <c r="D199" s="1" t="s">
@@ -13654,7 +13642,7 @@
       <c r="B200" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="C200" s="4">
+      <c r="C200" s="2">
         <v>2</v>
       </c>
       <c r="D200" s="1" t="s">
@@ -13674,7 +13662,7 @@
       <c r="B201" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="C201" s="4">
+      <c r="C201" s="2">
         <v>2</v>
       </c>
       <c r="D201" s="1" t="s">
@@ -13694,7 +13682,7 @@
       <c r="B202" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="C202" s="4">
+      <c r="C202" s="2">
         <v>3</v>
       </c>
       <c r="D202" s="1" t="s">
@@ -13714,7 +13702,7 @@
       <c r="B203" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="C203" s="4">
+      <c r="C203" s="2">
         <v>2</v>
       </c>
       <c r="D203" s="1" t="s">
@@ -13734,7 +13722,7 @@
       <c r="B204" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="C204" s="4">
+      <c r="C204" s="2">
         <v>2</v>
       </c>
       <c r="D204" s="1" t="s">
@@ -13754,7 +13742,7 @@
       <c r="B205" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="C205" s="4">
+      <c r="C205" s="2">
         <v>1</v>
       </c>
       <c r="D205" s="1" t="s">
@@ -13774,7 +13762,7 @@
       <c r="B206" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C206" s="4">
+      <c r="C206" s="2">
         <v>2</v>
       </c>
       <c r="D206" s="1" t="s">
@@ -13794,7 +13782,7 @@
       <c r="B207" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="C207" s="4">
+      <c r="C207" s="2">
         <v>2</v>
       </c>
       <c r="D207" s="1" t="s">
@@ -13814,7 +13802,7 @@
       <c r="B208" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="C208" s="4">
+      <c r="C208" s="2">
         <v>1</v>
       </c>
       <c r="D208" s="1" t="s">
@@ -13834,7 +13822,7 @@
       <c r="B209" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="C209" s="4">
+      <c r="C209" s="2">
         <v>2</v>
       </c>
       <c r="D209" s="1" t="s">
@@ -13854,7 +13842,7 @@
       <c r="B210" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C210" s="4">
+      <c r="C210" s="2">
         <v>2</v>
       </c>
       <c r="D210" s="1" t="s">
@@ -13874,7 +13862,7 @@
       <c r="B211" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C211" s="4">
+      <c r="C211" s="2">
         <v>3</v>
       </c>
       <c r="D211" s="1" t="s">
@@ -13894,7 +13882,7 @@
       <c r="B212" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C212" s="4">
+      <c r="C212" s="2">
         <v>1</v>
       </c>
       <c r="D212" s="1" t="s">
@@ -13914,7 +13902,7 @@
       <c r="B213" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="C213" s="4">
+      <c r="C213" s="2">
         <v>1</v>
       </c>
       <c r="D213" s="1" t="s">
@@ -13934,7 +13922,7 @@
       <c r="B214" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C214" s="4">
+      <c r="C214" s="2">
         <v>3</v>
       </c>
       <c r="D214" s="1" t="s">
@@ -13954,7 +13942,7 @@
       <c r="B215" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="C215" s="4">
+      <c r="C215" s="2">
         <v>3</v>
       </c>
       <c r="D215" s="1" t="s">
@@ -13974,7 +13962,7 @@
       <c r="B216" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="C216" s="4">
+      <c r="C216" s="2">
         <v>3</v>
       </c>
       <c r="D216" s="1" t="s">
@@ -13994,7 +13982,7 @@
       <c r="B217" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="C217" s="4">
+      <c r="C217" s="2">
         <v>2</v>
       </c>
       <c r="D217" s="1" t="s">
@@ -14014,7 +14002,7 @@
       <c r="B218" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="C218" s="4">
+      <c r="C218" s="2">
         <v>2</v>
       </c>
       <c r="D218" s="1" t="s">
@@ -14034,7 +14022,7 @@
       <c r="B219" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="C219" s="4">
+      <c r="C219" s="2">
         <v>1</v>
       </c>
       <c r="D219" s="1" t="s">
@@ -14054,7 +14042,7 @@
       <c r="B220" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="C220" s="4">
+      <c r="C220" s="2">
         <v>4</v>
       </c>
       <c r="D220" s="1" t="s">
@@ -14074,7 +14062,7 @@
       <c r="B221" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="C221" s="4">
+      <c r="C221" s="2">
         <v>1</v>
       </c>
       <c r="D221" s="1" t="s">
@@ -14094,7 +14082,7 @@
       <c r="B222" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="C222" s="4">
+      <c r="C222" s="2">
         <v>4</v>
       </c>
       <c r="D222" s="1" t="s">
@@ -14114,7 +14102,7 @@
       <c r="B223" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="C223" s="4">
+      <c r="C223" s="2">
         <v>4</v>
       </c>
       <c r="D223" s="1" t="s">
@@ -14134,7 +14122,7 @@
       <c r="B224" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="C224" s="4">
+      <c r="C224" s="2">
         <v>1</v>
       </c>
       <c r="D224" s="1" t="s">
@@ -14154,7 +14142,7 @@
       <c r="B225" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="C225" s="4">
+      <c r="C225" s="2">
         <v>1</v>
       </c>
       <c r="D225" s="1" t="s">
@@ -14174,7 +14162,7 @@
       <c r="B226" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="C226" s="4">
+      <c r="C226" s="2">
         <v>2</v>
       </c>
       <c r="D226" s="1" t="s">
@@ -14194,7 +14182,7 @@
       <c r="B227" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="C227" s="4">
+      <c r="C227" s="2">
         <v>1</v>
       </c>
       <c r="D227" s="1" t="s">
@@ -14214,7 +14202,7 @@
       <c r="B228" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="C228" s="4">
+      <c r="C228" s="2">
         <v>1</v>
       </c>
       <c r="D228" s="1" t="s">
@@ -14234,7 +14222,7 @@
       <c r="B229" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="C229" s="4">
+      <c r="C229" s="2">
         <v>1</v>
       </c>
       <c r="D229" s="1" t="s">
@@ -14254,7 +14242,7 @@
       <c r="B230" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="C230" s="4">
+      <c r="C230" s="2">
         <v>1</v>
       </c>
       <c r="D230" s="1" t="s">
@@ -14274,7 +14262,7 @@
       <c r="B231" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="C231" s="4">
+      <c r="C231" s="2">
         <v>2</v>
       </c>
       <c r="D231" s="1" t="s">
@@ -14294,7 +14282,7 @@
       <c r="B232" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="C232" s="4">
+      <c r="C232" s="2">
         <v>2</v>
       </c>
       <c r="D232" s="1" t="s">
@@ -14314,7 +14302,7 @@
       <c r="B233" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="C233" s="4">
+      <c r="C233" s="2">
         <v>4</v>
       </c>
       <c r="D233" s="1" t="s">
@@ -14334,7 +14322,7 @@
       <c r="B234" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="C234" s="4">
+      <c r="C234" s="2">
         <v>1</v>
       </c>
       <c r="D234" s="1" t="s">
@@ -14354,7 +14342,7 @@
       <c r="B235" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="C235" s="4">
+      <c r="C235" s="2">
         <v>3</v>
       </c>
       <c r="D235" s="1" t="s">
@@ -14374,7 +14362,7 @@
       <c r="B236" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="C236" s="4">
+      <c r="C236" s="2">
         <v>1</v>
       </c>
       <c r="D236" s="1" t="s">
@@ -14394,7 +14382,7 @@
       <c r="B237" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="C237" s="4">
+      <c r="C237" s="2">
         <v>5</v>
       </c>
       <c r="D237" s="1" t="s">
@@ -14414,7 +14402,7 @@
       <c r="B238" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="C238" s="4">
+      <c r="C238" s="2">
         <v>1</v>
       </c>
       <c r="D238" s="1" t="s">
@@ -14434,7 +14422,7 @@
       <c r="B239" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="C239" s="4">
+      <c r="C239" s="2">
         <v>5</v>
       </c>
       <c r="D239" s="1" t="s">
@@ -14454,7 +14442,7 @@
       <c r="B240" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="C240" s="4">
+      <c r="C240" s="2">
         <v>2</v>
       </c>
       <c r="D240" s="1" t="s">
@@ -14474,7 +14462,7 @@
       <c r="B241" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="C241" s="4">
+      <c r="C241" s="2">
         <v>1</v>
       </c>
       <c r="D241" s="1" t="s">
@@ -14494,7 +14482,7 @@
       <c r="B242" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="C242" s="4">
+      <c r="C242" s="2">
         <v>2</v>
       </c>
       <c r="D242" s="1" t="s">
@@ -14514,7 +14502,7 @@
       <c r="B243" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="C243" s="4">
+      <c r="C243" s="2">
         <v>1</v>
       </c>
       <c r="D243" s="1" t="s">
@@ -14534,7 +14522,7 @@
       <c r="B244" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="C244" s="4">
+      <c r="C244" s="2">
         <v>1</v>
       </c>
       <c r="D244" s="1" t="s">
@@ -14554,7 +14542,7 @@
       <c r="B245" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="C245" s="4">
+      <c r="C245" s="2">
         <v>1</v>
       </c>
       <c r="D245" s="1" t="s">
@@ -14574,7 +14562,7 @@
       <c r="B246" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="C246" s="4">
+      <c r="C246" s="2">
         <v>1</v>
       </c>
       <c r="D246" s="1" t="s">
@@ -14594,7 +14582,7 @@
       <c r="B247" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="C247" s="4">
+      <c r="C247" s="2">
         <v>1</v>
       </c>
       <c r="D247" s="1" t="s">
@@ -14614,7 +14602,7 @@
       <c r="B248" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="C248" s="4">
+      <c r="C248" s="2">
         <v>10</v>
       </c>
       <c r="D248" s="1" t="s">
@@ -14634,7 +14622,7 @@
       <c r="B249" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C249" s="4">
+      <c r="C249" s="2">
         <v>4</v>
       </c>
       <c r="D249" s="1" t="s">
@@ -14654,7 +14642,7 @@
       <c r="B250" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C250" s="4">
+      <c r="C250" s="2">
         <v>1</v>
       </c>
       <c r="D250" s="1" t="s">
@@ -14674,7 +14662,7 @@
       <c r="B251" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="C251" s="4">
+      <c r="C251" s="2">
         <v>1</v>
       </c>
       <c r="D251" s="1" t="s">
@@ -14694,7 +14682,7 @@
       <c r="B252" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="C252" s="4">
+      <c r="C252" s="2">
         <v>1</v>
       </c>
       <c r="D252" s="1" t="s">
@@ -14714,7 +14702,7 @@
       <c r="B253" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="C253" s="4">
+      <c r="C253" s="2">
         <v>4</v>
       </c>
       <c r="D253" s="1" t="s">
@@ -14734,7 +14722,7 @@
       <c r="B254" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="C254" s="4">
+      <c r="C254" s="2">
         <v>6</v>
       </c>
       <c r="D254" s="1" t="s">
@@ -14754,7 +14742,7 @@
       <c r="B255" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="C255" s="4">
+      <c r="C255" s="2">
         <v>2</v>
       </c>
       <c r="D255" s="1" t="s">
@@ -14774,7 +14762,7 @@
       <c r="B256" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="C256" s="4">
+      <c r="C256" s="2">
         <v>3</v>
       </c>
       <c r="D256" s="1" t="s">
@@ -14794,7 +14782,7 @@
       <c r="B257" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="C257" s="4">
+      <c r="C257" s="2">
         <v>2</v>
       </c>
       <c r="D257" s="1" t="s">
@@ -14814,7 +14802,7 @@
       <c r="B258" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="C258" s="4">
+      <c r="C258" s="2">
         <v>1</v>
       </c>
       <c r="D258" s="1" t="s">
@@ -14834,7 +14822,7 @@
       <c r="B259" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="C259" s="4">
+      <c r="C259" s="2">
         <v>5</v>
       </c>
       <c r="D259" s="1" t="s">
@@ -14854,7 +14842,7 @@
       <c r="B260" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="C260" s="4">
+      <c r="C260" s="2">
         <v>2</v>
       </c>
       <c r="D260" s="1" t="s">
@@ -14874,7 +14862,7 @@
       <c r="B261" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="C261" s="4">
+      <c r="C261" s="2">
         <v>3</v>
       </c>
       <c r="D261" s="1" t="s">
@@ -14894,7 +14882,7 @@
       <c r="B262" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="C262" s="4">
+      <c r="C262" s="2">
         <v>4</v>
       </c>
       <c r="D262" s="1" t="s">
@@ -14914,7 +14902,7 @@
       <c r="B263" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="C263" s="4">
+      <c r="C263" s="2">
         <v>4</v>
       </c>
       <c r="D263" s="1" t="s">
@@ -14934,7 +14922,7 @@
       <c r="B264" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="C264" s="4">
+      <c r="C264" s="2">
         <v>2</v>
       </c>
       <c r="D264" s="1" t="s">
@@ -14954,7 +14942,7 @@
       <c r="B265" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="C265" s="4">
+      <c r="C265" s="2">
         <v>1</v>
       </c>
       <c r="D265" s="1" t="s">
@@ -14974,7 +14962,7 @@
       <c r="B266" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="C266" s="4">
+      <c r="C266" s="2">
         <v>3</v>
       </c>
       <c r="D266" s="1" t="s">
@@ -14994,7 +14982,7 @@
       <c r="B267" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="C267" s="4">
+      <c r="C267" s="2">
         <v>1</v>
       </c>
       <c r="D267" s="1" t="s">
@@ -15014,7 +15002,7 @@
       <c r="B268" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="C268" s="4">
+      <c r="C268" s="2">
         <v>1</v>
       </c>
       <c r="D268" s="1" t="s">
@@ -15034,7 +15022,7 @@
       <c r="B269" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="C269" s="4">
+      <c r="C269" s="2">
         <v>3</v>
       </c>
       <c r="D269" s="1" t="s">
@@ -15054,7 +15042,7 @@
       <c r="B270" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="C270" s="4">
+      <c r="C270" s="2">
         <v>1</v>
       </c>
       <c r="D270" s="1" t="s">
@@ -15074,7 +15062,7 @@
       <c r="B271" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="C271" s="4">
+      <c r="C271" s="2">
         <v>4</v>
       </c>
       <c r="D271" s="1" t="s">
@@ -15094,7 +15082,7 @@
       <c r="B272" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="C272" s="4">
+      <c r="C272" s="2">
         <v>2</v>
       </c>
       <c r="D272" s="1" t="s">
@@ -15114,7 +15102,7 @@
       <c r="B273" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="C273" s="4">
+      <c r="C273" s="2">
         <v>1</v>
       </c>
       <c r="D273" s="1" t="s">
@@ -15134,7 +15122,7 @@
       <c r="B274" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="C274" s="4">
+      <c r="C274" s="2">
         <v>1</v>
       </c>
       <c r="D274" s="1" t="s">
@@ -15154,7 +15142,7 @@
       <c r="B275" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="C275" s="4">
+      <c r="C275" s="2">
         <v>1</v>
       </c>
       <c r="D275" s="1" t="s">
@@ -15174,7 +15162,7 @@
       <c r="B276" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="C276" s="4">
+      <c r="C276" s="2">
         <v>2</v>
       </c>
       <c r="D276" s="1" t="s">
@@ -15194,7 +15182,7 @@
       <c r="B277" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="C277" s="4">
+      <c r="C277" s="2">
         <v>2</v>
       </c>
       <c r="D277" s="1" t="s">
@@ -15214,7 +15202,7 @@
       <c r="B278" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="C278" s="4">
+      <c r="C278" s="2">
         <v>1</v>
       </c>
       <c r="D278" s="1" t="s">
@@ -15234,7 +15222,7 @@
       <c r="B279" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="C279" s="4">
+      <c r="C279" s="2">
         <v>2</v>
       </c>
       <c r="D279" s="1" t="s">
@@ -15254,7 +15242,7 @@
       <c r="B280" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="C280" s="4">
+      <c r="C280" s="2">
         <v>3</v>
       </c>
       <c r="D280" s="1" t="s">
@@ -15274,7 +15262,7 @@
       <c r="B281" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="C281" s="4">
+      <c r="C281" s="2">
         <v>2</v>
       </c>
       <c r="D281" s="1" t="s">
@@ -15294,7 +15282,7 @@
       <c r="B282" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="C282" s="4">
+      <c r="C282" s="2">
         <v>1</v>
       </c>
       <c r="D282" s="1" t="s">
@@ -15314,7 +15302,7 @@
       <c r="B283" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="C283" s="4">
+      <c r="C283" s="2">
         <v>1</v>
       </c>
       <c r="D283" s="1" t="s">
@@ -15323,7 +15311,7 @@
       <c r="E283" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="F283" s="5" t="s">
+      <c r="F283" s="3" t="s">
         <v>908</v>
       </c>
     </row>
@@ -15334,7 +15322,7 @@
       <c r="B284" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="C284" s="4">
+      <c r="C284" s="2">
         <v>1</v>
       </c>
       <c r="D284" s="1" t="s">
@@ -15354,7 +15342,7 @@
       <c r="B285" s="1" t="s">
         <v>911</v>
       </c>
-      <c r="C285" s="4">
+      <c r="C285" s="2">
         <v>88</v>
       </c>
       <c r="D285" s="1" t="s">
@@ -15374,7 +15362,7 @@
       <c r="B286" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="C286" s="4">
+      <c r="C286" s="2">
         <v>1</v>
       </c>
       <c r="D286" s="1" t="s">
@@ -15394,7 +15382,7 @@
       <c r="B287" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="C287" s="4">
+      <c r="C287" s="2">
         <v>2</v>
       </c>
       <c r="D287" s="1" t="s">
@@ -15414,7 +15402,7 @@
       <c r="B288" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="C288" s="4">
+      <c r="C288" s="2">
         <v>1</v>
       </c>
       <c r="D288" s="1" t="s">
@@ -15434,7 +15422,7 @@
       <c r="B289" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="C289" s="4">
+      <c r="C289" s="2">
         <v>74</v>
       </c>
       <c r="D289" s="1" t="s">
@@ -15454,7 +15442,7 @@
       <c r="B290" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="C290" s="4">
+      <c r="C290" s="2">
         <v>2</v>
       </c>
       <c r="D290" s="1" t="s">
@@ -15474,7 +15462,7 @@
       <c r="B291" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="C291" s="4">
+      <c r="C291" s="2">
         <v>3</v>
       </c>
       <c r="D291" s="1" t="s">
@@ -15494,7 +15482,7 @@
       <c r="B292" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="C292" s="4">
+      <c r="C292" s="2">
         <v>1</v>
       </c>
       <c r="D292" s="1" t="s">
@@ -15514,7 +15502,7 @@
       <c r="B293" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="C293" s="4">
+      <c r="C293" s="2">
         <v>3</v>
       </c>
       <c r="D293" s="1" t="s">
@@ -15534,7 +15522,7 @@
       <c r="B294" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="C294" s="4">
+      <c r="C294" s="2">
         <v>2</v>
       </c>
       <c r="D294" s="1" t="s">
@@ -15554,7 +15542,7 @@
       <c r="B295" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="C295" s="4">
+      <c r="C295" s="2">
         <v>1</v>
       </c>
       <c r="D295" s="1" t="s">
@@ -15574,7 +15562,7 @@
       <c r="B296" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="C296" s="4">
+      <c r="C296" s="2">
         <v>1</v>
       </c>
       <c r="D296" s="1" t="s">
@@ -15594,7 +15582,7 @@
       <c r="B297" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="C297" s="4">
+      <c r="C297" s="2">
         <v>4</v>
       </c>
       <c r="D297" s="1" t="s">
@@ -15614,7 +15602,7 @@
       <c r="B298" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="C298" s="4">
+      <c r="C298" s="2">
         <v>2</v>
       </c>
       <c r="D298" s="1" t="s">
@@ -15634,7 +15622,7 @@
       <c r="B299" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="C299" s="4">
+      <c r="C299" s="2">
         <v>1</v>
       </c>
       <c r="D299" s="1" t="s">
@@ -15654,7 +15642,7 @@
       <c r="B300" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="C300" s="4">
+      <c r="C300" s="2">
         <v>1</v>
       </c>
       <c r="D300" s="1" t="s">
@@ -15674,7 +15662,7 @@
       <c r="B301" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="C301" s="4">
+      <c r="C301" s="2">
         <v>3</v>
       </c>
       <c r="D301" s="1" t="s">
@@ -15694,7 +15682,7 @@
       <c r="B302" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="C302" s="4">
+      <c r="C302" s="2">
         <v>1</v>
       </c>
       <c r="D302" s="1" t="s">
@@ -15714,7 +15702,7 @@
       <c r="B303" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="C303" s="4">
+      <c r="C303" s="2">
         <v>3</v>
       </c>
       <c r="D303" s="1" t="s">
@@ -15734,7 +15722,7 @@
       <c r="B304" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="C304" s="4">
+      <c r="C304" s="2">
         <v>1</v>
       </c>
       <c r="D304" s="1" t="s">
@@ -15754,7 +15742,7 @@
       <c r="B305" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="C305" s="4">
+      <c r="C305" s="2">
         <v>1</v>
       </c>
       <c r="D305" s="1" t="s">
@@ -15774,7 +15762,7 @@
       <c r="B306" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="C306" s="4">
+      <c r="C306" s="2">
         <v>4</v>
       </c>
       <c r="D306" s="1" t="s">
@@ -15794,7 +15782,7 @@
       <c r="B307" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="C307" s="4">
+      <c r="C307" s="2">
         <v>2</v>
       </c>
       <c r="D307" s="1" t="s">
@@ -15814,7 +15802,7 @@
       <c r="B308" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="C308" s="4">
+      <c r="C308" s="2">
         <v>3</v>
       </c>
       <c r="D308" s="1" t="s">
@@ -15834,7 +15822,7 @@
       <c r="B309" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="C309" s="4">
+      <c r="C309" s="2">
         <v>1</v>
       </c>
       <c r="D309" s="1" t="s">
@@ -15854,7 +15842,7 @@
       <c r="B310" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="C310" s="4">
+      <c r="C310" s="2">
         <v>1</v>
       </c>
       <c r="D310" s="1" t="s">
@@ -15874,7 +15862,7 @@
       <c r="B311" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="C311" s="4">
+      <c r="C311" s="2">
         <v>4</v>
       </c>
       <c r="D311" s="1" t="s">
@@ -15894,7 +15882,7 @@
       <c r="B312" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="C312" s="4">
+      <c r="C312" s="2">
         <v>5</v>
       </c>
       <c r="D312" s="1" t="s">
@@ -15914,7 +15902,7 @@
       <c r="B313" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="C313" s="4">
+      <c r="C313" s="2">
         <v>4</v>
       </c>
       <c r="D313" s="1" t="s">
@@ -15934,7 +15922,7 @@
       <c r="B314" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="C314" s="4">
+      <c r="C314" s="2">
         <v>1</v>
       </c>
       <c r="D314" s="1" t="s">
@@ -15954,7 +15942,7 @@
       <c r="B315" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="C315" s="4">
+      <c r="C315" s="2">
         <v>2</v>
       </c>
       <c r="D315" s="1" t="s">
@@ -15974,7 +15962,7 @@
       <c r="B316" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="C316" s="4">
+      <c r="C316" s="2">
         <v>1</v>
       </c>
       <c r="D316" s="1" t="s">
@@ -15994,7 +15982,7 @@
       <c r="B317" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="C317" s="4">
+      <c r="C317" s="2">
         <v>6</v>
       </c>
       <c r="D317" s="1" t="s">
@@ -16014,7 +16002,7 @@
       <c r="B318" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="C318" s="4">
+      <c r="C318" s="2">
         <v>2</v>
       </c>
       <c r="D318" s="1" t="s">
@@ -16034,7 +16022,7 @@
       <c r="B319" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="C319" s="4">
+      <c r="C319" s="2">
         <v>2</v>
       </c>
       <c r="D319" s="1" t="s">
@@ -16054,7 +16042,7 @@
       <c r="B320" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="C320" s="4">
+      <c r="C320" s="2">
         <v>2</v>
       </c>
       <c r="D320" s="1" t="s">
@@ -16074,7 +16062,7 @@
       <c r="B321" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="C321" s="4">
+      <c r="C321" s="2">
         <v>1</v>
       </c>
       <c r="D321" s="1" t="s">
@@ -16094,7 +16082,7 @@
       <c r="B322" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="C322" s="4">
+      <c r="C322" s="2">
         <v>3</v>
       </c>
       <c r="D322" s="1" t="s">
@@ -16114,7 +16102,7 @@
       <c r="B323" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="C323" s="4">
+      <c r="C323" s="2">
         <v>4</v>
       </c>
       <c r="D323" s="1" t="s">
@@ -16134,7 +16122,7 @@
       <c r="B324" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="C324" s="4">
+      <c r="C324" s="2">
         <v>4</v>
       </c>
       <c r="D324" s="1" t="s">
@@ -16154,7 +16142,7 @@
       <c r="B325" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="C325" s="4">
+      <c r="C325" s="2">
         <v>2</v>
       </c>
       <c r="D325" s="1" t="s">
@@ -16174,7 +16162,7 @@
       <c r="B326" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="C326" s="4">
+      <c r="C326" s="2">
         <v>4</v>
       </c>
       <c r="D326" s="1" t="s">
@@ -16194,7 +16182,7 @@
       <c r="B327" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="C327" s="4">
+      <c r="C327" s="2">
         <v>2</v>
       </c>
       <c r="D327" s="1" t="s">
@@ -16214,7 +16202,7 @@
       <c r="B328" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="C328" s="4">
+      <c r="C328" s="2">
         <v>1</v>
       </c>
       <c r="D328" s="1" t="s">
@@ -16234,7 +16222,7 @@
       <c r="B329" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="C329" s="4">
+      <c r="C329" s="2">
         <v>1</v>
       </c>
       <c r="D329" s="1" t="s">
@@ -16254,7 +16242,7 @@
       <c r="B330" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="C330" s="4">
+      <c r="C330" s="2">
         <v>1</v>
       </c>
       <c r="D330" s="1" t="s">
@@ -16274,7 +16262,7 @@
       <c r="B331" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="C331" s="4">
+      <c r="C331" s="2">
         <v>5</v>
       </c>
       <c r="D331" s="1" t="s">
@@ -16294,7 +16282,7 @@
       <c r="B332" s="1" t="s">
         <v>1060</v>
       </c>
-      <c r="C332" s="4">
+      <c r="C332" s="2">
         <v>2</v>
       </c>
       <c r="D332" s="1" t="s">
@@ -16314,7 +16302,7 @@
       <c r="B333" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="C333" s="4">
+      <c r="C333" s="2">
         <v>3</v>
       </c>
       <c r="D333" s="1" t="s">
@@ -16334,7 +16322,7 @@
       <c r="B334" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="C334" s="4">
+      <c r="C334" s="2">
         <v>4</v>
       </c>
       <c r="D334" s="1" t="s">
@@ -16354,7 +16342,7 @@
       <c r="B335" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="C335" s="4">
+      <c r="C335" s="2">
         <v>1</v>
       </c>
       <c r="D335" s="1" t="s">
@@ -16374,7 +16362,7 @@
       <c r="B336" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="C336" s="4">
+      <c r="C336" s="2">
         <v>1</v>
       </c>
       <c r="D336" s="1" t="s">
@@ -16394,7 +16382,7 @@
       <c r="B337" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="C337" s="4">
+      <c r="C337" s="2">
         <v>1</v>
       </c>
       <c r="D337" s="1" t="s">
@@ -16414,7 +16402,7 @@
       <c r="B338" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="C338" s="4">
+      <c r="C338" s="2">
         <v>4</v>
       </c>
       <c r="D338" s="1" t="s">
@@ -16434,7 +16422,7 @@
       <c r="B339" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="C339" s="4">
+      <c r="C339" s="2">
         <v>1</v>
       </c>
       <c r="D339" s="1" t="s">
@@ -16454,7 +16442,7 @@
       <c r="B340" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="C340" s="4">
+      <c r="C340" s="2">
         <v>1</v>
       </c>
       <c r="D340" s="1" t="s">
@@ -16474,7 +16462,7 @@
       <c r="B341" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="C341" s="4">
+      <c r="C341" s="2">
         <v>1</v>
       </c>
       <c r="D341" s="1" t="s">
@@ -16494,7 +16482,7 @@
       <c r="B342" s="1" t="s">
         <v>1088</v>
       </c>
-      <c r="C342" s="4">
+      <c r="C342" s="2">
         <v>2</v>
       </c>
       <c r="D342" s="1" t="s">
@@ -16514,7 +16502,7 @@
       <c r="B343" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="C343" s="4">
+      <c r="C343" s="2">
         <v>1</v>
       </c>
       <c r="D343" s="1" t="s">
@@ -16534,7 +16522,7 @@
       <c r="B344" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="C344" s="4">
+      <c r="C344" s="2">
         <v>2</v>
       </c>
       <c r="D344" s="1" t="s">
@@ -16554,7 +16542,7 @@
       <c r="B345" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="C345" s="4">
+      <c r="C345" s="2">
         <v>1</v>
       </c>
       <c r="D345" s="1" t="s">
@@ -16574,7 +16562,7 @@
       <c r="B346" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="C346" s="4">
+      <c r="C346" s="2">
         <v>3</v>
       </c>
       <c r="D346" s="1" t="s">
@@ -16594,7 +16582,7 @@
       <c r="B347" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="C347" s="4">
+      <c r="C347" s="2">
         <v>3</v>
       </c>
       <c r="D347" s="1" t="s">
@@ -16614,7 +16602,7 @@
       <c r="B348" s="1" t="s">
         <v>1108</v>
       </c>
-      <c r="C348" s="4">
+      <c r="C348" s="2">
         <v>1</v>
       </c>
       <c r="D348" s="1" t="s">
@@ -16634,7 +16622,7 @@
       <c r="B349" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="C349" s="4">
+      <c r="C349" s="2">
         <v>2</v>
       </c>
       <c r="D349" s="1" t="s">
@@ -16654,7 +16642,7 @@
       <c r="B350" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C350" s="4">
+      <c r="C350" s="2">
         <v>1</v>
       </c>
       <c r="D350" s="1" t="s">
@@ -16674,7 +16662,7 @@
       <c r="B351" s="1" t="s">
         <v>1119</v>
       </c>
-      <c r="C351" s="4">
+      <c r="C351" s="2">
         <v>1</v>
       </c>
       <c r="D351" s="1" t="s">
@@ -16694,7 +16682,7 @@
       <c r="B352" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="C352" s="4">
+      <c r="C352" s="2">
         <v>1</v>
       </c>
       <c r="D352" s="1" t="s">
@@ -16714,7 +16702,7 @@
       <c r="B353" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="C353" s="4">
+      <c r="C353" s="2">
         <v>5</v>
       </c>
       <c r="D353" s="1" t="s">
@@ -16734,7 +16722,7 @@
       <c r="B354" s="1" t="s">
         <v>1130</v>
       </c>
-      <c r="C354" s="4">
+      <c r="C354" s="2">
         <v>6</v>
       </c>
       <c r="D354" s="1" t="s">
@@ -16754,7 +16742,7 @@
       <c r="B355" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="C355" s="4">
+      <c r="C355" s="2">
         <v>2</v>
       </c>
       <c r="D355" s="1" t="s">
@@ -16774,7 +16762,7 @@
       <c r="B356" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="C356" s="4">
+      <c r="C356" s="2">
         <v>3</v>
       </c>
       <c r="D356" s="1" t="s">
@@ -16794,7 +16782,7 @@
       <c r="B357" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="C357" s="4">
+      <c r="C357" s="2">
         <v>1</v>
       </c>
       <c r="D357" s="1" t="s">
@@ -16814,7 +16802,7 @@
       <c r="B358" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="C358" s="4">
+      <c r="C358" s="2">
         <v>1</v>
       </c>
       <c r="D358" s="1" t="s">
@@ -16834,7 +16822,7 @@
       <c r="B359" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="C359" s="4">
+      <c r="C359" s="2">
         <v>4</v>
       </c>
       <c r="D359" s="1" t="s">
@@ -16854,7 +16842,7 @@
       <c r="B360" s="1" t="s">
         <v>1148</v>
       </c>
-      <c r="C360" s="4">
+      <c r="C360" s="2">
         <v>8</v>
       </c>
       <c r="D360" s="1" t="s">
@@ -16874,7 +16862,7 @@
       <c r="B361" s="1" t="s">
         <v>1151</v>
       </c>
-      <c r="C361" s="4">
+      <c r="C361" s="2">
         <v>4</v>
       </c>
       <c r="D361" s="1" t="s">
@@ -16894,7 +16882,7 @@
       <c r="B362" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="C362" s="4">
+      <c r="C362" s="2">
         <v>7</v>
       </c>
       <c r="D362" s="1" t="s">
@@ -16914,7 +16902,7 @@
       <c r="B363" s="1" t="s">
         <v>1158</v>
       </c>
-      <c r="C363" s="4">
+      <c r="C363" s="2">
         <v>1</v>
       </c>
       <c r="D363" s="1" t="s">
@@ -16934,7 +16922,7 @@
       <c r="B364" s="1" t="s">
         <v>1162</v>
       </c>
-      <c r="C364" s="4">
+      <c r="C364" s="2">
         <v>1</v>
       </c>
       <c r="D364" s="1" t="s">
@@ -16954,7 +16942,7 @@
       <c r="B365" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="C365" s="4">
+      <c r="C365" s="2">
         <v>3</v>
       </c>
       <c r="D365" s="1" t="s">
@@ -16974,7 +16962,7 @@
       <c r="B366" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="C366" s="4">
+      <c r="C366" s="2">
         <v>2</v>
       </c>
       <c r="D366" s="1" t="s">
@@ -16994,7 +16982,7 @@
       <c r="B367" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="C367" s="4">
+      <c r="C367" s="2">
         <v>1</v>
       </c>
       <c r="D367" s="1" t="s">
@@ -17014,7 +17002,7 @@
       <c r="B368" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="C368" s="4">
+      <c r="C368" s="2">
         <v>2</v>
       </c>
       <c r="D368" s="1" t="s">
@@ -17034,7 +17022,7 @@
       <c r="B369" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="C369" s="4">
+      <c r="C369" s="2">
         <v>2</v>
       </c>
       <c r="D369" s="1" t="s">
@@ -17054,7 +17042,7 @@
       <c r="B370" s="1" t="s">
         <v>1177</v>
       </c>
-      <c r="C370" s="4">
+      <c r="C370" s="2">
         <v>3</v>
       </c>
       <c r="D370" s="1" t="s">
@@ -17074,7 +17062,7 @@
       <c r="B371" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="C371" s="4">
+      <c r="C371" s="2">
         <v>2</v>
       </c>
       <c r="D371" s="1" t="s">
@@ -17094,7 +17082,7 @@
       <c r="B372" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="C372" s="4">
+      <c r="C372" s="2">
         <v>2</v>
       </c>
       <c r="D372" s="1" t="s">
@@ -17114,7 +17102,7 @@
       <c r="B373" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="C373" s="4">
+      <c r="C373" s="2">
         <v>2</v>
       </c>
       <c r="D373" s="1" t="s">
@@ -17134,7 +17122,7 @@
       <c r="B374" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="C374" s="4">
+      <c r="C374" s="2">
         <v>2</v>
       </c>
       <c r="D374" s="1" t="s">
@@ -17154,7 +17142,7 @@
       <c r="B375" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="C375" s="4">
+      <c r="C375" s="2">
         <v>2</v>
       </c>
       <c r="D375" s="1" t="s">
@@ -17174,7 +17162,7 @@
       <c r="B376" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="C376" s="4">
+      <c r="C376" s="2">
         <v>2</v>
       </c>
       <c r="D376" s="1" t="s">
@@ -17194,7 +17182,7 @@
       <c r="B377" s="1" t="s">
         <v>1195</v>
       </c>
-      <c r="C377" s="4">
+      <c r="C377" s="2">
         <v>4</v>
       </c>
       <c r="D377" s="1" t="s">
@@ -17214,7 +17202,7 @@
       <c r="B378" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="C378" s="4">
+      <c r="C378" s="2">
         <v>2</v>
       </c>
       <c r="D378" s="1" t="s">
@@ -17234,7 +17222,7 @@
       <c r="B379" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="C379" s="4">
+      <c r="C379" s="2">
         <v>1</v>
       </c>
       <c r="D379" s="1" t="s">
@@ -17254,7 +17242,7 @@
       <c r="B380" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="C380" s="4">
+      <c r="C380" s="2">
         <v>2</v>
       </c>
       <c r="D380" s="1" t="s">
@@ -17274,7 +17262,7 @@
       <c r="B381" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="C381" s="4">
+      <c r="C381" s="2">
         <v>4</v>
       </c>
       <c r="D381" s="1" t="s">
@@ -17294,7 +17282,7 @@
       <c r="B382" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="C382" s="4">
+      <c r="C382" s="2">
         <v>2</v>
       </c>
       <c r="D382" s="1" t="s">
@@ -17314,7 +17302,7 @@
       <c r="B383" s="1" t="s">
         <v>1211</v>
       </c>
-      <c r="C383" s="4">
+      <c r="C383" s="2">
         <v>2</v>
       </c>
       <c r="D383" s="1" t="s">
@@ -17334,7 +17322,7 @@
       <c r="B384" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="C384" s="4">
+      <c r="C384" s="2">
         <v>1</v>
       </c>
       <c r="D384" s="1" t="s">
@@ -17354,7 +17342,7 @@
       <c r="B385" s="1" t="s">
         <v>1217</v>
       </c>
-      <c r="C385" s="4">
+      <c r="C385" s="2">
         <v>2</v>
       </c>
       <c r="D385" s="1" t="s">
@@ -17374,7 +17362,7 @@
       <c r="B386" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="C386" s="4">
+      <c r="C386" s="2">
         <v>2</v>
       </c>
       <c r="D386" s="1" t="s">
@@ -17394,7 +17382,7 @@
       <c r="B387" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="C387" s="4">
+      <c r="C387" s="2">
         <v>5</v>
       </c>
       <c r="D387" s="1" t="s">
@@ -17414,7 +17402,7 @@
       <c r="B388" s="1" t="s">
         <v>1224</v>
       </c>
-      <c r="C388" s="4">
+      <c r="C388" s="2">
         <v>2</v>
       </c>
       <c r="D388" s="1" t="s">
@@ -17434,7 +17422,7 @@
       <c r="B389" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="C389" s="4">
+      <c r="C389" s="2">
         <v>2</v>
       </c>
       <c r="D389" s="1" t="s">
@@ -17454,7 +17442,7 @@
       <c r="B390" s="1" t="s">
         <v>1228</v>
       </c>
-      <c r="C390" s="4">
+      <c r="C390" s="2">
         <v>2</v>
       </c>
       <c r="D390" s="1" t="s">
@@ -17474,7 +17462,7 @@
       <c r="B391" s="1" t="s">
         <v>1231</v>
       </c>
-      <c r="C391" s="4">
+      <c r="C391" s="2">
         <v>1</v>
       </c>
       <c r="D391" s="1" t="s">
@@ -17494,7 +17482,7 @@
       <c r="B392" s="1" t="s">
         <v>1233</v>
       </c>
-      <c r="C392" s="4">
+      <c r="C392" s="2">
         <v>1</v>
       </c>
       <c r="D392" s="1" t="s">
@@ -17514,7 +17502,7 @@
       <c r="B393" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="C393" s="4">
+      <c r="C393" s="2">
         <v>2</v>
       </c>
       <c r="D393" s="1" t="s">
@@ -17534,7 +17522,7 @@
       <c r="B394" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="C394" s="4">
+      <c r="C394" s="2">
         <v>2</v>
       </c>
       <c r="D394" s="1" t="s">
@@ -17554,7 +17542,7 @@
       <c r="B395" s="1" t="s">
         <v>1241</v>
       </c>
-      <c r="C395" s="4">
+      <c r="C395" s="2">
         <v>1</v>
       </c>
       <c r="D395" s="1" t="s">
@@ -17574,7 +17562,7 @@
       <c r="B396" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="C396" s="4">
+      <c r="C396" s="2">
         <v>2</v>
       </c>
       <c r="D396" s="1" t="s">
@@ -17594,7 +17582,7 @@
       <c r="B397" s="1" t="s">
         <v>1246</v>
       </c>
-      <c r="C397" s="4">
+      <c r="C397" s="2">
         <v>1</v>
       </c>
       <c r="D397" s="1" t="s">
@@ -17614,7 +17602,7 @@
       <c r="B398" s="1" t="s">
         <v>1249</v>
       </c>
-      <c r="C398" s="4">
+      <c r="C398" s="2">
         <v>1</v>
       </c>
       <c r="D398" s="1" t="s">
@@ -17634,7 +17622,7 @@
       <c r="B399" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="C399" s="4">
+      <c r="C399" s="2">
         <v>2</v>
       </c>
       <c r="D399" s="1" t="s">
@@ -17654,7 +17642,7 @@
       <c r="B400" s="1" t="s">
         <v>1253</v>
       </c>
-      <c r="C400" s="4">
+      <c r="C400" s="2">
         <v>4</v>
       </c>
       <c r="D400" s="1" t="s">
@@ -17674,7 +17662,7 @@
       <c r="B401" s="1" t="s">
         <v>1256</v>
       </c>
-      <c r="C401" s="4">
+      <c r="C401" s="2">
         <v>2</v>
       </c>
       <c r="D401" s="1" t="s">
@@ -17694,7 +17682,7 @@
       <c r="B402" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="C402" s="4">
+      <c r="C402" s="2">
         <v>2</v>
       </c>
       <c r="D402" s="1" t="s">
@@ -17714,7 +17702,7 @@
       <c r="B403" s="1" t="s">
         <v>1260</v>
       </c>
-      <c r="C403" s="4">
+      <c r="C403" s="2">
         <v>2</v>
       </c>
       <c r="D403" s="1" t="s">
@@ -17734,7 +17722,7 @@
       <c r="B404" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="C404" s="4">
+      <c r="C404" s="2">
         <v>2</v>
       </c>
       <c r="D404" s="1" t="s">
@@ -17754,7 +17742,7 @@
       <c r="B405" s="1" t="s">
         <v>1265</v>
       </c>
-      <c r="C405" s="4">
+      <c r="C405" s="2">
         <v>3</v>
       </c>
       <c r="D405" s="1" t="s">
@@ -17774,7 +17762,7 @@
       <c r="B406" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="C406" s="4">
+      <c r="C406" s="2">
         <v>2</v>
       </c>
       <c r="D406" s="1" t="s">
@@ -17794,7 +17782,7 @@
       <c r="B407" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="C407" s="4">
+      <c r="C407" s="2">
         <v>1</v>
       </c>
       <c r="D407" s="1" t="s">
@@ -17814,7 +17802,7 @@
       <c r="B408" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="C408" s="4">
+      <c r="C408" s="2">
         <v>2</v>
       </c>
       <c r="D408" s="1" t="s">
@@ -17834,7 +17822,7 @@
       <c r="B409" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="C409" s="4">
+      <c r="C409" s="2">
         <v>2</v>
       </c>
       <c r="D409" s="1" t="s">
@@ -17854,7 +17842,7 @@
       <c r="B410" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="C410" s="4">
+      <c r="C410" s="2">
         <v>3</v>
       </c>
       <c r="D410" s="1" t="s">
@@ -17874,7 +17862,7 @@
       <c r="B411" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="C411" s="4">
+      <c r="C411" s="2">
         <v>2</v>
       </c>
       <c r="D411" s="1" t="s">
@@ -17894,7 +17882,7 @@
       <c r="B412" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="C412" s="4">
+      <c r="C412" s="2">
         <v>5</v>
       </c>
       <c r="D412" s="1" t="s">
@@ -17914,7 +17902,7 @@
       <c r="B413" s="1" t="s">
         <v>1286</v>
       </c>
-      <c r="C413" s="4">
+      <c r="C413" s="2">
         <v>2</v>
       </c>
       <c r="D413" s="1" t="s">
@@ -17934,7 +17922,7 @@
       <c r="B414" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="C414" s="4">
+      <c r="C414" s="2">
         <v>2</v>
       </c>
       <c r="D414" s="1" t="s">
@@ -17954,7 +17942,7 @@
       <c r="B415" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="C415" s="4">
+      <c r="C415" s="2">
         <v>1</v>
       </c>
       <c r="D415" s="1" t="s">
@@ -17974,7 +17962,7 @@
       <c r="B416" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="C416" s="4">
+      <c r="C416" s="2">
         <v>1</v>
       </c>
       <c r="D416" s="1" t="s">
@@ -17994,7 +17982,7 @@
       <c r="B417" s="1" t="s">
         <v>1300</v>
       </c>
-      <c r="C417" s="4">
+      <c r="C417" s="2">
         <v>1</v>
       </c>
       <c r="D417" s="1" t="s">
@@ -18014,7 +18002,7 @@
       <c r="B418" s="1" t="s">
         <v>1303</v>
       </c>
-      <c r="C418" s="4">
+      <c r="C418" s="2">
         <v>1</v>
       </c>
       <c r="D418" s="1" t="s">
@@ -18034,7 +18022,7 @@
       <c r="B419" s="1" t="s">
         <v>1306</v>
       </c>
-      <c r="C419" s="4">
+      <c r="C419" s="2">
         <v>2</v>
       </c>
       <c r="D419" s="1" t="s">
@@ -18054,7 +18042,7 @@
       <c r="B420" s="1" t="s">
         <v>1309</v>
       </c>
-      <c r="C420" s="4">
+      <c r="C420" s="2">
         <v>3</v>
       </c>
       <c r="D420" s="1" t="s">
@@ -18074,7 +18062,7 @@
       <c r="B421" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="C421" s="4">
+      <c r="C421" s="2">
         <v>2</v>
       </c>
       <c r="D421" s="1" t="s">
@@ -18094,7 +18082,7 @@
       <c r="B422" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="C422" s="4">
+      <c r="C422" s="2">
         <v>1</v>
       </c>
       <c r="D422" s="1" t="s">
@@ -18114,7 +18102,7 @@
       <c r="B423" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="C423" s="4">
+      <c r="C423" s="2">
         <v>1</v>
       </c>
       <c r="D423" s="1" t="s">
@@ -18134,7 +18122,7 @@
       <c r="B424" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="C424" s="4">
+      <c r="C424" s="2">
         <v>1</v>
       </c>
       <c r="D424" s="1" t="s">
@@ -18154,7 +18142,7 @@
       <c r="B425" s="1" t="s">
         <v>1325</v>
       </c>
-      <c r="C425" s="4">
+      <c r="C425" s="2">
         <v>2</v>
       </c>
       <c r="D425" s="1" t="s">
@@ -18174,7 +18162,7 @@
       <c r="B426" s="1" t="s">
         <v>1329</v>
       </c>
-      <c r="C426" s="4">
+      <c r="C426" s="2">
         <v>2</v>
       </c>
       <c r="D426" s="1" t="s">
@@ -18194,7 +18182,7 @@
       <c r="B427" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="C427" s="4">
+      <c r="C427" s="2">
         <v>1</v>
       </c>
       <c r="D427" s="1" t="s">
@@ -18214,7 +18202,7 @@
       <c r="B428" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="C428" s="4">
+      <c r="C428" s="2">
         <v>1</v>
       </c>
       <c r="D428" s="1" t="s">
@@ -18234,7 +18222,7 @@
       <c r="B429" s="1" t="s">
         <v>1342</v>
       </c>
-      <c r="C429" s="4">
+      <c r="C429" s="2">
         <v>2</v>
       </c>
       <c r="D429" s="1" t="s">
@@ -18254,7 +18242,7 @@
       <c r="B430" s="1" t="s">
         <v>1346</v>
       </c>
-      <c r="C430" s="4">
+      <c r="C430" s="2">
         <v>3</v>
       </c>
       <c r="D430" s="1" t="s">
@@ -18274,7 +18262,7 @@
       <c r="B431" s="1" t="s">
         <v>1350</v>
       </c>
-      <c r="C431" s="4">
+      <c r="C431" s="2">
         <v>2</v>
       </c>
       <c r="D431" s="1" t="s">
@@ -18294,7 +18282,7 @@
       <c r="B432" s="1" t="s">
         <v>1353</v>
       </c>
-      <c r="C432" s="4">
+      <c r="C432" s="2">
         <v>3</v>
       </c>
       <c r="D432" s="1" t="s">
@@ -18314,7 +18302,7 @@
       <c r="B433" s="1" t="s">
         <v>1356</v>
       </c>
-      <c r="C433" s="4">
+      <c r="C433" s="2">
         <v>3</v>
       </c>
       <c r="D433" s="1" t="s">
@@ -18334,7 +18322,7 @@
       <c r="B434" s="1" t="s">
         <v>1359</v>
       </c>
-      <c r="C434" s="4">
+      <c r="C434" s="2">
         <v>3</v>
       </c>
       <c r="D434" s="1" t="s">
@@ -18354,7 +18342,7 @@
       <c r="B435" s="1" t="s">
         <v>1362</v>
       </c>
-      <c r="C435" s="4">
+      <c r="C435" s="2">
         <v>4</v>
       </c>
       <c r="D435" s="1" t="s">
@@ -18374,7 +18362,7 @@
       <c r="B436" s="1" t="s">
         <v>1366</v>
       </c>
-      <c r="C436" s="4">
+      <c r="C436" s="2">
         <v>2</v>
       </c>
       <c r="D436" s="1" t="s">
@@ -18394,7 +18382,7 @@
       <c r="B437" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="C437" s="4">
+      <c r="C437" s="2">
         <v>2</v>
       </c>
       <c r="D437" s="1" t="s">
@@ -18414,7 +18402,7 @@
       <c r="B438" s="1" t="s">
         <v>1372</v>
       </c>
-      <c r="C438" s="4">
+      <c r="C438" s="2">
         <v>2</v>
       </c>
       <c r="D438" s="1" t="s">
@@ -18434,7 +18422,7 @@
       <c r="B439" s="1" t="s">
         <v>1375</v>
       </c>
-      <c r="C439" s="4">
+      <c r="C439" s="2">
         <v>2</v>
       </c>
       <c r="D439" s="1" t="s">
@@ -18454,7 +18442,7 @@
       <c r="B440" s="1" t="s">
         <v>1377</v>
       </c>
-      <c r="C440" s="4">
+      <c r="C440" s="2">
         <v>1</v>
       </c>
       <c r="D440" s="1" t="s">
@@ -18474,7 +18462,7 @@
       <c r="B441" s="1" t="s">
         <v>1380</v>
       </c>
-      <c r="C441" s="4">
+      <c r="C441" s="2">
         <v>2</v>
       </c>
       <c r="D441" s="1" t="s">
@@ -18494,7 +18482,7 @@
       <c r="B442" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="C442" s="4">
+      <c r="C442" s="2">
         <v>3</v>
       </c>
       <c r="D442" s="1" t="s">
@@ -18514,7 +18502,7 @@
       <c r="B443" s="1" t="s">
         <v>1386</v>
       </c>
-      <c r="C443" s="4">
+      <c r="C443" s="2">
         <v>2</v>
       </c>
       <c r="D443" s="1" t="s">
@@ -18534,7 +18522,7 @@
       <c r="B444" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="C444" s="4">
+      <c r="C444" s="2">
         <v>2</v>
       </c>
       <c r="D444" s="1" t="s">
@@ -18554,7 +18542,7 @@
       <c r="B445" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="C445" s="4">
+      <c r="C445" s="2">
         <v>2</v>
       </c>
       <c r="D445" s="1" t="s">
@@ -18574,7 +18562,7 @@
       <c r="B446" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="C446" s="4">
+      <c r="C446" s="2">
         <v>2</v>
       </c>
       <c r="D446" s="1" t="s">
@@ -18594,7 +18582,7 @@
       <c r="B447" s="1" t="s">
         <v>1398</v>
       </c>
-      <c r="C447" s="4">
+      <c r="C447" s="2">
         <v>1</v>
       </c>
       <c r="D447" s="1" t="s">
@@ -18614,7 +18602,7 @@
       <c r="B448" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="C448" s="4">
+      <c r="C448" s="2">
         <v>1</v>
       </c>
       <c r="D448" s="1" t="s">
@@ -18634,7 +18622,7 @@
       <c r="B449" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="C449" s="4">
+      <c r="C449" s="2">
         <v>1</v>
       </c>
       <c r="D449" s="1" t="s">
@@ -18654,7 +18642,7 @@
       <c r="B450" s="1" t="s">
         <v>1407</v>
       </c>
-      <c r="C450" s="4">
+      <c r="C450" s="2">
         <v>2</v>
       </c>
       <c r="D450" s="1" t="s">
@@ -18674,7 +18662,7 @@
       <c r="B451" s="1" t="s">
         <v>1410</v>
       </c>
-      <c r="C451" s="4">
+      <c r="C451" s="2">
         <v>1</v>
       </c>
       <c r="D451" s="1" t="s">
@@ -18694,7 +18682,7 @@
       <c r="B452" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="C452" s="4">
+      <c r="C452" s="2">
         <v>1</v>
       </c>
       <c r="D452" s="1" t="s">
@@ -18714,7 +18702,7 @@
       <c r="B453" s="1" t="s">
         <v>1415</v>
       </c>
-      <c r="C453" s="4">
+      <c r="C453" s="2">
         <v>2</v>
       </c>
       <c r="D453" s="1" t="s">
@@ -18734,7 +18722,7 @@
       <c r="B454" s="1" t="s">
         <v>1418</v>
       </c>
-      <c r="C454" s="4">
+      <c r="C454" s="2">
         <v>2</v>
       </c>
       <c r="D454" s="1" t="s">
@@ -18754,7 +18742,7 @@
       <c r="B455" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="C455" s="4">
+      <c r="C455" s="2">
         <v>3</v>
       </c>
       <c r="D455" s="1" t="s">
@@ -18774,7 +18762,7 @@
       <c r="B456" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="C456" s="4">
+      <c r="C456" s="2">
         <v>1</v>
       </c>
       <c r="D456" s="1" t="s">
@@ -18794,7 +18782,7 @@
       <c r="B457" s="1" t="s">
         <v>1427</v>
       </c>
-      <c r="C457" s="4">
+      <c r="C457" s="2">
         <v>2</v>
       </c>
       <c r="D457" s="1" t="s">
@@ -18814,7 +18802,7 @@
       <c r="B458" s="1" t="s">
         <v>1431</v>
       </c>
-      <c r="C458" s="4">
+      <c r="C458" s="2">
         <v>2</v>
       </c>
       <c r="D458" s="1" t="s">
@@ -18834,7 +18822,7 @@
       <c r="B459" s="1" t="s">
         <v>1433</v>
       </c>
-      <c r="C459" s="4">
+      <c r="C459" s="2">
         <v>2</v>
       </c>
       <c r="D459" s="1" t="s">
@@ -18854,7 +18842,7 @@
       <c r="B460" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="C460" s="4">
+      <c r="C460" s="2">
         <v>1</v>
       </c>
       <c r="D460" s="1" t="s">
@@ -18874,7 +18862,7 @@
       <c r="B461" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="C461" s="4">
+      <c r="C461" s="2">
         <v>1</v>
       </c>
       <c r="D461" s="1" t="s">
@@ -18894,7 +18882,7 @@
       <c r="B462" s="1" t="s">
         <v>1445</v>
       </c>
-      <c r="C462" s="4">
+      <c r="C462" s="2">
         <v>2</v>
       </c>
       <c r="D462" s="1" t="s">
@@ -18914,7 +18902,7 @@
       <c r="B463" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C463" s="4">
+      <c r="C463" s="2">
         <v>1</v>
       </c>
       <c r="D463" s="1" t="s">
@@ -18934,7 +18922,7 @@
       <c r="B464" s="1" t="s">
         <v>1452</v>
       </c>
-      <c r="C464" s="4">
+      <c r="C464" s="2">
         <v>2</v>
       </c>
       <c r="D464" s="1" t="s">
@@ -18954,7 +18942,7 @@
       <c r="B465" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="C465" s="4">
+      <c r="C465" s="2">
         <v>1</v>
       </c>
       <c r="D465" s="1" t="s">
@@ -18974,7 +18962,7 @@
       <c r="B466" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="C466" s="4">
+      <c r="C466" s="2">
         <v>1</v>
       </c>
       <c r="D466" s="1" t="s">
@@ -18994,7 +18982,7 @@
       <c r="B467" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="C467" s="4">
+      <c r="C467" s="2">
         <v>2</v>
       </c>
       <c r="D467" s="1" t="s">
@@ -19014,7 +19002,7 @@
       <c r="B468" s="1" t="s">
         <v>1465</v>
       </c>
-      <c r="C468" s="4">
+      <c r="C468" s="2">
         <v>1</v>
       </c>
       <c r="D468" s="1" t="s">
@@ -19034,7 +19022,7 @@
       <c r="B469" s="1" t="s">
         <v>1468</v>
       </c>
-      <c r="C469" s="4">
+      <c r="C469" s="2">
         <v>2</v>
       </c>
       <c r="D469" s="1" t="s">
@@ -19054,7 +19042,7 @@
       <c r="B470" s="1" t="s">
         <v>1471</v>
       </c>
-      <c r="C470" s="4">
+      <c r="C470" s="2">
         <v>1</v>
       </c>
       <c r="D470" s="1" t="s">
@@ -19074,7 +19062,7 @@
       <c r="B471" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="C471" s="4">
+      <c r="C471" s="2">
         <v>1</v>
       </c>
       <c r="D471" s="1" t="s">
@@ -19094,7 +19082,7 @@
       <c r="B472" s="1" t="s">
         <v>1478</v>
       </c>
-      <c r="C472" s="4">
+      <c r="C472" s="2">
         <v>1</v>
       </c>
       <c r="D472" s="1" t="s">
@@ -19114,7 +19102,7 @@
       <c r="B473" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="C473" s="4">
+      <c r="C473" s="2">
         <v>1</v>
       </c>
       <c r="D473" s="1" t="s">
@@ -19134,7 +19122,7 @@
       <c r="B474" s="1" t="s">
         <v>1483</v>
       </c>
-      <c r="C474" s="4">
+      <c r="C474" s="2">
         <v>1</v>
       </c>
       <c r="D474" s="1" t="s">
@@ -19154,7 +19142,7 @@
       <c r="B475" s="1" t="s">
         <v>1486</v>
       </c>
-      <c r="C475" s="4">
+      <c r="C475" s="2">
         <v>1</v>
       </c>
       <c r="D475" s="1" t="s">
@@ -19174,7 +19162,7 @@
       <c r="B476" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="C476" s="4">
+      <c r="C476" s="2">
         <v>1</v>
       </c>
       <c r="D476" s="1" t="s">
@@ -19194,7 +19182,7 @@
       <c r="B477" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="C477" s="4">
+      <c r="C477" s="2">
         <v>1</v>
       </c>
       <c r="D477" s="1" t="s">
@@ -19214,7 +19202,7 @@
       <c r="B478" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="C478" s="4">
+      <c r="C478" s="2">
         <v>4</v>
       </c>
       <c r="D478" s="1" t="s">
@@ -19234,7 +19222,7 @@
       <c r="B479" s="1" t="s">
         <v>1497</v>
       </c>
-      <c r="C479" s="4">
+      <c r="C479" s="2">
         <v>2</v>
       </c>
       <c r="D479" s="1" t="s">
@@ -19254,7 +19242,7 @@
       <c r="B480" s="1" t="s">
         <v>1500</v>
       </c>
-      <c r="C480" s="4">
+      <c r="C480" s="2">
         <v>2</v>
       </c>
       <c r="D480" s="1" t="s">
@@ -19274,7 +19262,7 @@
       <c r="B481" s="1" t="s">
         <v>1504</v>
       </c>
-      <c r="C481" s="4">
+      <c r="C481" s="2">
         <v>1</v>
       </c>
       <c r="D481" s="1" t="s">
@@ -19294,7 +19282,7 @@
       <c r="B482" s="1" t="s">
         <v>1507</v>
       </c>
-      <c r="C482" s="4">
+      <c r="C482" s="2">
         <v>1</v>
       </c>
       <c r="D482" s="1" t="s">
@@ -19314,7 +19302,7 @@
       <c r="B483" s="1" t="s">
         <v>1510</v>
       </c>
-      <c r="C483" s="4">
+      <c r="C483" s="2">
         <v>3</v>
       </c>
       <c r="D483" s="1" t="s">
@@ -19334,7 +19322,7 @@
       <c r="B484" s="1" t="s">
         <v>1514</v>
       </c>
-      <c r="C484" s="4">
+      <c r="C484" s="2">
         <v>2</v>
       </c>
       <c r="D484" s="1" t="s">
@@ -19354,7 +19342,7 @@
       <c r="B485" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="C485" s="4">
+      <c r="C485" s="2">
         <v>2</v>
       </c>
       <c r="D485" s="1" t="s">
@@ -19374,7 +19362,7 @@
       <c r="B486" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="C486" s="4">
+      <c r="C486" s="2">
         <v>2</v>
       </c>
       <c r="D486" s="1" t="s">
@@ -19394,7 +19382,7 @@
       <c r="B487" s="1" t="s">
         <v>1524</v>
       </c>
-      <c r="C487" s="4">
+      <c r="C487" s="2">
         <v>2</v>
       </c>
       <c r="D487" s="1" t="s">
@@ -19414,7 +19402,7 @@
       <c r="B488" s="1" t="s">
         <v>1528</v>
       </c>
-      <c r="C488" s="4">
+      <c r="C488" s="2">
         <v>1</v>
       </c>
       <c r="D488" s="1" t="s">
@@ -19434,7 +19422,7 @@
       <c r="B489" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="C489" s="4">
+      <c r="C489" s="2">
         <v>1</v>
       </c>
       <c r="D489" s="1" t="s">
@@ -19454,7 +19442,7 @@
       <c r="B490" s="1" t="s">
         <v>1533</v>
       </c>
-      <c r="C490" s="4">
+      <c r="C490" s="2">
         <v>1</v>
       </c>
       <c r="D490" s="1" t="s">
@@ -19474,7 +19462,7 @@
       <c r="B491" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="C491" s="4">
+      <c r="C491" s="2">
         <v>1</v>
       </c>
       <c r="D491" s="1" t="s">
@@ -19494,7 +19482,7 @@
       <c r="B492" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="C492" s="4">
+      <c r="C492" s="2">
         <v>1</v>
       </c>
       <c r="D492" s="1" t="s">
@@ -19514,7 +19502,7 @@
       <c r="B493" s="1" t="s">
         <v>1543</v>
       </c>
-      <c r="C493" s="4">
+      <c r="C493" s="2">
         <v>1</v>
       </c>
       <c r="D493" s="1" t="s">
@@ -19534,7 +19522,7 @@
       <c r="B494" s="1" t="s">
         <v>1547</v>
       </c>
-      <c r="C494" s="4">
+      <c r="C494" s="2">
         <v>3</v>
       </c>
       <c r="D494" s="1" t="s">
@@ -19554,7 +19542,7 @@
       <c r="B495" s="1" t="s">
         <v>1551</v>
       </c>
-      <c r="C495" s="4">
+      <c r="C495" s="2">
         <v>2</v>
       </c>
       <c r="D495" s="1" t="s">
@@ -19574,7 +19562,7 @@
       <c r="B496" s="1" t="s">
         <v>1554</v>
       </c>
-      <c r="C496" s="4">
+      <c r="C496" s="2">
         <v>6</v>
       </c>
       <c r="D496" s="1" t="s">
@@ -19594,7 +19582,7 @@
       <c r="B497" s="1" t="s">
         <v>1557</v>
       </c>
-      <c r="C497" s="4">
+      <c r="C497" s="2">
         <v>1</v>
       </c>
       <c r="D497" s="1" t="s">
@@ -19614,7 +19602,7 @@
       <c r="B498" s="1" t="s">
         <v>1560</v>
       </c>
-      <c r="C498" s="4">
+      <c r="C498" s="2">
         <v>1</v>
       </c>
       <c r="D498" s="1" t="s">
@@ -19634,7 +19622,7 @@
       <c r="B499" s="1" t="s">
         <v>1564</v>
       </c>
-      <c r="C499" s="4">
+      <c r="C499" s="2">
         <v>3</v>
       </c>
       <c r="D499" s="1" t="s">
@@ -19654,7 +19642,7 @@
       <c r="B500" s="1" t="s">
         <v>1567</v>
       </c>
-      <c r="C500" s="4">
+      <c r="C500" s="2">
         <v>4</v>
       </c>
       <c r="D500" s="1" t="s">
@@ -19674,7 +19662,7 @@
       <c r="B501" s="1" t="s">
         <v>1570</v>
       </c>
-      <c r="C501" s="4">
+      <c r="C501" s="2">
         <v>3</v>
       </c>
       <c r="D501" s="1" t="s">
@@ -19694,7 +19682,7 @@
       <c r="B502" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="C502" s="4">
+      <c r="C502" s="2">
         <v>2</v>
       </c>
       <c r="D502" s="1" t="s">
@@ -19714,7 +19702,7 @@
       <c r="B503" s="1" t="s">
         <v>1576</v>
       </c>
-      <c r="C503" s="4">
+      <c r="C503" s="2">
         <v>1</v>
       </c>
       <c r="D503" s="1" t="s">
@@ -19734,7 +19722,7 @@
       <c r="B504" s="1" t="s">
         <v>1579</v>
       </c>
-      <c r="C504" s="4">
+      <c r="C504" s="2">
         <v>6</v>
       </c>
       <c r="D504" s="1" t="s">
@@ -19754,7 +19742,7 @@
       <c r="B505" s="1" t="s">
         <v>1583</v>
       </c>
-      <c r="C505" s="4">
+      <c r="C505" s="2">
         <v>1</v>
       </c>
       <c r="D505" s="1" t="s">
@@ -19774,7 +19762,7 @@
       <c r="B506" s="1" t="s">
         <v>1588</v>
       </c>
-      <c r="C506" s="4">
+      <c r="C506" s="2">
         <v>3</v>
       </c>
       <c r="D506" s="1" t="s">
@@ -19794,7 +19782,7 @@
       <c r="B507" s="1" t="s">
         <v>1592</v>
       </c>
-      <c r="C507" s="4">
+      <c r="C507" s="2">
         <v>2</v>
       </c>
       <c r="D507" s="1" t="s">
@@ -19814,7 +19802,7 @@
       <c r="B508" s="1" t="s">
         <v>1595</v>
       </c>
-      <c r="C508" s="4">
+      <c r="C508" s="2">
         <v>2</v>
       </c>
       <c r="D508" s="1" t="s">
@@ -19834,7 +19822,7 @@
       <c r="B509" s="1" t="s">
         <v>1598</v>
       </c>
-      <c r="C509" s="4">
+      <c r="C509" s="2">
         <v>2</v>
       </c>
       <c r="D509" s="1" t="s">
@@ -19854,7 +19842,7 @@
       <c r="B510" s="1" t="s">
         <v>1602</v>
       </c>
-      <c r="C510" s="4">
+      <c r="C510" s="2">
         <v>3</v>
       </c>
       <c r="D510" s="1" t="s">
@@ -19874,7 +19862,7 @@
       <c r="B511" s="1" t="s">
         <v>1606</v>
       </c>
-      <c r="C511" s="4">
+      <c r="C511" s="2">
         <v>1</v>
       </c>
       <c r="D511" s="1" t="s">
@@ -19894,7 +19882,7 @@
       <c r="B512" s="1" t="s">
         <v>1610</v>
       </c>
-      <c r="C512" s="4">
+      <c r="C512" s="2">
         <v>1</v>
       </c>
       <c r="D512" s="1" t="s">
@@ -19914,7 +19902,7 @@
       <c r="B513" s="1" t="s">
         <v>1614</v>
       </c>
-      <c r="C513" s="4">
+      <c r="C513" s="2">
         <v>1</v>
       </c>
       <c r="D513" s="1" t="s">
@@ -19934,7 +19922,7 @@
       <c r="B514" s="1" t="s">
         <v>1617</v>
       </c>
-      <c r="C514" s="4">
+      <c r="C514" s="2">
         <v>2</v>
       </c>
       <c r="D514" s="1" t="s">
@@ -19954,7 +19942,7 @@
       <c r="B515" s="1" t="s">
         <v>1621</v>
       </c>
-      <c r="C515" s="4">
+      <c r="C515" s="2">
         <v>1</v>
       </c>
       <c r="D515" s="1" t="s">
@@ -19974,7 +19962,7 @@
       <c r="B516" s="1" t="s">
         <v>1624</v>
       </c>
-      <c r="C516" s="4">
+      <c r="C516" s="2">
         <v>1</v>
       </c>
       <c r="D516" s="1" t="s">
@@ -19994,7 +19982,7 @@
       <c r="B517" s="1" t="s">
         <v>1629</v>
       </c>
-      <c r="C517" s="4">
+      <c r="C517" s="2">
         <v>2</v>
       </c>
       <c r="D517" s="1" t="s">
@@ -20014,7 +20002,7 @@
       <c r="B518" s="1" t="s">
         <v>1633</v>
       </c>
-      <c r="C518" s="4">
+      <c r="C518" s="2">
         <v>2</v>
       </c>
       <c r="D518" s="1" t="s">
@@ -20034,7 +20022,7 @@
       <c r="B519" s="1" t="s">
         <v>1638</v>
       </c>
-      <c r="C519" s="4">
+      <c r="C519" s="2">
         <v>2</v>
       </c>
       <c r="D519" s="1" t="s">
@@ -20054,7 +20042,7 @@
       <c r="B520" s="1" t="s">
         <v>1643</v>
       </c>
-      <c r="C520" s="4">
+      <c r="C520" s="2">
         <v>1</v>
       </c>
       <c r="D520" s="1" t="s">
@@ -20074,7 +20062,7 @@
       <c r="B521" s="1" t="s">
         <v>1648</v>
       </c>
-      <c r="C521" s="4">
+      <c r="C521" s="2">
         <v>1</v>
       </c>
       <c r="D521" s="1" t="s">
@@ -20094,7 +20082,7 @@
       <c r="B522" s="1" t="s">
         <v>1652</v>
       </c>
-      <c r="C522" s="4">
+      <c r="C522" s="2">
         <v>2</v>
       </c>
       <c r="D522" s="1" t="s">
@@ -20114,7 +20102,7 @@
       <c r="B523" s="1" t="s">
         <v>1656</v>
       </c>
-      <c r="C523" s="4">
+      <c r="C523" s="2">
         <v>1</v>
       </c>
       <c r="D523" s="1" t="s">
@@ -20134,7 +20122,7 @@
       <c r="B524" s="1" t="s">
         <v>1659</v>
       </c>
-      <c r="C524" s="4">
+      <c r="C524" s="2">
         <v>1</v>
       </c>
       <c r="D524" s="1" t="s">
@@ -20154,7 +20142,7 @@
       <c r="B525" s="1" t="s">
         <v>1661</v>
       </c>
-      <c r="C525" s="4">
+      <c r="C525" s="2">
         <v>1</v>
       </c>
       <c r="D525" s="1" t="s">
@@ -20174,7 +20162,7 @@
       <c r="B526" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="C526" s="4">
+      <c r="C526" s="2">
         <v>1</v>
       </c>
       <c r="D526" s="1" t="s">
@@ -20194,7 +20182,7 @@
       <c r="B527" s="1" t="s">
         <v>1667</v>
       </c>
-      <c r="C527" s="4">
+      <c r="C527" s="2">
         <v>2</v>
       </c>
       <c r="D527" s="1" t="s">
@@ -20214,7 +20202,7 @@
       <c r="B528" s="1" t="s">
         <v>1670</v>
       </c>
-      <c r="C528" s="4">
+      <c r="C528" s="2">
         <v>2</v>
       </c>
       <c r="D528" s="1" t="s">
@@ -20234,7 +20222,7 @@
       <c r="B529" s="1" t="s">
         <v>1673</v>
       </c>
-      <c r="C529" s="4">
+      <c r="C529" s="2">
         <v>2</v>
       </c>
       <c r="D529" s="1" t="s">
@@ -20254,7 +20242,7 @@
       <c r="B530" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="C530" s="4">
+      <c r="C530" s="2">
         <v>1</v>
       </c>
       <c r="D530" s="1" t="s">
@@ -20274,7 +20262,7 @@
       <c r="B531" s="1" t="s">
         <v>1682</v>
       </c>
-      <c r="C531" s="4">
+      <c r="C531" s="2">
         <v>2</v>
       </c>
       <c r="D531" s="1" t="s">
@@ -20294,7 +20282,7 @@
       <c r="B532" s="1" t="s">
         <v>1685</v>
       </c>
-      <c r="C532" s="4">
+      <c r="C532" s="2">
         <v>1</v>
       </c>
       <c r="D532" s="1" t="s">
@@ -20314,7 +20302,7 @@
       <c r="B533" s="1" t="s">
         <v>1688</v>
       </c>
-      <c r="C533" s="4">
+      <c r="C533" s="2">
         <v>1</v>
       </c>
       <c r="D533" s="1" t="s">
@@ -20334,7 +20322,7 @@
       <c r="B534" s="1" t="s">
         <v>1691</v>
       </c>
-      <c r="C534" s="4">
+      <c r="C534" s="2">
         <v>1</v>
       </c>
       <c r="D534" s="1" t="s">
@@ -20354,7 +20342,7 @@
       <c r="B535" s="1" t="s">
         <v>1693</v>
       </c>
-      <c r="C535" s="4">
+      <c r="C535" s="2">
         <v>1</v>
       </c>
       <c r="D535" s="1" t="s">
@@ -20374,7 +20362,7 @@
       <c r="B536" s="1" t="s">
         <v>1696</v>
       </c>
-      <c r="C536" s="4">
+      <c r="C536" s="2">
         <v>1</v>
       </c>
       <c r="D536" s="1" t="s">
@@ -20394,7 +20382,7 @@
       <c r="B537" s="1" t="s">
         <v>1700</v>
       </c>
-      <c r="C537" s="4">
+      <c r="C537" s="2">
         <v>4</v>
       </c>
       <c r="D537" s="1" t="s">
@@ -20414,7 +20402,7 @@
       <c r="B538" s="1" t="s">
         <v>1703</v>
       </c>
-      <c r="C538" s="4">
+      <c r="C538" s="2">
         <v>1</v>
       </c>
       <c r="D538" s="1" t="s">
@@ -20434,7 +20422,7 @@
       <c r="B539" s="1" t="s">
         <v>1706</v>
       </c>
-      <c r="C539" s="4">
+      <c r="C539" s="2">
         <v>2</v>
       </c>
       <c r="D539" s="1" t="s">
@@ -20454,7 +20442,7 @@
       <c r="B540" s="1" t="s">
         <v>1709</v>
       </c>
-      <c r="C540" s="4">
+      <c r="C540" s="2">
         <v>2</v>
       </c>
       <c r="D540" s="1" t="s">
@@ -20474,7 +20462,7 @@
       <c r="B541" s="1" t="s">
         <v>1712</v>
       </c>
-      <c r="C541" s="4">
+      <c r="C541" s="2">
         <v>1</v>
       </c>
       <c r="D541" s="1" t="s">
@@ -20494,7 +20482,7 @@
       <c r="B542" s="1" t="s">
         <v>1716</v>
       </c>
-      <c r="C542" s="4">
+      <c r="C542" s="2">
         <v>3</v>
       </c>
       <c r="D542" s="1" t="s">
@@ -20514,7 +20502,7 @@
       <c r="B543" s="1" t="s">
         <v>1720</v>
       </c>
-      <c r="C543" s="4">
+      <c r="C543" s="2">
         <v>2</v>
       </c>
       <c r="D543" s="1" t="s">
@@ -20534,7 +20522,7 @@
       <c r="B544" s="1" t="s">
         <v>1724</v>
       </c>
-      <c r="C544" s="4">
+      <c r="C544" s="2">
         <v>2</v>
       </c>
       <c r="D544" s="1" t="s">
@@ -20554,7 +20542,7 @@
       <c r="B545" s="1" t="s">
         <v>1728</v>
       </c>
-      <c r="C545" s="4">
+      <c r="C545" s="2">
         <v>1</v>
       </c>
       <c r="D545" s="1" t="s">
@@ -20574,7 +20562,7 @@
       <c r="B546" s="1" t="s">
         <v>1731</v>
       </c>
-      <c r="C546" s="4">
+      <c r="C546" s="2">
         <v>2</v>
       </c>
       <c r="D546" s="1" t="s">
@@ -20594,7 +20582,7 @@
       <c r="B547" s="1" t="s">
         <v>1735</v>
       </c>
-      <c r="C547" s="4">
+      <c r="C547" s="2">
         <v>2</v>
       </c>
       <c r="D547" s="1" t="s">
@@ -20614,7 +20602,7 @@
       <c r="B548" s="1" t="s">
         <v>1739</v>
       </c>
-      <c r="C548" s="4">
+      <c r="C548" s="2">
         <v>1</v>
       </c>
       <c r="D548" s="1" t="s">
@@ -20634,7 +20622,7 @@
       <c r="B549" s="1" t="s">
         <v>1743</v>
       </c>
-      <c r="C549" s="4">
+      <c r="C549" s="2">
         <v>1</v>
       </c>
       <c r="D549" s="1" t="s">
@@ -20654,7 +20642,7 @@
       <c r="B550" s="1" t="s">
         <v>1746</v>
       </c>
-      <c r="C550" s="4">
+      <c r="C550" s="2">
         <v>1</v>
       </c>
       <c r="D550" s="1" t="s">
@@ -20674,7 +20662,7 @@
       <c r="B551" s="1" t="s">
         <v>1749</v>
       </c>
-      <c r="C551" s="4">
+      <c r="C551" s="2">
         <v>4</v>
       </c>
       <c r="D551" s="1" t="s">
@@ -20694,7 +20682,7 @@
       <c r="B552" s="1" t="s">
         <v>1752</v>
       </c>
-      <c r="C552" s="4">
+      <c r="C552" s="2">
         <v>6</v>
       </c>
       <c r="D552" s="1" t="s">
@@ -20714,7 +20702,7 @@
       <c r="B553" s="1" t="s">
         <v>1755</v>
       </c>
-      <c r="C553" s="4">
+      <c r="C553" s="2">
         <v>4</v>
       </c>
       <c r="D553" s="1" t="s">
@@ -20734,7 +20722,7 @@
       <c r="B554" s="1" t="s">
         <v>1758</v>
       </c>
-      <c r="C554" s="4">
+      <c r="C554" s="2">
         <v>2</v>
       </c>
       <c r="D554" s="1" t="s">
@@ -20754,7 +20742,7 @@
       <c r="B555" s="1" t="s">
         <v>1761</v>
       </c>
-      <c r="C555" s="4">
+      <c r="C555" s="2">
         <v>5</v>
       </c>
       <c r="D555" s="1" t="s">
@@ -20774,7 +20762,7 @@
       <c r="B556" s="1" t="s">
         <v>1764</v>
       </c>
-      <c r="C556" s="4">
+      <c r="C556" s="2">
         <v>1</v>
       </c>
       <c r="D556" s="1" t="s">
@@ -20794,7 +20782,7 @@
       <c r="B557" s="1" t="s">
         <v>1768</v>
       </c>
-      <c r="C557" s="4">
+      <c r="C557" s="2">
         <v>6</v>
       </c>
       <c r="D557" s="1" t="s">
@@ -20814,7 +20802,7 @@
       <c r="B558" s="1" t="s">
         <v>1771</v>
       </c>
-      <c r="C558" s="4">
+      <c r="C558" s="2">
         <v>3</v>
       </c>
       <c r="D558" s="1" t="s">
@@ -20834,7 +20822,7 @@
       <c r="B559" s="1" t="s">
         <v>1774</v>
       </c>
-      <c r="C559" s="4">
+      <c r="C559" s="2">
         <v>2</v>
       </c>
       <c r="D559" s="1" t="s">
@@ -20854,7 +20842,7 @@
       <c r="B560" s="1" t="s">
         <v>1778</v>
       </c>
-      <c r="C560" s="4">
+      <c r="C560" s="2">
         <v>1</v>
       </c>
       <c r="D560" s="1" t="s">
@@ -20874,7 +20862,7 @@
       <c r="B561" s="1" t="s">
         <v>1782</v>
       </c>
-      <c r="C561" s="4">
+      <c r="C561" s="2">
         <v>3</v>
       </c>
       <c r="D561" s="1" t="s">
@@ -20894,7 +20882,7 @@
       <c r="B562" s="1" t="s">
         <v>1785</v>
       </c>
-      <c r="C562" s="4">
+      <c r="C562" s="2">
         <v>3</v>
       </c>
       <c r="D562" s="1" t="s">
@@ -20914,7 +20902,7 @@
       <c r="B563" s="1" t="s">
         <v>1787</v>
       </c>
-      <c r="C563" s="4">
+      <c r="C563" s="2">
         <v>2</v>
       </c>
       <c r="D563" s="1" t="s">
@@ -20934,7 +20922,7 @@
       <c r="B564" s="1" t="s">
         <v>1790</v>
       </c>
-      <c r="C564" s="4">
+      <c r="C564" s="2">
         <v>5</v>
       </c>
       <c r="D564" s="1" t="s">
@@ -20954,7 +20942,7 @@
       <c r="B565" s="1" t="s">
         <v>1794</v>
       </c>
-      <c r="C565" s="4">
+      <c r="C565" s="2">
         <v>2</v>
       </c>
       <c r="D565" s="1" t="s">
@@ -20974,7 +20962,7 @@
       <c r="B566" s="1" t="s">
         <v>1798</v>
       </c>
-      <c r="C566" s="4">
+      <c r="C566" s="2">
         <v>1</v>
       </c>
       <c r="D566" s="1" t="s">
@@ -20994,7 +20982,7 @@
       <c r="B567" s="1" t="s">
         <v>1802</v>
       </c>
-      <c r="C567" s="4">
+      <c r="C567" s="2">
         <v>2</v>
       </c>
       <c r="D567" s="1" t="s">
@@ -21014,7 +21002,7 @@
       <c r="B568" s="1" t="s">
         <v>1805</v>
       </c>
-      <c r="C568" s="4">
+      <c r="C568" s="2">
         <v>1</v>
       </c>
       <c r="D568" s="1" t="s">
@@ -21034,7 +21022,7 @@
       <c r="B569" s="1" t="s">
         <v>1809</v>
       </c>
-      <c r="C569" s="4">
+      <c r="C569" s="2">
         <v>2</v>
       </c>
       <c r="D569" s="1" t="s">
@@ -21054,7 +21042,7 @@
       <c r="B570" s="1" t="s">
         <v>1812</v>
       </c>
-      <c r="C570" s="4">
+      <c r="C570" s="2">
         <v>4</v>
       </c>
       <c r="D570" s="1" t="s">
@@ -21074,7 +21062,7 @@
       <c r="B571" s="1" t="s">
         <v>1815</v>
       </c>
-      <c r="C571" s="4">
+      <c r="C571" s="2">
         <v>3</v>
       </c>
       <c r="D571" s="1" t="s">
@@ -21094,7 +21082,7 @@
       <c r="B572" s="1" t="s">
         <v>1818</v>
       </c>
-      <c r="C572" s="4">
+      <c r="C572" s="2">
         <v>2</v>
       </c>
       <c r="D572" s="1" t="s">
@@ -21114,7 +21102,7 @@
       <c r="B573" s="1" t="s">
         <v>1821</v>
       </c>
-      <c r="C573" s="4">
+      <c r="C573" s="2">
         <v>2</v>
       </c>
       <c r="D573" s="1" t="s">
@@ -21134,7 +21122,7 @@
       <c r="B574" s="1" t="s">
         <v>1825</v>
       </c>
-      <c r="C574" s="4">
+      <c r="C574" s="2">
         <v>3</v>
       </c>
       <c r="D574" s="1" t="s">
@@ -21154,7 +21142,7 @@
       <c r="B575" s="1" t="s">
         <v>1828</v>
       </c>
-      <c r="C575" s="4">
+      <c r="C575" s="2">
         <v>2</v>
       </c>
       <c r="D575" s="1" t="s">
@@ -21174,7 +21162,7 @@
       <c r="B576" s="1" t="s">
         <v>1831</v>
       </c>
-      <c r="C576" s="4">
+      <c r="C576" s="2">
         <v>1</v>
       </c>
       <c r="D576" s="1" t="s">
@@ -21194,7 +21182,7 @@
       <c r="B577" s="1" t="s">
         <v>1834</v>
       </c>
-      <c r="C577" s="4">
+      <c r="C577" s="2">
         <v>2</v>
       </c>
       <c r="D577" s="1" t="s">
@@ -21214,7 +21202,7 @@
       <c r="B578" s="1" t="s">
         <v>1838</v>
       </c>
-      <c r="C578" s="4">
+      <c r="C578" s="2">
         <v>1</v>
       </c>
       <c r="D578" s="1" t="s">
@@ -21234,7 +21222,7 @@
       <c r="B579" s="1" t="s">
         <v>1842</v>
       </c>
-      <c r="C579" s="4">
+      <c r="C579" s="2">
         <v>4</v>
       </c>
       <c r="D579" s="1" t="s">
@@ -21254,7 +21242,7 @@
       <c r="B580" s="1" t="s">
         <v>1846</v>
       </c>
-      <c r="C580" s="4">
+      <c r="C580" s="2">
         <v>1</v>
       </c>
       <c r="D580" s="1" t="s">
@@ -21274,7 +21262,7 @@
       <c r="B581" s="1" t="s">
         <v>1849</v>
       </c>
-      <c r="C581" s="4">
+      <c r="C581" s="2">
         <v>6</v>
       </c>
       <c r="D581" s="1" t="s">
@@ -21294,7 +21282,7 @@
       <c r="B582" s="1" t="s">
         <v>1852</v>
       </c>
-      <c r="C582" s="4">
+      <c r="C582" s="2">
         <v>2</v>
       </c>
       <c r="D582" s="1" t="s">
@@ -21314,7 +21302,7 @@
       <c r="B583" s="1" t="s">
         <v>1856</v>
       </c>
-      <c r="C583" s="4">
+      <c r="C583" s="2">
         <v>2</v>
       </c>
       <c r="D583" s="1" t="s">
@@ -21334,7 +21322,7 @@
       <c r="B584" s="1" t="s">
         <v>1860</v>
       </c>
-      <c r="C584" s="4">
+      <c r="C584" s="2">
         <v>2</v>
       </c>
       <c r="D584" s="1" t="s">
@@ -21354,7 +21342,7 @@
       <c r="B585" s="1" t="s">
         <v>1864</v>
       </c>
-      <c r="C585" s="4">
+      <c r="C585" s="2">
         <v>1</v>
       </c>
       <c r="D585" s="1" t="s">
@@ -21374,7 +21362,7 @@
       <c r="B586" s="1" t="s">
         <v>1867</v>
       </c>
-      <c r="C586" s="4">
+      <c r="C586" s="2">
         <v>1</v>
       </c>
       <c r="D586" s="1" t="s">
@@ -21394,7 +21382,7 @@
       <c r="B587" s="1" t="s">
         <v>1870</v>
       </c>
-      <c r="C587" s="4">
+      <c r="C587" s="2">
         <v>3</v>
       </c>
       <c r="D587" s="1" t="s">
@@ -21414,7 +21402,7 @@
       <c r="B588" s="1" t="s">
         <v>1873</v>
       </c>
-      <c r="C588" s="4">
+      <c r="C588" s="2">
         <v>2</v>
       </c>
       <c r="D588" s="1" t="s">
@@ -21434,7 +21422,7 @@
       <c r="B589" s="1" t="s">
         <v>1876</v>
       </c>
-      <c r="C589" s="4">
+      <c r="C589" s="2">
         <v>1</v>
       </c>
       <c r="D589" s="1" t="s">
@@ -21454,7 +21442,7 @@
       <c r="B590" s="1" t="s">
         <v>1878</v>
       </c>
-      <c r="C590" s="4">
+      <c r="C590" s="2">
         <v>1</v>
       </c>
       <c r="D590" s="1" t="s">
@@ -21474,7 +21462,7 @@
       <c r="B591" s="1" t="s">
         <v>1880</v>
       </c>
-      <c r="C591" s="4">
+      <c r="C591" s="2">
         <v>1</v>
       </c>
       <c r="D591" s="1" t="s">
@@ -21494,7 +21482,7 @@
       <c r="B592" s="1" t="s">
         <v>1882</v>
       </c>
-      <c r="C592" s="4">
+      <c r="C592" s="2">
         <v>1</v>
       </c>
       <c r="D592" s="1" t="s">
@@ -21514,7 +21502,7 @@
       <c r="B593" s="1" t="s">
         <v>1884</v>
       </c>
-      <c r="C593" s="4">
+      <c r="C593" s="2">
         <v>2</v>
       </c>
       <c r="D593" s="1" t="s">
@@ -21534,7 +21522,7 @@
       <c r="B594" s="1" t="s">
         <v>1888</v>
       </c>
-      <c r="C594" s="4">
+      <c r="C594" s="2">
         <v>2</v>
       </c>
       <c r="D594" s="1" t="s">
@@ -21554,7 +21542,7 @@
       <c r="B595" s="1" t="s">
         <v>1892</v>
       </c>
-      <c r="C595" s="4">
+      <c r="C595" s="2">
         <v>2</v>
       </c>
       <c r="D595" s="1" t="s">
@@ -21574,7 +21562,7 @@
       <c r="B596" s="1" t="s">
         <v>1895</v>
       </c>
-      <c r="C596" s="4">
+      <c r="C596" s="2">
         <v>2</v>
       </c>
       <c r="D596" s="1" t="s">
@@ -21594,7 +21582,7 @@
       <c r="B597" s="1" t="s">
         <v>1898</v>
       </c>
-      <c r="C597" s="4">
+      <c r="C597" s="2">
         <v>3</v>
       </c>
       <c r="D597" s="1" t="s">
@@ -21614,7 +21602,7 @@
       <c r="B598" s="1" t="s">
         <v>1901</v>
       </c>
-      <c r="C598" s="4">
+      <c r="C598" s="2">
         <v>2</v>
       </c>
       <c r="D598" s="1" t="s">
@@ -21634,7 +21622,7 @@
       <c r="B599" s="1" t="s">
         <v>1904</v>
       </c>
-      <c r="C599" s="4">
+      <c r="C599" s="2">
         <v>3</v>
       </c>
       <c r="D599" s="1" t="s">
@@ -21654,7 +21642,7 @@
       <c r="B600" s="1" t="s">
         <v>1908</v>
       </c>
-      <c r="C600" s="4">
+      <c r="C600" s="2">
         <v>2</v>
       </c>
       <c r="D600" s="1" t="s">
@@ -21674,7 +21662,7 @@
       <c r="B601" s="1" t="s">
         <v>1911</v>
       </c>
-      <c r="C601" s="4">
+      <c r="C601" s="2">
         <v>1</v>
       </c>
       <c r="D601" s="1" t="s">
@@ -21694,7 +21682,7 @@
       <c r="B602" s="1" t="s">
         <v>1914</v>
       </c>
-      <c r="C602" s="4">
+      <c r="C602" s="2">
         <v>4</v>
       </c>
       <c r="D602" s="1" t="s">
@@ -21714,7 +21702,7 @@
       <c r="B603" s="1" t="s">
         <v>1917</v>
       </c>
-      <c r="C603" s="4">
+      <c r="C603" s="2">
         <v>1</v>
       </c>
       <c r="D603" s="1" t="s">
@@ -21734,7 +21722,7 @@
       <c r="B604" s="1" t="s">
         <v>1919</v>
       </c>
-      <c r="C604" s="4">
+      <c r="C604" s="2">
         <v>3</v>
       </c>
       <c r="D604" s="1" t="s">
@@ -21754,7 +21742,7 @@
       <c r="B605" s="1" t="s">
         <v>1922</v>
       </c>
-      <c r="C605" s="4">
+      <c r="C605" s="2">
         <v>1</v>
       </c>
       <c r="D605" s="1" t="s">
@@ -21774,7 +21762,7 @@
       <c r="B606" s="1" t="s">
         <v>1924</v>
       </c>
-      <c r="C606" s="4">
+      <c r="C606" s="2">
         <v>3</v>
       </c>
       <c r="D606" s="1" t="s">
@@ -21794,7 +21782,7 @@
       <c r="B607" s="1" t="s">
         <v>1928</v>
       </c>
-      <c r="C607" s="4">
+      <c r="C607" s="2">
         <v>1</v>
       </c>
       <c r="D607" s="1" t="s">
@@ -21814,7 +21802,7 @@
       <c r="B608" s="1" t="s">
         <v>1932</v>
       </c>
-      <c r="C608" s="4">
+      <c r="C608" s="2">
         <v>1</v>
       </c>
       <c r="D608" s="1" t="s">
@@ -21834,7 +21822,7 @@
       <c r="B609" s="1" t="s">
         <v>1936</v>
       </c>
-      <c r="C609" s="4">
+      <c r="C609" s="2">
         <v>1</v>
       </c>
       <c r="D609" s="1" t="s">
@@ -21854,7 +21842,7 @@
       <c r="B610" s="1" t="s">
         <v>1940</v>
       </c>
-      <c r="C610" s="4">
+      <c r="C610" s="2">
         <v>2</v>
       </c>
       <c r="D610" s="1" t="s">
@@ -21874,7 +21862,7 @@
       <c r="B611" s="1" t="s">
         <v>1944</v>
       </c>
-      <c r="C611" s="4">
+      <c r="C611" s="2">
         <v>2</v>
       </c>
       <c r="D611" s="1" t="s">
@@ -21894,7 +21882,7 @@
       <c r="B612" s="1" t="s">
         <v>1947</v>
       </c>
-      <c r="C612" s="4">
+      <c r="C612" s="2">
         <v>3</v>
       </c>
       <c r="D612" s="1" t="s">
@@ -21914,7 +21902,7 @@
       <c r="B613" s="1" t="s">
         <v>1950</v>
       </c>
-      <c r="C613" s="4">
+      <c r="C613" s="2">
         <v>2</v>
       </c>
       <c r="D613" s="1" t="s">
@@ -21934,7 +21922,7 @@
       <c r="B614" s="1" t="s">
         <v>1953</v>
       </c>
-      <c r="C614" s="4">
+      <c r="C614" s="2">
         <v>1</v>
       </c>
       <c r="D614" s="1" t="s">
@@ -21954,7 +21942,7 @@
       <c r="B615" s="1" t="s">
         <v>1956</v>
       </c>
-      <c r="C615" s="4">
+      <c r="C615" s="2">
         <v>2</v>
       </c>
       <c r="D615" s="1" t="s">
@@ -21974,7 +21962,7 @@
       <c r="B616" s="1" t="s">
         <v>1959</v>
       </c>
-      <c r="C616" s="4">
+      <c r="C616" s="2">
         <v>3</v>
       </c>
       <c r="D616" s="1" t="s">
@@ -21994,7 +21982,7 @@
       <c r="B617" s="1" t="s">
         <v>1962</v>
       </c>
-      <c r="C617" s="4">
+      <c r="C617" s="2">
         <v>3</v>
       </c>
       <c r="D617" s="1" t="s">
@@ -22014,7 +22002,7 @@
       <c r="B618" s="1" t="s">
         <v>1965</v>
       </c>
-      <c r="C618" s="4">
+      <c r="C618" s="2">
         <v>2</v>
       </c>
       <c r="D618" s="1" t="s">
@@ -22034,7 +22022,7 @@
       <c r="B619" s="1" t="s">
         <v>1968</v>
       </c>
-      <c r="C619" s="4">
+      <c r="C619" s="2">
         <v>2</v>
       </c>
       <c r="D619" s="1" t="s">
@@ -22054,7 +22042,7 @@
       <c r="B620" s="1" t="s">
         <v>1971</v>
       </c>
-      <c r="C620" s="4">
+      <c r="C620" s="2">
         <v>3</v>
       </c>
       <c r="D620" s="1" t="s">
@@ -22074,7 +22062,7 @@
       <c r="B621" s="1" t="s">
         <v>1974</v>
       </c>
-      <c r="C621" s="4">
+      <c r="C621" s="2">
         <v>2</v>
       </c>
       <c r="D621" s="1" t="s">
@@ -22094,7 +22082,7 @@
       <c r="B622" s="1" t="s">
         <v>1977</v>
       </c>
-      <c r="C622" s="4">
+      <c r="C622" s="2">
         <v>2</v>
       </c>
       <c r="D622" s="1" t="s">
@@ -22114,7 +22102,7 @@
       <c r="B623" s="1" t="s">
         <v>1980</v>
       </c>
-      <c r="C623" s="4">
+      <c r="C623" s="2">
         <v>2</v>
       </c>
       <c r="D623" s="1" t="s">
@@ -22134,7 +22122,7 @@
       <c r="B624" s="1" t="s">
         <v>1983</v>
       </c>
-      <c r="C624" s="4">
+      <c r="C624" s="2">
         <v>2</v>
       </c>
       <c r="D624" s="1" t="s">
@@ -22154,7 +22142,7 @@
       <c r="B625" s="1" t="s">
         <v>1986</v>
       </c>
-      <c r="C625" s="4">
+      <c r="C625" s="2">
         <v>1</v>
       </c>
       <c r="D625" s="1" t="s">
@@ -22174,7 +22162,7 @@
       <c r="B626" s="1" t="s">
         <v>1989</v>
       </c>
-      <c r="C626" s="4">
+      <c r="C626" s="2">
         <v>2</v>
       </c>
       <c r="D626" s="1" t="s">
@@ -22194,7 +22182,7 @@
       <c r="B627" s="1" t="s">
         <v>1991</v>
       </c>
-      <c r="C627" s="4">
+      <c r="C627" s="2">
         <v>1</v>
       </c>
       <c r="D627" s="1" t="s">
@@ -22214,7 +22202,7 @@
       <c r="B628" s="1" t="s">
         <v>1994</v>
       </c>
-      <c r="C628" s="4">
+      <c r="C628" s="2">
         <v>2</v>
       </c>
       <c r="D628" s="1" t="s">
@@ -22234,7 +22222,7 @@
       <c r="B629" s="1" t="s">
         <v>1996</v>
       </c>
-      <c r="C629" s="4">
+      <c r="C629" s="2">
         <v>2</v>
       </c>
       <c r="D629" s="1" t="s">
@@ -22254,7 +22242,7 @@
       <c r="B630" s="1" t="s">
         <v>1998</v>
       </c>
-      <c r="C630" s="4">
+      <c r="C630" s="2">
         <v>2</v>
       </c>
       <c r="D630" s="1" t="s">
@@ -22274,7 +22262,7 @@
       <c r="B631" s="1" t="s">
         <v>2001</v>
       </c>
-      <c r="C631" s="4">
+      <c r="C631" s="2">
         <v>3</v>
       </c>
       <c r="D631" s="1" t="s">
@@ -22294,7 +22282,7 @@
       <c r="B632" s="1" t="s">
         <v>2004</v>
       </c>
-      <c r="C632" s="4">
+      <c r="C632" s="2">
         <v>2</v>
       </c>
       <c r="D632" s="1" t="s">
@@ -22314,7 +22302,7 @@
       <c r="B633" s="1" t="s">
         <v>2007</v>
       </c>
-      <c r="C633" s="4">
+      <c r="C633" s="2">
         <v>3</v>
       </c>
       <c r="D633" s="1" t="s">
@@ -22334,7 +22322,7 @@
       <c r="B634" s="1" t="s">
         <v>2009</v>
       </c>
-      <c r="C634" s="4">
+      <c r="C634" s="2">
         <v>2</v>
       </c>
       <c r="D634" s="1" t="s">
@@ -22354,7 +22342,7 @@
       <c r="B635" s="1" t="s">
         <v>2012</v>
       </c>
-      <c r="C635" s="4">
+      <c r="C635" s="2">
         <v>3</v>
       </c>
       <c r="D635" s="1" t="s">
@@ -22374,7 +22362,7 @@
       <c r="B636" s="1" t="s">
         <v>2014</v>
       </c>
-      <c r="C636" s="4">
+      <c r="C636" s="2">
         <v>2</v>
       </c>
       <c r="D636" s="1" t="s">
@@ -22394,7 +22382,7 @@
       <c r="B637" s="1" t="s">
         <v>2017</v>
       </c>
-      <c r="C637" s="4">
+      <c r="C637" s="2">
         <v>3</v>
       </c>
       <c r="D637" s="1" t="s">
@@ -22414,7 +22402,7 @@
       <c r="B638" s="1" t="s">
         <v>2020</v>
       </c>
-      <c r="C638" s="4">
+      <c r="C638" s="2">
         <v>1</v>
       </c>
       <c r="D638" s="1" t="s">
@@ -22434,7 +22422,7 @@
       <c r="B639" s="1" t="s">
         <v>2022</v>
       </c>
-      <c r="C639" s="4">
+      <c r="C639" s="2">
         <v>2</v>
       </c>
       <c r="D639" s="1" t="s">
@@ -22454,7 +22442,7 @@
       <c r="B640" s="1" t="s">
         <v>2025</v>
       </c>
-      <c r="C640" s="4">
+      <c r="C640" s="2">
         <v>2</v>
       </c>
       <c r="D640" s="1" t="s">
@@ -22474,7 +22462,7 @@
       <c r="B641" s="1" t="s">
         <v>2029</v>
       </c>
-      <c r="C641" s="4">
+      <c r="C641" s="2">
         <v>2</v>
       </c>
       <c r="D641" s="1" t="s">
@@ -22494,7 +22482,7 @@
       <c r="B642" s="1" t="s">
         <v>2031</v>
       </c>
-      <c r="C642" s="4">
+      <c r="C642" s="2">
         <v>3</v>
       </c>
       <c r="D642" s="1" t="s">
@@ -22514,7 +22502,7 @@
       <c r="B643" s="1" t="s">
         <v>2033</v>
       </c>
-      <c r="C643" s="4">
+      <c r="C643" s="2">
         <v>2</v>
       </c>
       <c r="D643" s="1" t="s">
@@ -22534,7 +22522,7 @@
       <c r="B644" s="1" t="s">
         <v>2035</v>
       </c>
-      <c r="C644" s="4">
+      <c r="C644" s="2">
         <v>2</v>
       </c>
       <c r="D644" s="1" t="s">
@@ -22554,7 +22542,7 @@
       <c r="B645" s="1" t="s">
         <v>2038</v>
       </c>
-      <c r="C645" s="4">
+      <c r="C645" s="2">
         <v>3</v>
       </c>
       <c r="D645" s="1" t="s">
@@ -22574,7 +22562,7 @@
       <c r="B646" s="1" t="s">
         <v>2040</v>
       </c>
-      <c r="C646" s="4">
+      <c r="C646" s="2">
         <v>2</v>
       </c>
       <c r="D646" s="1" t="s">
@@ -22594,7 +22582,7 @@
       <c r="B647" s="1" t="s">
         <v>2042</v>
       </c>
-      <c r="C647" s="4">
+      <c r="C647" s="2">
         <v>2</v>
       </c>
       <c r="D647" s="1" t="s">
@@ -22614,7 +22602,7 @@
       <c r="B648" s="1" t="s">
         <v>2045</v>
       </c>
-      <c r="C648" s="4">
+      <c r="C648" s="2">
         <v>3</v>
       </c>
       <c r="D648" s="1" t="s">
@@ -22634,7 +22622,7 @@
       <c r="B649" s="1" t="s">
         <v>2047</v>
       </c>
-      <c r="C649" s="4">
+      <c r="C649" s="2">
         <v>2</v>
       </c>
       <c r="D649" s="1" t="s">
@@ -22654,7 +22642,7 @@
       <c r="B650" s="1" t="s">
         <v>2051</v>
       </c>
-      <c r="C650" s="4">
+      <c r="C650" s="2">
         <v>2</v>
       </c>
       <c r="D650" s="1" t="s">
@@ -22674,7 +22662,7 @@
       <c r="B651" s="1" t="s">
         <v>2054</v>
       </c>
-      <c r="C651" s="4">
+      <c r="C651" s="2">
         <v>2</v>
       </c>
       <c r="D651" s="1" t="s">
@@ -22694,7 +22682,7 @@
       <c r="B652" s="1" t="s">
         <v>2057</v>
       </c>
-      <c r="C652" s="4">
+      <c r="C652" s="2">
         <v>2</v>
       </c>
       <c r="D652" s="1" t="s">
@@ -22714,7 +22702,7 @@
       <c r="B653" s="1" t="s">
         <v>2059</v>
       </c>
-      <c r="C653" s="4">
+      <c r="C653" s="2">
         <v>2</v>
       </c>
       <c r="D653" s="1" t="s">
@@ -22734,7 +22722,7 @@
       <c r="B654" s="1" t="s">
         <v>2061</v>
       </c>
-      <c r="C654" s="4">
+      <c r="C654" s="2">
         <v>2</v>
       </c>
       <c r="D654" s="1" t="s">
@@ -22754,7 +22742,7 @@
       <c r="B655" s="1" t="s">
         <v>2064</v>
       </c>
-      <c r="C655" s="4">
+      <c r="C655" s="2">
         <v>2</v>
       </c>
       <c r="D655" s="1" t="s">
@@ -22774,7 +22762,7 @@
       <c r="B656" s="1" t="s">
         <v>2067</v>
       </c>
-      <c r="C656" s="4">
+      <c r="C656" s="2">
         <v>2</v>
       </c>
       <c r="D656" s="1" t="s">
@@ -22794,7 +22782,7 @@
       <c r="B657" s="1" t="s">
         <v>2070</v>
       </c>
-      <c r="C657" s="4">
+      <c r="C657" s="2">
         <v>2</v>
       </c>
       <c r="D657" s="1" t="s">
@@ -22814,7 +22802,7 @@
       <c r="B658" s="1" t="s">
         <v>2073</v>
       </c>
-      <c r="C658" s="4">
+      <c r="C658" s="2">
         <v>2</v>
       </c>
       <c r="D658" s="1" t="s">
@@ -22834,7 +22822,7 @@
       <c r="B659" s="1" t="s">
         <v>2076</v>
       </c>
-      <c r="C659" s="4">
+      <c r="C659" s="2">
         <v>1</v>
       </c>
       <c r="D659" s="1" t="s">
@@ -22854,7 +22842,7 @@
       <c r="B660" s="1" t="s">
         <v>2079</v>
       </c>
-      <c r="C660" s="4">
+      <c r="C660" s="2">
         <v>2</v>
       </c>
       <c r="D660" s="1" t="s">
@@ -22874,7 +22862,7 @@
       <c r="B661" s="1" t="s">
         <v>2082</v>
       </c>
-      <c r="C661" s="4">
+      <c r="C661" s="2">
         <v>2</v>
       </c>
       <c r="D661" s="1" t="s">
@@ -22894,7 +22882,7 @@
       <c r="B662" s="1" t="s">
         <v>2084</v>
       </c>
-      <c r="C662" s="4">
+      <c r="C662" s="2">
         <v>2</v>
       </c>
       <c r="D662" s="1" t="s">
@@ -22914,7 +22902,7 @@
       <c r="B663" s="1" t="s">
         <v>2086</v>
       </c>
-      <c r="C663" s="4">
+      <c r="C663" s="2">
         <v>2</v>
       </c>
       <c r="D663" s="1" t="s">
@@ -22934,7 +22922,7 @@
       <c r="B664" s="1" t="s">
         <v>2088</v>
       </c>
-      <c r="C664" s="4">
+      <c r="C664" s="2">
         <v>2</v>
       </c>
       <c r="D664" s="1" t="s">
@@ -22954,7 +22942,7 @@
       <c r="B665" s="1" t="s">
         <v>2091</v>
       </c>
-      <c r="C665" s="4">
+      <c r="C665" s="2">
         <v>3</v>
       </c>
       <c r="D665" s="1" t="s">
@@ -22974,7 +22962,7 @@
       <c r="B666" s="1" t="s">
         <v>2093</v>
       </c>
-      <c r="C666" s="4">
+      <c r="C666" s="2">
         <v>3</v>
       </c>
       <c r="D666" s="1" t="s">
@@ -22994,7 +22982,7 @@
       <c r="B667" s="1" t="s">
         <v>2095</v>
       </c>
-      <c r="C667" s="4">
+      <c r="C667" s="2">
         <v>2</v>
       </c>
       <c r="D667" s="1" t="s">
@@ -23014,7 +23002,7 @@
       <c r="B668" s="1" t="s">
         <v>2097</v>
       </c>
-      <c r="C668" s="4">
+      <c r="C668" s="2">
         <v>2</v>
       </c>
       <c r="D668" s="1" t="s">
@@ -23034,7 +23022,7 @@
       <c r="B669" s="1" t="s">
         <v>2100</v>
       </c>
-      <c r="C669" s="4">
+      <c r="C669" s="2">
         <v>3</v>
       </c>
       <c r="D669" s="1" t="s">
@@ -23054,7 +23042,7 @@
       <c r="B670" s="1" t="s">
         <v>2102</v>
       </c>
-      <c r="C670" s="4">
+      <c r="C670" s="2">
         <v>2</v>
       </c>
       <c r="D670" s="1" t="s">
@@ -23074,7 +23062,7 @@
       <c r="B671" s="1" t="s">
         <v>2105</v>
       </c>
-      <c r="C671" s="4">
+      <c r="C671" s="2">
         <v>1</v>
       </c>
       <c r="D671" s="1" t="s">
@@ -23094,7 +23082,7 @@
       <c r="B672" s="1" t="s">
         <v>2107</v>
       </c>
-      <c r="C672" s="4">
+      <c r="C672" s="2">
         <v>3</v>
       </c>
       <c r="D672" s="1" t="s">
@@ -23114,7 +23102,7 @@
       <c r="B673" s="1" t="s">
         <v>2109</v>
       </c>
-      <c r="C673" s="4">
+      <c r="C673" s="2">
         <v>3</v>
       </c>
       <c r="D673" s="1" t="s">
@@ -23134,7 +23122,7 @@
       <c r="B674" s="1" t="s">
         <v>2111</v>
       </c>
-      <c r="C674" s="4">
+      <c r="C674" s="2">
         <v>2</v>
       </c>
       <c r="D674" s="1" t="s">
@@ -23154,7 +23142,7 @@
       <c r="B675" s="1" t="s">
         <v>2113</v>
       </c>
-      <c r="C675" s="4">
+      <c r="C675" s="2">
         <v>2</v>
       </c>
       <c r="D675" s="1" t="s">
@@ -23174,7 +23162,7 @@
       <c r="B676" s="1" t="s">
         <v>2116</v>
       </c>
-      <c r="C676" s="4">
+      <c r="C676" s="2">
         <v>1</v>
       </c>
       <c r="D676" s="1" t="s">
@@ -23194,7 +23182,7 @@
       <c r="B677" s="1" t="s">
         <v>2118</v>
       </c>
-      <c r="C677" s="4">
+      <c r="C677" s="2">
         <v>2</v>
       </c>
       <c r="D677" s="1" t="s">
@@ -23214,7 +23202,7 @@
       <c r="B678" s="1" t="s">
         <v>2121</v>
       </c>
-      <c r="C678" s="4">
+      <c r="C678" s="2">
         <v>3</v>
       </c>
       <c r="D678" s="1" t="s">
@@ -23234,7 +23222,7 @@
       <c r="B679" s="1" t="s">
         <v>2123</v>
       </c>
-      <c r="C679" s="4">
+      <c r="C679" s="2">
         <v>2</v>
       </c>
       <c r="D679" s="1" t="s">
@@ -23254,7 +23242,7 @@
       <c r="B680" s="1" t="s">
         <v>2126</v>
       </c>
-      <c r="C680" s="4">
+      <c r="C680" s="2">
         <v>1</v>
       </c>
       <c r="D680" s="1" t="s">
@@ -23274,7 +23262,7 @@
       <c r="B681" s="1" t="s">
         <v>2129</v>
       </c>
-      <c r="C681" s="4">
+      <c r="C681" s="2">
         <v>12</v>
       </c>
       <c r="D681" s="1" t="s">
@@ -23294,7 +23282,7 @@
       <c r="B682" s="1" t="s">
         <v>2132</v>
       </c>
-      <c r="C682" s="4">
+      <c r="C682" s="2">
         <v>2</v>
       </c>
       <c r="D682" s="1" t="s">
@@ -23314,7 +23302,7 @@
       <c r="B683" s="1" t="s">
         <v>2135</v>
       </c>
-      <c r="C683" s="4">
+      <c r="C683" s="2">
         <v>18</v>
       </c>
       <c r="D683" s="1" t="s">
@@ -23334,7 +23322,7 @@
       <c r="B684" s="1" t="s">
         <v>2138</v>
       </c>
-      <c r="C684" s="4">
+      <c r="C684" s="2">
         <v>1</v>
       </c>
       <c r="D684" s="1" t="s">
@@ -23354,7 +23342,7 @@
       <c r="B685" s="1" t="s">
         <v>2141</v>
       </c>
-      <c r="C685" s="4">
+      <c r="C685" s="2">
         <v>1</v>
       </c>
       <c r="D685" s="1" t="s">
@@ -23374,7 +23362,7 @@
       <c r="B686" s="1" t="s">
         <v>2144</v>
       </c>
-      <c r="C686" s="4">
+      <c r="C686" s="2">
         <v>1</v>
       </c>
       <c r="D686" s="1" t="s">
@@ -23394,7 +23382,7 @@
       <c r="B687" s="1" t="s">
         <v>2147</v>
       </c>
-      <c r="C687" s="4">
+      <c r="C687" s="2">
         <v>4</v>
       </c>
       <c r="D687" s="1" t="s">
@@ -23414,7 +23402,7 @@
       <c r="B688" s="1" t="s">
         <v>2150</v>
       </c>
-      <c r="C688" s="4">
+      <c r="C688" s="2">
         <v>8</v>
       </c>
       <c r="D688" s="1" t="s">
@@ -23434,7 +23422,7 @@
       <c r="B689" s="1" t="s">
         <v>2153</v>
       </c>
-      <c r="C689" s="4">
+      <c r="C689" s="2">
         <v>4</v>
       </c>
       <c r="D689" s="1" t="s">
@@ -23454,7 +23442,7 @@
       <c r="B690" s="1" t="s">
         <v>2156</v>
       </c>
-      <c r="C690" s="4">
+      <c r="C690" s="2">
         <v>5</v>
       </c>
       <c r="D690" s="1" t="s">
@@ -23474,7 +23462,7 @@
       <c r="B691" s="1" t="s">
         <v>2159</v>
       </c>
-      <c r="C691" s="4">
+      <c r="C691" s="2">
         <v>5</v>
       </c>
       <c r="D691" s="1" t="s">
@@ -23494,7 +23482,7 @@
       <c r="B692" s="1" t="s">
         <v>2162</v>
       </c>
-      <c r="C692" s="4">
+      <c r="C692" s="2">
         <v>10</v>
       </c>
       <c r="D692" s="1" t="s">
@@ -23514,7 +23502,7 @@
       <c r="B693" s="1" t="s">
         <v>2165</v>
       </c>
-      <c r="C693" s="4">
+      <c r="C693" s="2">
         <v>2</v>
       </c>
       <c r="D693" s="1" t="s">
@@ -23534,7 +23522,7 @@
       <c r="B694" s="1" t="s">
         <v>2168</v>
       </c>
-      <c r="C694" s="4">
+      <c r="C694" s="2">
         <v>11</v>
       </c>
       <c r="D694" s="1" t="s">
@@ -23554,7 +23542,7 @@
       <c r="B695" s="1" t="s">
         <v>2171</v>
       </c>
-      <c r="C695" s="4">
+      <c r="C695" s="2">
         <v>6</v>
       </c>
       <c r="D695" s="1" t="s">
@@ -23574,7 +23562,7 @@
       <c r="B696" s="1" t="s">
         <v>2174</v>
       </c>
-      <c r="C696" s="4">
+      <c r="C696" s="2">
         <v>7</v>
       </c>
       <c r="D696" s="1" t="s">
@@ -23594,7 +23582,7 @@
       <c r="B697" s="1" t="s">
         <v>2177</v>
       </c>
-      <c r="C697" s="4">
+      <c r="C697" s="2">
         <v>12</v>
       </c>
       <c r="D697" s="1" t="s">
@@ -23614,7 +23602,7 @@
       <c r="B698" s="1" t="s">
         <v>2180</v>
       </c>
-      <c r="C698" s="4">
+      <c r="C698" s="2">
         <v>7</v>
       </c>
       <c r="D698" s="1" t="s">
@@ -23634,7 +23622,7 @@
       <c r="B699" s="1" t="s">
         <v>2183</v>
       </c>
-      <c r="C699" s="4">
+      <c r="C699" s="2">
         <v>8</v>
       </c>
       <c r="D699" s="1" t="s">
@@ -23654,7 +23642,7 @@
       <c r="B700" s="1" t="s">
         <v>2186</v>
       </c>
-      <c r="C700" s="4">
+      <c r="C700" s="2">
         <v>6</v>
       </c>
       <c r="D700" s="1" t="s">
@@ -23674,7 +23662,7 @@
       <c r="B701" s="1" t="s">
         <v>2189</v>
       </c>
-      <c r="C701" s="4">
+      <c r="C701" s="2">
         <v>6</v>
       </c>
       <c r="D701" s="1" t="s">
@@ -23694,7 +23682,7 @@
       <c r="B702" s="1" t="s">
         <v>2192</v>
       </c>
-      <c r="C702" s="4">
+      <c r="C702" s="2">
         <v>4</v>
       </c>
       <c r="D702" s="1" t="s">
@@ -23714,7 +23702,7 @@
       <c r="B703" s="1" t="s">
         <v>2195</v>
       </c>
-      <c r="C703" s="4">
+      <c r="C703" s="2">
         <v>5</v>
       </c>
       <c r="D703" s="1" t="s">
@@ -23734,7 +23722,7 @@
       <c r="B704" s="1" t="s">
         <v>2198</v>
       </c>
-      <c r="C704" s="4">
+      <c r="C704" s="2">
         <v>6</v>
       </c>
       <c r="D704" s="1" t="s">
@@ -23754,7 +23742,7 @@
       <c r="B705" s="1" t="s">
         <v>2202</v>
       </c>
-      <c r="C705" s="4">
+      <c r="C705" s="2">
         <v>3</v>
       </c>
       <c r="D705" s="1" t="s">
@@ -23774,7 +23762,7 @@
       <c r="B706" s="1" t="s">
         <v>2205</v>
       </c>
-      <c r="C706" s="4">
+      <c r="C706" s="2">
         <v>3</v>
       </c>
       <c r="D706" s="1" t="s">
@@ -23794,7 +23782,7 @@
       <c r="B707" s="1" t="s">
         <v>2208</v>
       </c>
-      <c r="C707" s="4">
+      <c r="C707" s="2">
         <v>3</v>
       </c>
       <c r="D707" s="1" t="s">
@@ -23814,7 +23802,7 @@
       <c r="B708" s="1" t="s">
         <v>2211</v>
       </c>
-      <c r="C708" s="4">
+      <c r="C708" s="2">
         <v>3</v>
       </c>
       <c r="D708" s="1" t="s">
@@ -23834,7 +23822,7 @@
       <c r="B709" s="1" t="s">
         <v>2214</v>
       </c>
-      <c r="C709" s="4">
+      <c r="C709" s="2">
         <v>2</v>
       </c>
       <c r="D709" s="1" t="s">
@@ -23854,7 +23842,7 @@
       <c r="B710" s="1" t="s">
         <v>2217</v>
       </c>
-      <c r="C710" s="4">
+      <c r="C710" s="2">
         <v>2</v>
       </c>
       <c r="D710" s="1" t="s">
@@ -23874,7 +23862,7 @@
       <c r="B711" s="1" t="s">
         <v>2220</v>
       </c>
-      <c r="C711" s="4">
+      <c r="C711" s="2">
         <v>1</v>
       </c>
       <c r="D711" s="1" t="s">
@@ -23894,7 +23882,7 @@
       <c r="B712" s="1" t="s">
         <v>2223</v>
       </c>
-      <c r="C712" s="4">
+      <c r="C712" s="2">
         <v>2</v>
       </c>
       <c r="D712" s="1" t="s">
@@ -23914,7 +23902,7 @@
       <c r="B713" s="1" t="s">
         <v>2226</v>
       </c>
-      <c r="C713" s="4">
+      <c r="C713" s="2">
         <v>1</v>
       </c>
       <c r="D713" s="1" t="s">
@@ -23934,7 +23922,7 @@
       <c r="B714" s="1" t="s">
         <v>2229</v>
       </c>
-      <c r="C714" s="4">
+      <c r="C714" s="2">
         <v>2</v>
       </c>
       <c r="D714" s="1" t="s">
@@ -23954,7 +23942,7 @@
       <c r="B715" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="C715" s="4">
+      <c r="C715" s="2">
         <v>1</v>
       </c>
       <c r="D715" s="1" t="s">
@@ -23974,7 +23962,7 @@
       <c r="B716" s="1" t="s">
         <v>2235</v>
       </c>
-      <c r="C716" s="4">
+      <c r="C716" s="2">
         <v>4</v>
       </c>
       <c r="D716" s="1" t="s">
@@ -23994,7 +23982,7 @@
       <c r="B717" s="1" t="s">
         <v>2238</v>
       </c>
-      <c r="C717" s="4">
+      <c r="C717" s="2">
         <v>3</v>
       </c>
       <c r="D717" s="1" t="s">
@@ -24014,7 +24002,7 @@
       <c r="B718" s="1" t="s">
         <v>2241</v>
       </c>
-      <c r="C718" s="4">
+      <c r="C718" s="2">
         <v>1</v>
       </c>
       <c r="D718" s="1" t="s">
@@ -24034,7 +24022,7 @@
       <c r="B719" s="1" t="s">
         <v>2244</v>
       </c>
-      <c r="C719" s="4">
+      <c r="C719" s="2">
         <v>2</v>
       </c>
       <c r="D719" s="1" t="s">
@@ -24054,7 +24042,7 @@
       <c r="B720" s="1" t="s">
         <v>2247</v>
       </c>
-      <c r="C720" s="4">
+      <c r="C720" s="2">
         <v>1</v>
       </c>
       <c r="D720" s="1" t="s">
@@ -24074,7 +24062,7 @@
       <c r="B721" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="C721" s="4">
+      <c r="C721" s="2">
         <v>2</v>
       </c>
       <c r="D721" s="1" t="s">
@@ -24094,7 +24082,7 @@
       <c r="B722" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="C722" s="4">
+      <c r="C722" s="2">
         <v>4</v>
       </c>
       <c r="D722" s="1" t="s">
@@ -24114,7 +24102,7 @@
       <c r="B723" s="1" t="s">
         <v>2256</v>
       </c>
-      <c r="C723" s="4">
+      <c r="C723" s="2">
         <v>3</v>
       </c>
       <c r="D723" s="1" t="s">
@@ -24134,7 +24122,7 @@
       <c r="B724" s="1" t="s">
         <v>2259</v>
       </c>
-      <c r="C724" s="4">
+      <c r="C724" s="2">
         <v>2</v>
       </c>
       <c r="D724" s="1" t="s">
@@ -24154,7 +24142,7 @@
       <c r="B725" s="1" t="s">
         <v>2262</v>
       </c>
-      <c r="C725" s="4">
+      <c r="C725" s="2">
         <v>1</v>
       </c>
       <c r="D725" s="1" t="s">
@@ -24174,7 +24162,7 @@
       <c r="B726" s="1" t="s">
         <v>2265</v>
       </c>
-      <c r="C726" s="4">
+      <c r="C726" s="2">
         <v>3</v>
       </c>
       <c r="D726" s="1" t="s">
@@ -24194,7 +24182,7 @@
       <c r="B727" s="1" t="s">
         <v>2268</v>
       </c>
-      <c r="C727" s="4">
+      <c r="C727" s="2">
         <v>1</v>
       </c>
       <c r="D727" s="1" t="s">
@@ -24214,7 +24202,7 @@
       <c r="B728" s="1" t="s">
         <v>2271</v>
       </c>
-      <c r="C728" s="4">
+      <c r="C728" s="2">
         <v>2</v>
       </c>
       <c r="D728" s="1" t="s">
@@ -24234,7 +24222,7 @@
       <c r="B729" s="1" t="s">
         <v>2274</v>
       </c>
-      <c r="C729" s="4">
+      <c r="C729" s="2">
         <v>3</v>
       </c>
       <c r="D729" s="1" t="s">
@@ -24254,7 +24242,7 @@
       <c r="B730" s="1" t="s">
         <v>2277</v>
       </c>
-      <c r="C730" s="4">
+      <c r="C730" s="2">
         <v>1</v>
       </c>
       <c r="D730" s="1" t="s">
@@ -24274,7 +24262,7 @@
       <c r="B731" s="1" t="s">
         <v>2280</v>
       </c>
-      <c r="C731" s="4">
+      <c r="C731" s="2">
         <v>4</v>
       </c>
       <c r="D731" s="1" t="s">
@@ -24294,7 +24282,7 @@
       <c r="B732" s="1" t="s">
         <v>2283</v>
       </c>
-      <c r="C732" s="4">
+      <c r="C732" s="2">
         <v>4</v>
       </c>
       <c r="D732" s="1" t="s">
@@ -24314,7 +24302,7 @@
       <c r="B733" s="1" t="s">
         <v>2286</v>
       </c>
-      <c r="C733" s="4">
+      <c r="C733" s="2">
         <v>1</v>
       </c>
       <c r="D733" s="1" t="s">
@@ -24334,7 +24322,7 @@
       <c r="B734" s="1" t="s">
         <v>2289</v>
       </c>
-      <c r="C734" s="4">
+      <c r="C734" s="2">
         <v>3</v>
       </c>
       <c r="D734" s="1" t="s">
@@ -24354,7 +24342,7 @@
       <c r="B735" s="1" t="s">
         <v>2292</v>
       </c>
-      <c r="C735" s="4">
+      <c r="C735" s="2">
         <v>2</v>
       </c>
       <c r="D735" s="1" t="s">
@@ -24374,7 +24362,7 @@
       <c r="B736" s="1" t="s">
         <v>2294</v>
       </c>
-      <c r="C736" s="4">
+      <c r="C736" s="2">
         <v>1</v>
       </c>
       <c r="D736" s="1" t="s">
@@ -24394,7 +24382,7 @@
       <c r="B737" s="1" t="s">
         <v>2297</v>
       </c>
-      <c r="C737" s="4">
+      <c r="C737" s="2">
         <v>2</v>
       </c>
       <c r="D737" s="1" t="s">
@@ -24414,7 +24402,7 @@
       <c r="B738" s="1" t="s">
         <v>2300</v>
       </c>
-      <c r="C738" s="4">
+      <c r="C738" s="2">
         <v>3</v>
       </c>
       <c r="D738" s="1" t="s">
@@ -24434,7 +24422,7 @@
       <c r="B739" s="1" t="s">
         <v>2302</v>
       </c>
-      <c r="C739" s="4">
+      <c r="C739" s="2">
         <v>2</v>
       </c>
       <c r="D739" s="1" t="s">
@@ -24454,7 +24442,7 @@
       <c r="B740" s="1" t="s">
         <v>2305</v>
       </c>
-      <c r="C740" s="4">
+      <c r="C740" s="2">
         <v>2</v>
       </c>
       <c r="D740" s="1" t="s">
@@ -24474,7 +24462,7 @@
       <c r="B741" s="1" t="s">
         <v>2308</v>
       </c>
-      <c r="C741" s="4">
+      <c r="C741" s="2">
         <v>3</v>
       </c>
       <c r="D741" s="1" t="s">
@@ -24494,7 +24482,7 @@
       <c r="B742" s="1" t="s">
         <v>2311</v>
       </c>
-      <c r="C742" s="4">
+      <c r="C742" s="2">
         <v>1</v>
       </c>
       <c r="D742" s="1" t="s">
@@ -24514,7 +24502,7 @@
       <c r="B743" s="1" t="s">
         <v>2314</v>
       </c>
-      <c r="C743" s="4">
+      <c r="C743" s="2">
         <v>2</v>
       </c>
       <c r="D743" s="1" t="s">
@@ -24534,7 +24522,7 @@
       <c r="B744" s="1" t="s">
         <v>2317</v>
       </c>
-      <c r="C744" s="4">
+      <c r="C744" s="2">
         <v>1</v>
       </c>
       <c r="D744" s="1" t="s">
@@ -24554,7 +24542,7 @@
       <c r="B745" s="1" t="s">
         <v>2319</v>
       </c>
-      <c r="C745" s="4">
+      <c r="C745" s="2">
         <v>2</v>
       </c>
       <c r="D745" s="1" t="s">
@@ -24574,7 +24562,7 @@
       <c r="B746" s="1" t="s">
         <v>2322</v>
       </c>
-      <c r="C746" s="4">
+      <c r="C746" s="2">
         <v>3</v>
       </c>
       <c r="D746" s="1" t="s">
@@ -24594,7 +24582,7 @@
       <c r="B747" s="1" t="s">
         <v>2324</v>
       </c>
-      <c r="C747" s="4">
+      <c r="C747" s="2">
         <v>4</v>
       </c>
       <c r="D747" s="1" t="s">
@@ -24614,7 +24602,7 @@
       <c r="B748" s="1" t="s">
         <v>2327</v>
       </c>
-      <c r="C748" s="4">
+      <c r="C748" s="2">
         <v>1</v>
       </c>
       <c r="D748" s="1" t="s">
@@ -24634,7 +24622,7 @@
       <c r="B749" s="1" t="s">
         <v>2330</v>
       </c>
-      <c r="C749" s="4">
+      <c r="C749" s="2">
         <v>3</v>
       </c>
       <c r="D749" s="1" t="s">
@@ -24654,7 +24642,7 @@
       <c r="B750" s="1" t="s">
         <v>2333</v>
       </c>
-      <c r="C750" s="4">
+      <c r="C750" s="2">
         <v>2</v>
       </c>
       <c r="D750" s="1" t="s">
@@ -24674,7 +24662,7 @@
       <c r="B751" s="1" t="s">
         <v>2335</v>
       </c>
-      <c r="C751" s="4">
+      <c r="C751" s="2">
         <v>1</v>
       </c>
       <c r="D751" s="1" t="s">
@@ -24694,7 +24682,7 @@
       <c r="B752" s="1" t="s">
         <v>2338</v>
       </c>
-      <c r="C752" s="4">
+      <c r="C752" s="2">
         <v>1</v>
       </c>
       <c r="D752" s="1" t="s">
@@ -24714,7 +24702,7 @@
       <c r="B753" s="1" t="s">
         <v>2341</v>
       </c>
-      <c r="C753" s="4">
+      <c r="C753" s="2">
         <v>4</v>
       </c>
       <c r="D753" s="1" t="s">
@@ -24734,7 +24722,7 @@
       <c r="B754" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="C754" s="4">
+      <c r="C754" s="2">
         <v>4</v>
       </c>
       <c r="D754" s="1" t="s">
@@ -24754,7 +24742,7 @@
       <c r="B755" s="1" t="s">
         <v>2346</v>
       </c>
-      <c r="C755" s="4">
+      <c r="C755" s="2">
         <v>2</v>
       </c>
       <c r="D755" s="1" t="s">
@@ -24774,7 +24762,7 @@
       <c r="B756" s="1" t="s">
         <v>2349</v>
       </c>
-      <c r="C756" s="4">
+      <c r="C756" s="2">
         <v>2</v>
       </c>
       <c r="D756" s="1" t="s">
@@ -24794,7 +24782,7 @@
       <c r="B757" s="1" t="s">
         <v>2352</v>
       </c>
-      <c r="C757" s="4">
+      <c r="C757" s="2">
         <v>3</v>
       </c>
       <c r="D757" s="1" t="s">
@@ -24814,7 +24802,7 @@
       <c r="B758" s="1" t="s">
         <v>2355</v>
       </c>
-      <c r="C758" s="4">
+      <c r="C758" s="2">
         <v>3</v>
       </c>
       <c r="D758" s="1" t="s">
@@ -24834,7 +24822,7 @@
       <c r="B759" s="1" t="s">
         <v>2358</v>
       </c>
-      <c r="C759" s="4">
+      <c r="C759" s="2">
         <v>3</v>
       </c>
       <c r="D759" s="1" t="s">
@@ -24854,7 +24842,7 @@
       <c r="B760" s="1" t="s">
         <v>2361</v>
       </c>
-      <c r="C760" s="4">
+      <c r="C760" s="2">
         <v>2</v>
       </c>
       <c r="D760" s="1" t="s">
@@ -24874,7 +24862,7 @@
       <c r="B761" s="1" t="s">
         <v>2363</v>
       </c>
-      <c r="C761" s="4">
+      <c r="C761" s="2">
         <v>1</v>
       </c>
       <c r="D761" s="1" t="s">
@@ -24894,7 +24882,7 @@
       <c r="B762" s="1" t="s">
         <v>2366</v>
       </c>
-      <c r="C762" s="4">
+      <c r="C762" s="2">
         <v>1</v>
       </c>
       <c r="D762" s="1" t="s">
@@ -24914,7 +24902,7 @@
       <c r="B763" s="1" t="s">
         <v>2368</v>
       </c>
-      <c r="C763" s="4">
+      <c r="C763" s="2">
         <v>4</v>
       </c>
       <c r="D763" s="1" t="s">
@@ -24934,7 +24922,7 @@
       <c r="B764" s="1" t="s">
         <v>2371</v>
       </c>
-      <c r="C764" s="4">
+      <c r="C764" s="2">
         <v>2</v>
       </c>
       <c r="D764" s="1" t="s">
@@ -24954,7 +24942,7 @@
       <c r="B765" s="1" t="s">
         <v>2374</v>
       </c>
-      <c r="C765" s="4">
+      <c r="C765" s="2">
         <v>4</v>
       </c>
       <c r="D765" s="1" t="s">
@@ -24974,7 +24962,7 @@
       <c r="B766" s="1" t="s">
         <v>2377</v>
       </c>
-      <c r="C766" s="4">
+      <c r="C766" s="2">
         <v>2</v>
       </c>
       <c r="D766" s="1" t="s">
@@ -24994,7 +24982,7 @@
       <c r="B767" s="1" t="s">
         <v>2379</v>
       </c>
-      <c r="C767" s="4">
+      <c r="C767" s="2">
         <v>5</v>
       </c>
       <c r="D767" s="1" t="s">
@@ -25014,7 +25002,7 @@
       <c r="B768" s="1" t="s">
         <v>2382</v>
       </c>
-      <c r="C768" s="4">
+      <c r="C768" s="2">
         <v>5</v>
       </c>
       <c r="D768" s="1" t="s">
@@ -25034,7 +25022,7 @@
       <c r="B769" s="1" t="s">
         <v>2385</v>
       </c>
-      <c r="C769" s="4">
+      <c r="C769" s="2">
         <v>3</v>
       </c>
       <c r="D769" s="1" t="s">
@@ -25054,7 +25042,7 @@
       <c r="B770" s="1" t="s">
         <v>2388</v>
       </c>
-      <c r="C770" s="4">
+      <c r="C770" s="2">
         <v>2</v>
       </c>
       <c r="D770" s="1" t="s">
@@ -25074,7 +25062,7 @@
       <c r="B771" s="1" t="s">
         <v>2391</v>
       </c>
-      <c r="C771" s="4">
+      <c r="C771" s="2">
         <v>5</v>
       </c>
       <c r="D771" s="1" t="s">
@@ -25094,7 +25082,7 @@
       <c r="B772" s="1" t="s">
         <v>2394</v>
       </c>
-      <c r="C772" s="4">
+      <c r="C772" s="2">
         <v>2</v>
       </c>
       <c r="D772" s="1" t="s">
@@ -25114,7 +25102,7 @@
       <c r="B773" s="1" t="s">
         <v>2396</v>
       </c>
-      <c r="C773" s="4">
+      <c r="C773" s="2">
         <v>2</v>
       </c>
       <c r="D773" s="1" t="s">
@@ -25134,7 +25122,7 @@
       <c r="B774" s="1" t="s">
         <v>2400</v>
       </c>
-      <c r="C774" s="4">
+      <c r="C774" s="2">
         <v>2</v>
       </c>
       <c r="D774" s="1" t="s">
@@ -25154,7 +25142,7 @@
       <c r="B775" s="1" t="s">
         <v>2402</v>
       </c>
-      <c r="C775" s="4">
+      <c r="C775" s="2">
         <v>4</v>
       </c>
       <c r="D775" s="1" t="s">
@@ -25174,7 +25162,7 @@
       <c r="B776" s="1" t="s">
         <v>2405</v>
       </c>
-      <c r="C776" s="4">
+      <c r="C776" s="2">
         <v>4</v>
       </c>
       <c r="D776" s="1" t="s">
@@ -25194,7 +25182,7 @@
       <c r="B777" s="1" t="s">
         <v>2409</v>
       </c>
-      <c r="C777" s="4">
+      <c r="C777" s="2">
         <v>2</v>
       </c>
       <c r="D777" s="1" t="s">
@@ -25214,7 +25202,7 @@
       <c r="B778" s="1" t="s">
         <v>2412</v>
       </c>
-      <c r="C778" s="4">
+      <c r="C778" s="2">
         <v>1</v>
       </c>
       <c r="D778" s="1" t="s">
@@ -25234,7 +25222,7 @@
       <c r="B779" s="1" t="s">
         <v>2415</v>
       </c>
-      <c r="C779" s="4">
+      <c r="C779" s="2">
         <v>2</v>
       </c>
       <c r="D779" s="1" t="s">
@@ -25254,7 +25242,7 @@
       <c r="B780" s="1" t="s">
         <v>2418</v>
       </c>
-      <c r="C780" s="4">
+      <c r="C780" s="2">
         <v>2</v>
       </c>
       <c r="D780" s="1" t="s">
@@ -25274,7 +25262,7 @@
       <c r="B781" s="1" t="s">
         <v>2421</v>
       </c>
-      <c r="C781" s="4">
+      <c r="C781" s="2">
         <v>1</v>
       </c>
       <c r="D781" s="1" t="s">
@@ -25294,7 +25282,7 @@
       <c r="B782" s="1" t="s">
         <v>2424</v>
       </c>
-      <c r="C782" s="4">
+      <c r="C782" s="2">
         <v>3</v>
       </c>
       <c r="D782" s="1" t="s">
@@ -25314,7 +25302,7 @@
       <c r="B783" s="1" t="s">
         <v>2427</v>
       </c>
-      <c r="C783" s="4">
+      <c r="C783" s="2">
         <v>3</v>
       </c>
       <c r="D783" s="1" t="s">
@@ -25334,7 +25322,7 @@
       <c r="B784" s="1" t="s">
         <v>2430</v>
       </c>
-      <c r="C784" s="4">
+      <c r="C784" s="2">
         <v>2</v>
       </c>
       <c r="D784" s="1" t="s">
@@ -25354,7 +25342,7 @@
       <c r="B785" s="1" t="s">
         <v>2433</v>
       </c>
-      <c r="C785" s="4">
+      <c r="C785" s="2">
         <v>2</v>
       </c>
       <c r="D785" s="1" t="s">
@@ -25374,7 +25362,7 @@
       <c r="B786" s="1" t="s">
         <v>2436</v>
       </c>
-      <c r="C786" s="4">
+      <c r="C786" s="2">
         <v>2</v>
       </c>
       <c r="D786" s="1" t="s">
@@ -25394,7 +25382,7 @@
       <c r="B787" s="1" t="s">
         <v>2439</v>
       </c>
-      <c r="C787" s="4">
+      <c r="C787" s="2">
         <v>2</v>
       </c>
       <c r="D787" s="1" t="s">
@@ -25414,7 +25402,7 @@
       <c r="B788" s="1" t="s">
         <v>2441</v>
       </c>
-      <c r="C788" s="4">
+      <c r="C788" s="2">
         <v>3</v>
       </c>
       <c r="D788" s="1" t="s">
@@ -25434,7 +25422,7 @@
       <c r="B789" s="1" t="s">
         <v>2444</v>
       </c>
-      <c r="C789" s="4">
+      <c r="C789" s="2">
         <v>3</v>
       </c>
       <c r="D789" s="1" t="s">
@@ -25454,7 +25442,7 @@
       <c r="B790" s="1" t="s">
         <v>2447</v>
       </c>
-      <c r="C790" s="4">
+      <c r="C790" s="2">
         <v>2</v>
       </c>
       <c r="D790" s="1" t="s">
@@ -25474,7 +25462,7 @@
       <c r="B791" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="C791" s="4">
+      <c r="C791" s="2">
         <v>2</v>
       </c>
       <c r="D791" s="1" t="s">
@@ -25494,7 +25482,7 @@
       <c r="B792" s="1" t="s">
         <v>2451</v>
       </c>
-      <c r="C792" s="4">
+      <c r="C792" s="2">
         <v>2</v>
       </c>
       <c r="D792" s="1" t="s">
@@ -25514,7 +25502,7 @@
       <c r="B793" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="C793" s="4">
+      <c r="C793" s="2">
         <v>4</v>
       </c>
       <c r="D793" s="1" t="s">
@@ -25534,7 +25522,7 @@
       <c r="B794" s="1" t="s">
         <v>2457</v>
       </c>
-      <c r="C794" s="4">
+      <c r="C794" s="2">
         <v>2</v>
       </c>
       <c r="D794" s="1" t="s">
@@ -25554,7 +25542,7 @@
       <c r="B795" s="1" t="s">
         <v>2460</v>
       </c>
-      <c r="C795" s="4">
+      <c r="C795" s="2">
         <v>1</v>
       </c>
       <c r="D795" s="1" t="s">
@@ -25574,7 +25562,7 @@
       <c r="B796" s="1" t="s">
         <v>2462</v>
       </c>
-      <c r="C796" s="4">
+      <c r="C796" s="2">
         <v>2</v>
       </c>
       <c r="D796" s="1" t="s">
@@ -25594,7 +25582,7 @@
       <c r="B797" s="1" t="s">
         <v>2465</v>
       </c>
-      <c r="C797" s="4">
+      <c r="C797" s="2">
         <v>3</v>
       </c>
       <c r="D797" s="1" t="s">
@@ -25614,7 +25602,7 @@
       <c r="B798" s="1" t="s">
         <v>2468</v>
       </c>
-      <c r="C798" s="4">
+      <c r="C798" s="2">
         <v>3</v>
       </c>
       <c r="D798" s="1" t="s">
@@ -25634,7 +25622,7 @@
       <c r="B799" s="1" t="s">
         <v>2471</v>
       </c>
-      <c r="C799" s="4">
+      <c r="C799" s="2">
         <v>2</v>
       </c>
       <c r="D799" s="1" t="s">
@@ -25654,7 +25642,7 @@
       <c r="B800" s="1" t="s">
         <v>2473</v>
       </c>
-      <c r="C800" s="4">
+      <c r="C800" s="2">
         <v>3</v>
       </c>
       <c r="D800" s="1" t="s">
@@ -25674,7 +25662,7 @@
       <c r="B801" s="1" t="s">
         <v>2476</v>
       </c>
-      <c r="C801" s="4">
+      <c r="C801" s="2">
         <v>1</v>
       </c>
       <c r="D801" s="1" t="s">
@@ -25694,7 +25682,7 @@
       <c r="B802" s="1" t="s">
         <v>2479</v>
       </c>
-      <c r="C802" s="4">
+      <c r="C802" s="2">
         <v>2</v>
       </c>
       <c r="D802" s="1" t="s">
@@ -25714,7 +25702,7 @@
       <c r="B803" s="1" t="s">
         <v>2481</v>
       </c>
-      <c r="C803" s="4">
+      <c r="C803" s="2">
         <v>2</v>
       </c>
       <c r="D803" s="1" t="s">
@@ -25734,7 +25722,7 @@
       <c r="B804" s="1" t="s">
         <v>2483</v>
       </c>
-      <c r="C804" s="4">
+      <c r="C804" s="2">
         <v>1</v>
       </c>
       <c r="D804" s="1" t="s">
@@ -25754,7 +25742,7 @@
       <c r="B805" s="1" t="s">
         <v>2486</v>
       </c>
-      <c r="C805" s="4">
+      <c r="C805" s="2">
         <v>2</v>
       </c>
       <c r="D805" s="1" t="s">
@@ -25774,7 +25762,7 @@
       <c r="B806" s="1" t="s">
         <v>2490</v>
       </c>
-      <c r="C806" s="4">
+      <c r="C806" s="2">
         <v>3</v>
       </c>
       <c r="D806" s="1" t="s">
@@ -25794,7 +25782,7 @@
       <c r="B807" s="1" t="s">
         <v>2493</v>
       </c>
-      <c r="C807" s="4">
+      <c r="C807" s="2">
         <v>1</v>
       </c>
       <c r="D807" s="1" t="s">
@@ -25814,7 +25802,7 @@
       <c r="B808" s="1" t="s">
         <v>2496</v>
       </c>
-      <c r="C808" s="4">
+      <c r="C808" s="2">
         <v>10</v>
       </c>
       <c r="D808" s="1" t="s">
@@ -25834,7 +25822,7 @@
       <c r="B809" s="1" t="s">
         <v>2499</v>
       </c>
-      <c r="C809" s="4">
+      <c r="C809" s="2">
         <v>1</v>
       </c>
       <c r="D809" s="1" t="s">
@@ -25854,7 +25842,7 @@
       <c r="B810" s="1" t="s">
         <v>2502</v>
       </c>
-      <c r="C810" s="4">
+      <c r="C810" s="2">
         <v>2</v>
       </c>
       <c r="D810" s="1" t="s">
@@ -25874,7 +25862,7 @@
       <c r="B811" s="1" t="s">
         <v>2505</v>
       </c>
-      <c r="C811" s="4">
+      <c r="C811" s="2">
         <v>3</v>
       </c>
       <c r="D811" s="1" t="s">
@@ -25894,7 +25882,7 @@
       <c r="B812" s="1" t="s">
         <v>2508</v>
       </c>
-      <c r="C812" s="4">
+      <c r="C812" s="2">
         <v>7</v>
       </c>
       <c r="D812" s="1" t="s">
@@ -25914,7 +25902,7 @@
       <c r="B813" s="1" t="s">
         <v>2511</v>
       </c>
-      <c r="C813" s="4">
+      <c r="C813" s="2">
         <v>4</v>
       </c>
       <c r="D813" s="1" t="s">
@@ -25934,7 +25922,7 @@
       <c r="B814" s="1" t="s">
         <v>2514</v>
       </c>
-      <c r="C814" s="4">
+      <c r="C814" s="2">
         <v>2</v>
       </c>
       <c r="D814" s="1" t="s">
@@ -25954,7 +25942,7 @@
       <c r="B815" s="1" t="s">
         <v>2517</v>
       </c>
-      <c r="C815" s="4">
+      <c r="C815" s="2">
         <v>1</v>
       </c>
       <c r="D815" s="1" t="s">
@@ -25974,7 +25962,7 @@
       <c r="B816" s="1" t="s">
         <v>2520</v>
       </c>
-      <c r="C816" s="4">
+      <c r="C816" s="2">
         <v>3</v>
       </c>
       <c r="D816" s="1" t="s">
@@ -25994,7 +25982,7 @@
       <c r="B817" s="1" t="s">
         <v>2523</v>
       </c>
-      <c r="C817" s="4">
+      <c r="C817" s="2">
         <v>1</v>
       </c>
       <c r="D817" s="1" t="s">
@@ -26014,7 +26002,7 @@
       <c r="B818" s="1" t="s">
         <v>2526</v>
       </c>
-      <c r="C818" s="4">
+      <c r="C818" s="2">
         <v>5</v>
       </c>
       <c r="D818" s="1" t="s">
@@ -26034,7 +26022,7 @@
       <c r="B819" s="1" t="s">
         <v>2529</v>
       </c>
-      <c r="C819" s="4">
+      <c r="C819" s="2">
         <v>12</v>
       </c>
       <c r="D819" s="1" t="s">
@@ -26054,7 +26042,7 @@
       <c r="B820" s="1" t="s">
         <v>2532</v>
       </c>
-      <c r="C820" s="4">
+      <c r="C820" s="2">
         <v>1</v>
       </c>
       <c r="D820" s="1" t="s">
@@ -26074,7 +26062,7 @@
       <c r="B821" s="1" t="s">
         <v>2535</v>
       </c>
-      <c r="C821" s="4">
+      <c r="C821" s="2">
         <v>3</v>
       </c>
       <c r="D821" s="1" t="s">
@@ -26094,7 +26082,7 @@
       <c r="B822" s="1" t="s">
         <v>2538</v>
       </c>
-      <c r="C822" s="4">
+      <c r="C822" s="2">
         <v>2</v>
       </c>
       <c r="D822" s="1" t="s">
@@ -26114,7 +26102,7 @@
       <c r="B823" s="1" t="s">
         <v>2541</v>
       </c>
-      <c r="C823" s="4">
+      <c r="C823" s="2">
         <v>7</v>
       </c>
       <c r="D823" s="1" t="s">
@@ -26134,7 +26122,7 @@
       <c r="B824" s="1" t="s">
         <v>2544</v>
       </c>
-      <c r="C824" s="4">
+      <c r="C824" s="2">
         <v>8</v>
       </c>
       <c r="D824" s="1" t="s">
@@ -26154,7 +26142,7 @@
       <c r="B825" s="1" t="s">
         <v>2547</v>
       </c>
-      <c r="C825" s="4">
+      <c r="C825" s="2">
         <v>3</v>
       </c>
       <c r="D825" s="1" t="s">
@@ -26174,7 +26162,7 @@
       <c r="B826" s="1" t="s">
         <v>2550</v>
       </c>
-      <c r="C826" s="4">
+      <c r="C826" s="2">
         <v>12</v>
       </c>
       <c r="D826" s="1" t="s">
@@ -26194,7 +26182,7 @@
       <c r="B827" s="1" t="s">
         <v>2552</v>
       </c>
-      <c r="C827" s="4">
+      <c r="C827" s="2">
         <v>2</v>
       </c>
       <c r="D827" s="1" t="s">
@@ -26214,7 +26202,7 @@
       <c r="B828" s="1" t="s">
         <v>2555</v>
       </c>
-      <c r="C828" s="4">
+      <c r="C828" s="2">
         <v>5</v>
       </c>
       <c r="D828" s="1" t="s">
@@ -26234,7 +26222,7 @@
       <c r="B829" s="1" t="s">
         <v>2558</v>
       </c>
-      <c r="C829" s="4">
+      <c r="C829" s="2">
         <v>4</v>
       </c>
       <c r="D829" s="1" t="s">
@@ -26254,7 +26242,7 @@
       <c r="B830" s="1" t="s">
         <v>2561</v>
       </c>
-      <c r="C830" s="4">
+      <c r="C830" s="2">
         <v>2</v>
       </c>
       <c r="D830" s="1" t="s">
@@ -26274,7 +26262,7 @@
       <c r="B831" s="1" t="s">
         <v>2564</v>
       </c>
-      <c r="C831" s="4">
+      <c r="C831" s="2">
         <v>5</v>
       </c>
       <c r="D831" s="1" t="s">
@@ -26294,7 +26282,7 @@
       <c r="B832" s="1" t="s">
         <v>2568</v>
       </c>
-      <c r="C832" s="4">
+      <c r="C832" s="2">
         <v>2</v>
       </c>
       <c r="D832" s="1" t="s">
@@ -26314,7 +26302,7 @@
       <c r="B833" s="1" t="s">
         <v>2571</v>
       </c>
-      <c r="C833" s="4">
+      <c r="C833" s="2">
         <v>3</v>
       </c>
       <c r="D833" s="1" t="s">
@@ -26334,7 +26322,7 @@
       <c r="B834" s="1" t="s">
         <v>2574</v>
       </c>
-      <c r="C834" s="4">
+      <c r="C834" s="2">
         <v>2</v>
       </c>
       <c r="D834" s="1" t="s">
@@ -26354,7 +26342,7 @@
       <c r="B835" s="1" t="s">
         <v>2577</v>
       </c>
-      <c r="C835" s="4">
+      <c r="C835" s="2">
         <v>6</v>
       </c>
       <c r="D835" s="1" t="s">
@@ -26374,7 +26362,7 @@
       <c r="B836" s="1" t="s">
         <v>2580</v>
       </c>
-      <c r="C836" s="4">
+      <c r="C836" s="2">
         <v>5</v>
       </c>
       <c r="D836" s="1" t="s">
@@ -26394,7 +26382,7 @@
       <c r="B837" s="1" t="s">
         <v>2583</v>
       </c>
-      <c r="C837" s="4">
+      <c r="C837" s="2">
         <v>5</v>
       </c>
       <c r="D837" s="1" t="s">
@@ -26414,7 +26402,7 @@
       <c r="B838" s="1" t="s">
         <v>2586</v>
       </c>
-      <c r="C838" s="4">
+      <c r="C838" s="2">
         <v>3</v>
       </c>
       <c r="D838" s="1" t="s">
@@ -26434,7 +26422,7 @@
       <c r="B839" s="1" t="s">
         <v>2589</v>
       </c>
-      <c r="C839" s="4">
+      <c r="C839" s="2">
         <v>6</v>
       </c>
       <c r="D839" s="1" t="s">
@@ -26454,7 +26442,7 @@
       <c r="B840" s="1" t="s">
         <v>2592</v>
       </c>
-      <c r="C840" s="4">
+      <c r="C840" s="2">
         <v>4</v>
       </c>
       <c r="D840" s="1" t="s">
@@ -26474,7 +26462,7 @@
       <c r="B841" s="1" t="s">
         <v>2595</v>
       </c>
-      <c r="C841" s="4">
+      <c r="C841" s="2">
         <v>2</v>
       </c>
       <c r="D841" s="1" t="s">
@@ -26494,7 +26482,7 @@
       <c r="B842" s="1" t="s">
         <v>2598</v>
       </c>
-      <c r="C842" s="4">
+      <c r="C842" s="2">
         <v>2</v>
       </c>
       <c r="D842" s="1" t="s">
@@ -26514,7 +26502,7 @@
       <c r="B843" s="1" t="s">
         <v>2600</v>
       </c>
-      <c r="C843" s="4">
+      <c r="C843" s="2">
         <v>3</v>
       </c>
       <c r="D843" s="1" t="s">
@@ -26534,7 +26522,7 @@
       <c r="B844" s="1" t="s">
         <v>2603</v>
       </c>
-      <c r="C844" s="4">
+      <c r="C844" s="2">
         <v>2</v>
       </c>
       <c r="D844" s="1" t="s">
@@ -26554,7 +26542,7 @@
       <c r="B845" s="1" t="s">
         <v>2571</v>
       </c>
-      <c r="C845" s="4">
+      <c r="C845" s="2">
         <v>3</v>
       </c>
       <c r="D845" s="1" t="s">
@@ -26574,7 +26562,7 @@
       <c r="B846" s="1" t="s">
         <v>2607</v>
       </c>
-      <c r="C846" s="4">
+      <c r="C846" s="2">
         <v>2</v>
       </c>
       <c r="D846" s="1" t="s">
@@ -26594,7 +26582,7 @@
       <c r="B847" s="1" t="s">
         <v>2610</v>
       </c>
-      <c r="C847" s="4">
+      <c r="C847" s="2">
         <v>4</v>
       </c>
       <c r="D847" s="1" t="s">
@@ -26614,7 +26602,7 @@
       <c r="B848" s="1" t="s">
         <v>2613</v>
       </c>
-      <c r="C848" s="4">
+      <c r="C848" s="2">
         <v>3</v>
       </c>
       <c r="D848" s="1" t="s">
@@ -26634,7 +26622,7 @@
       <c r="B849" s="1" t="s">
         <v>2616</v>
       </c>
-      <c r="C849" s="4">
+      <c r="C849" s="2">
         <v>1</v>
       </c>
       <c r="D849" s="1" t="s">
@@ -26654,7 +26642,7 @@
       <c r="B850" s="1" t="s">
         <v>2571</v>
       </c>
-      <c r="C850" s="4">
+      <c r="C850" s="2">
         <v>3</v>
       </c>
       <c r="D850" s="1" t="s">
@@ -26674,7 +26662,7 @@
       <c r="B851" s="1" t="s">
         <v>2620</v>
       </c>
-      <c r="C851" s="4">
+      <c r="C851" s="2">
         <v>3</v>
       </c>
       <c r="D851" s="1" t="s">
@@ -26694,7 +26682,7 @@
       <c r="B852" s="1" t="s">
         <v>2624</v>
       </c>
-      <c r="C852" s="4">
+      <c r="C852" s="2">
         <v>6</v>
       </c>
       <c r="D852" s="1" t="s">
@@ -26714,7 +26702,7 @@
       <c r="B853" s="1" t="s">
         <v>2627</v>
       </c>
-      <c r="C853" s="4">
+      <c r="C853" s="2">
         <v>4</v>
       </c>
       <c r="D853" s="1" t="s">
@@ -26734,7 +26722,7 @@
       <c r="B854" s="1" t="s">
         <v>2630</v>
       </c>
-      <c r="C854" s="4">
+      <c r="C854" s="2">
         <v>5</v>
       </c>
       <c r="D854" s="1" t="s">
@@ -26754,7 +26742,7 @@
       <c r="B855" s="1" t="s">
         <v>2633</v>
       </c>
-      <c r="C855" s="4">
+      <c r="C855" s="2">
         <v>6</v>
       </c>
       <c r="D855" s="1" t="s">
@@ -26774,7 +26762,7 @@
       <c r="B856" s="1" t="s">
         <v>2636</v>
       </c>
-      <c r="C856" s="4">
+      <c r="C856" s="2">
         <v>5</v>
       </c>
       <c r="D856" s="1" t="s">
@@ -26794,7 +26782,7 @@
       <c r="B857" s="1" t="s">
         <v>2639</v>
       </c>
-      <c r="C857" s="4">
+      <c r="C857" s="2">
         <v>8</v>
       </c>
       <c r="D857" s="1" t="s">
@@ -26814,7 +26802,7 @@
       <c r="B858" s="1" t="s">
         <v>2642</v>
       </c>
-      <c r="C858" s="4">
+      <c r="C858" s="2">
         <v>7</v>
       </c>
       <c r="D858" s="1" t="s">
@@ -26834,7 +26822,7 @@
       <c r="B859" s="1" t="s">
         <v>2645</v>
       </c>
-      <c r="C859" s="4">
+      <c r="C859" s="2">
         <v>10</v>
       </c>
       <c r="D859" s="1" t="s">
@@ -26854,7 +26842,7 @@
       <c r="B860" s="1" t="s">
         <v>2648</v>
       </c>
-      <c r="C860" s="4">
+      <c r="C860" s="2">
         <v>3</v>
       </c>
       <c r="D860" s="1" t="s">
@@ -26874,7 +26862,7 @@
       <c r="B861" s="1" t="s">
         <v>2651</v>
       </c>
-      <c r="C861" s="4">
+      <c r="C861" s="2">
         <v>6</v>
       </c>
       <c r="D861" s="1" t="s">
@@ -26894,7 +26882,7 @@
       <c r="B862" s="1" t="s">
         <v>2654</v>
       </c>
-      <c r="C862" s="4">
+      <c r="C862" s="2">
         <v>6</v>
       </c>
       <c r="D862" s="1" t="s">
@@ -26914,7 +26902,7 @@
       <c r="B863" s="1" t="s">
         <v>2657</v>
       </c>
-      <c r="C863" s="4">
+      <c r="C863" s="2">
         <v>6</v>
       </c>
       <c r="D863" s="1" t="s">
@@ -26934,7 +26922,7 @@
       <c r="B864" s="1" t="s">
         <v>2660</v>
       </c>
-      <c r="C864" s="4">
+      <c r="C864" s="2">
         <v>6</v>
       </c>
       <c r="D864" s="1" t="s">
@@ -26954,7 +26942,7 @@
       <c r="B865" s="1" t="s">
         <v>2663</v>
       </c>
-      <c r="C865" s="4">
+      <c r="C865" s="2">
         <v>8</v>
       </c>
       <c r="D865" s="1" t="s">
@@ -26974,7 +26962,7 @@
       <c r="B866" s="1" t="s">
         <v>2666</v>
       </c>
-      <c r="C866" s="4">
+      <c r="C866" s="2">
         <v>9</v>
       </c>
       <c r="D866" s="1" t="s">
@@ -26994,7 +26982,7 @@
       <c r="B867" s="1" t="s">
         <v>2669</v>
       </c>
-      <c r="C867" s="4">
+      <c r="C867" s="2">
         <v>4</v>
       </c>
       <c r="D867" s="1" t="s">
@@ -27014,7 +27002,7 @@
       <c r="B868" s="1" t="s">
         <v>2672</v>
       </c>
-      <c r="C868" s="4">
+      <c r="C868" s="2">
         <v>6</v>
       </c>
       <c r="D868" s="1" t="s">
@@ -27034,7 +27022,7 @@
       <c r="B869" s="1" t="s">
         <v>2675</v>
       </c>
-      <c r="C869" s="4">
+      <c r="C869" s="2">
         <v>4</v>
       </c>
       <c r="D869" s="1" t="s">
@@ -27054,7 +27042,7 @@
       <c r="B870" s="1" t="s">
         <v>2677</v>
       </c>
-      <c r="C870" s="4">
+      <c r="C870" s="2">
         <v>8</v>
       </c>
       <c r="D870" s="1" t="s">
@@ -27074,7 +27062,7 @@
       <c r="B871" s="1" t="s">
         <v>2681</v>
       </c>
-      <c r="C871" s="4">
+      <c r="C871" s="2">
         <v>1</v>
       </c>
       <c r="D871" s="1" t="s">
@@ -27094,7 +27082,7 @@
       <c r="B872" s="1" t="s">
         <v>2684</v>
       </c>
-      <c r="C872" s="4">
+      <c r="C872" s="2">
         <v>1</v>
       </c>
       <c r="D872" s="1" t="s">
@@ -27114,7 +27102,7 @@
       <c r="B873" s="1" t="s">
         <v>2686</v>
       </c>
-      <c r="C873" s="4">
+      <c r="C873" s="2">
         <v>1</v>
       </c>
       <c r="D873" s="1" t="s">
@@ -27134,7 +27122,7 @@
       <c r="B874" s="1" t="s">
         <v>2688</v>
       </c>
-      <c r="C874" s="4">
+      <c r="C874" s="2">
         <v>1</v>
       </c>
       <c r="D874" s="1" t="s">
@@ -27154,7 +27142,7 @@
       <c r="B875" s="1" t="s">
         <v>2691</v>
       </c>
-      <c r="C875" s="4">
+      <c r="C875" s="2">
         <v>1</v>
       </c>
       <c r="D875" s="1" t="s">
@@ -27174,7 +27162,7 @@
       <c r="B876" s="1" t="s">
         <v>2693</v>
       </c>
-      <c r="C876" s="4">
+      <c r="C876" s="2">
         <v>1</v>
       </c>
       <c r="D876" s="1" t="s">
@@ -27194,7 +27182,7 @@
       <c r="B877" s="1" t="s">
         <v>2696</v>
       </c>
-      <c r="C877" s="4">
+      <c r="C877" s="2">
         <v>1</v>
       </c>
       <c r="D877" s="1" t="s">
@@ -27214,7 +27202,7 @@
       <c r="B878" s="1" t="s">
         <v>2698</v>
       </c>
-      <c r="C878" s="4">
+      <c r="C878" s="2">
         <v>1</v>
       </c>
       <c r="D878" s="1" t="s">
@@ -27234,7 +27222,7 @@
       <c r="B879" s="1" t="s">
         <v>2701</v>
       </c>
-      <c r="C879" s="4">
+      <c r="C879" s="2">
         <v>1</v>
       </c>
       <c r="D879" s="1" t="s">
@@ -27254,7 +27242,7 @@
       <c r="B880" s="1" t="s">
         <v>2703</v>
       </c>
-      <c r="C880" s="4">
+      <c r="C880" s="2">
         <v>1</v>
       </c>
       <c r="D880" s="1" t="s">
@@ -27274,7 +27262,7 @@
       <c r="B881" s="1" t="s">
         <v>2705</v>
       </c>
-      <c r="C881" s="4">
+      <c r="C881" s="2">
         <v>1</v>
       </c>
       <c r="D881" s="1" t="s">
@@ -27294,7 +27282,7 @@
       <c r="B882" s="1" t="s">
         <v>2707</v>
       </c>
-      <c r="C882" s="4">
+      <c r="C882" s="2">
         <v>1</v>
       </c>
       <c r="D882" s="1" t="s">
@@ -27314,7 +27302,7 @@
       <c r="B883" s="1" t="s">
         <v>2710</v>
       </c>
-      <c r="C883" s="4">
+      <c r="C883" s="2">
         <v>1</v>
       </c>
       <c r="D883" s="1" t="s">
@@ -27334,7 +27322,7 @@
       <c r="B884" s="1" t="s">
         <v>2712</v>
       </c>
-      <c r="C884" s="4">
+      <c r="C884" s="2">
         <v>1</v>
       </c>
       <c r="D884" s="1" t="s">
@@ -27354,7 +27342,7 @@
       <c r="B885" s="1" t="s">
         <v>2716</v>
       </c>
-      <c r="C885" s="4">
+      <c r="C885" s="2">
         <v>2</v>
       </c>
       <c r="D885" s="1" t="s">
@@ -27374,7 +27362,7 @@
       <c r="B886" s="1" t="s">
         <v>2719</v>
       </c>
-      <c r="C886" s="4">
+      <c r="C886" s="2">
         <v>2</v>
       </c>
       <c r="D886" s="1" t="s">
@@ -27394,7 +27382,7 @@
       <c r="B887" s="1" t="s">
         <v>2722</v>
       </c>
-      <c r="C887" s="4">
+      <c r="C887" s="2">
         <v>2</v>
       </c>
       <c r="D887" s="1" t="s">
@@ -27414,7 +27402,7 @@
       <c r="B888" s="1" t="s">
         <v>2725</v>
       </c>
-      <c r="C888" s="4">
+      <c r="C888" s="2">
         <v>3</v>
       </c>
       <c r="D888" s="1" t="s">
@@ -27434,7 +27422,7 @@
       <c r="B889" s="1" t="s">
         <v>2728</v>
       </c>
-      <c r="C889" s="4">
+      <c r="C889" s="2">
         <v>2</v>
       </c>
       <c r="D889" s="1" t="s">
@@ -27454,7 +27442,7 @@
       <c r="B890" s="1" t="s">
         <v>2731</v>
       </c>
-      <c r="C890" s="4">
+      <c r="C890" s="2">
         <v>2</v>
       </c>
       <c r="D890" s="1" t="s">
@@ -27474,7 +27462,7 @@
       <c r="B891" s="1" t="s">
         <v>2733</v>
       </c>
-      <c r="C891" s="4">
+      <c r="C891" s="2">
         <v>3</v>
       </c>
       <c r="D891" s="1" t="s">
@@ -27494,7 +27482,7 @@
       <c r="B892" s="1" t="s">
         <v>2736</v>
       </c>
-      <c r="C892" s="4">
+      <c r="C892" s="2">
         <v>1</v>
       </c>
       <c r="D892" s="1" t="s">
@@ -27514,7 +27502,7 @@
       <c r="B893" s="1" t="s">
         <v>2739</v>
       </c>
-      <c r="C893" s="4">
+      <c r="C893" s="2">
         <v>1</v>
       </c>
       <c r="D893" s="1" t="s">
@@ -27534,7 +27522,7 @@
       <c r="B894" s="1" t="s">
         <v>2742</v>
       </c>
-      <c r="C894" s="4">
+      <c r="C894" s="2">
         <v>2</v>
       </c>
       <c r="D894" s="1" t="s">
@@ -27554,7 +27542,7 @@
       <c r="B895" s="1" t="s">
         <v>2745</v>
       </c>
-      <c r="C895" s="4">
+      <c r="C895" s="2">
         <v>3</v>
       </c>
       <c r="D895" s="1" t="s">
@@ -27574,7 +27562,7 @@
       <c r="B896" s="1" t="s">
         <v>2748</v>
       </c>
-      <c r="C896" s="4">
+      <c r="C896" s="2">
         <v>1</v>
       </c>
       <c r="D896" s="1" t="s">
@@ -27594,7 +27582,7 @@
       <c r="B897" s="1" t="s">
         <v>2750</v>
       </c>
-      <c r="C897" s="4">
+      <c r="C897" s="2">
         <v>1</v>
       </c>
       <c r="D897" s="1" t="s">
@@ -27614,7 +27602,7 @@
       <c r="B898" s="1" t="s">
         <v>2753</v>
       </c>
-      <c r="C898" s="4">
+      <c r="C898" s="2">
         <v>4</v>
       </c>
       <c r="D898" s="1" t="s">
@@ -27634,7 +27622,7 @@
       <c r="B899" s="1" t="s">
         <v>2756</v>
       </c>
-      <c r="C899" s="4">
+      <c r="C899" s="2">
         <v>1</v>
       </c>
       <c r="D899" s="1" t="s">
@@ -27654,7 +27642,7 @@
       <c r="B900" s="1" t="s">
         <v>2758</v>
       </c>
-      <c r="C900" s="4">
+      <c r="C900" s="2">
         <v>1</v>
       </c>
       <c r="D900" s="1" t="s">
@@ -27674,7 +27662,7 @@
       <c r="B901" s="1" t="s">
         <v>2761</v>
       </c>
-      <c r="C901" s="4">
+      <c r="C901" s="2">
         <v>3</v>
       </c>
       <c r="D901" s="1" t="s">
@@ -27694,7 +27682,7 @@
       <c r="B902" s="1" t="s">
         <v>2765</v>
       </c>
-      <c r="C902" s="4">
+      <c r="C902" s="2">
         <v>4</v>
       </c>
       <c r="D902" s="1" t="s">
@@ -27714,7 +27702,7 @@
       <c r="B903" s="1" t="s">
         <v>2768</v>
       </c>
-      <c r="C903" s="4">
+      <c r="C903" s="2">
         <v>3</v>
       </c>
       <c r="D903" s="1" t="s">
@@ -27734,7 +27722,7 @@
       <c r="B904" s="1" t="s">
         <v>2772</v>
       </c>
-      <c r="C904" s="4">
+      <c r="C904" s="2">
         <v>1</v>
       </c>
       <c r="D904" s="1" t="s">
@@ -27754,7 +27742,7 @@
       <c r="B905" s="1" t="s">
         <v>2775</v>
       </c>
-      <c r="C905" s="4">
+      <c r="C905" s="2">
         <v>2</v>
       </c>
       <c r="D905" s="1" t="s">
@@ -27774,7 +27762,7 @@
       <c r="B906" s="1" t="s">
         <v>2778</v>
       </c>
-      <c r="C906" s="4">
+      <c r="C906" s="2">
         <v>5</v>
       </c>
       <c r="D906" s="1" t="s">
@@ -27794,7 +27782,7 @@
       <c r="B907" s="1" t="s">
         <v>2781</v>
       </c>
-      <c r="C907" s="4">
+      <c r="C907" s="2">
         <v>2</v>
       </c>
       <c r="D907" s="1" t="s">
@@ -27814,7 +27802,7 @@
       <c r="B908" s="1" t="s">
         <v>2784</v>
       </c>
-      <c r="C908" s="4">
+      <c r="C908" s="2">
         <v>6</v>
       </c>
       <c r="D908" s="1" t="s">
@@ -27834,7 +27822,7 @@
       <c r="B909" s="1" t="s">
         <v>2787</v>
       </c>
-      <c r="C909" s="4">
+      <c r="C909" s="2">
         <v>1</v>
       </c>
       <c r="D909" s="1" t="s">
@@ -27854,7 +27842,7 @@
       <c r="B910" s="1" t="s">
         <v>2790</v>
       </c>
-      <c r="C910" s="4">
+      <c r="C910" s="2">
         <v>3</v>
       </c>
       <c r="D910" s="1" t="s">
@@ -27874,7 +27862,7 @@
       <c r="B911" s="1" t="s">
         <v>2793</v>
       </c>
-      <c r="C911" s="4">
+      <c r="C911" s="2">
         <v>5</v>
       </c>
       <c r="D911" s="1" t="s">
@@ -27894,7 +27882,7 @@
       <c r="B912" s="1" t="s">
         <v>2796</v>
       </c>
-      <c r="C912" s="4">
+      <c r="C912" s="2">
         <v>3</v>
       </c>
       <c r="D912" s="1" t="s">
@@ -27914,7 +27902,7 @@
       <c r="B913" s="1" t="s">
         <v>2799</v>
       </c>
-      <c r="C913" s="4">
+      <c r="C913" s="2">
         <v>2</v>
       </c>
       <c r="D913" s="1" t="s">
@@ -27934,7 +27922,7 @@
       <c r="B914" s="1" t="s">
         <v>2802</v>
       </c>
-      <c r="C914" s="4">
+      <c r="C914" s="2">
         <v>1</v>
       </c>
       <c r="D914" s="1" t="s">
@@ -27954,7 +27942,7 @@
       <c r="B915" s="1" t="s">
         <v>2805</v>
       </c>
-      <c r="C915" s="4">
+      <c r="C915" s="2">
         <v>1</v>
       </c>
       <c r="D915" s="1" t="s">
@@ -27974,7 +27962,7 @@
       <c r="B916" s="1" t="s">
         <v>2808</v>
       </c>
-      <c r="C916" s="4">
+      <c r="C916" s="2">
         <v>1</v>
       </c>
       <c r="D916" s="1" t="s">
@@ -27994,7 +27982,7 @@
       <c r="B917" s="1" t="s">
         <v>2811</v>
       </c>
-      <c r="C917" s="4">
+      <c r="C917" s="2">
         <v>1</v>
       </c>
       <c r="D917" s="1" t="s">
@@ -28014,7 +28002,7 @@
       <c r="B918" s="1" t="s">
         <v>2814</v>
       </c>
-      <c r="C918" s="4">
+      <c r="C918" s="2">
         <v>1</v>
       </c>
       <c r="D918" s="1" t="s">
@@ -28034,7 +28022,7 @@
       <c r="B919" s="1" t="s">
         <v>2817</v>
       </c>
-      <c r="C919" s="4">
+      <c r="C919" s="2">
         <v>1</v>
       </c>
       <c r="D919" s="1" t="s">
@@ -28054,7 +28042,7 @@
       <c r="B920" s="1" t="s">
         <v>2820</v>
       </c>
-      <c r="C920" s="4">
+      <c r="C920" s="2">
         <v>1</v>
       </c>
       <c r="D920" s="1" t="s">
@@ -28074,7 +28062,7 @@
       <c r="B921" s="1" t="s">
         <v>2823</v>
       </c>
-      <c r="C921" s="4">
+      <c r="C921" s="2">
         <v>2</v>
       </c>
       <c r="D921" s="1" t="s">
@@ -28094,7 +28082,7 @@
       <c r="B922" s="1" t="s">
         <v>2827</v>
       </c>
-      <c r="C922" s="4">
+      <c r="C922" s="2">
         <v>1</v>
       </c>
       <c r="D922" s="1" t="s">
@@ -28114,7 +28102,7 @@
       <c r="B923" s="1" t="s">
         <v>2830</v>
       </c>
-      <c r="C923" s="4">
+      <c r="C923" s="2">
         <v>2</v>
       </c>
       <c r="D923" s="1" t="s">
@@ -28134,7 +28122,7 @@
       <c r="B924" s="1" t="s">
         <v>2834</v>
       </c>
-      <c r="C924" s="4">
+      <c r="C924" s="2">
         <v>3</v>
       </c>
       <c r="D924" s="1" t="s">
@@ -28154,7 +28142,7 @@
       <c r="B925" s="1" t="s">
         <v>2837</v>
       </c>
-      <c r="C925" s="4">
+      <c r="C925" s="2">
         <v>4</v>
       </c>
       <c r="D925" s="1" t="s">
@@ -28174,7 +28162,7 @@
       <c r="B926" s="1" t="s">
         <v>2840</v>
       </c>
-      <c r="C926" s="4">
+      <c r="C926" s="2">
         <v>3</v>
       </c>
       <c r="D926" s="1" t="s">
@@ -28194,7 +28182,7 @@
       <c r="B927" s="1" t="s">
         <v>2844</v>
       </c>
-      <c r="C927" s="4">
+      <c r="C927" s="2">
         <v>4</v>
       </c>
       <c r="D927" s="1" t="s">
@@ -28214,7 +28202,7 @@
       <c r="B928" s="1" t="s">
         <v>2848</v>
       </c>
-      <c r="C928" s="4">
+      <c r="C928" s="2">
         <v>3</v>
       </c>
       <c r="D928" s="1" t="s">
@@ -28234,7 +28222,7 @@
       <c r="B929" s="1" t="s">
         <v>2851</v>
       </c>
-      <c r="C929" s="4">
+      <c r="C929" s="2">
         <v>2</v>
       </c>
       <c r="D929" s="1" t="s">
@@ -28254,7 +28242,7 @@
       <c r="B930" s="1" t="s">
         <v>2854</v>
       </c>
-      <c r="C930" s="4">
+      <c r="C930" s="2">
         <v>2</v>
       </c>
       <c r="D930" s="1" t="s">
@@ -28274,7 +28262,7 @@
       <c r="B931" s="1" t="s">
         <v>2857</v>
       </c>
-      <c r="C931" s="4">
+      <c r="C931" s="2">
         <v>3</v>
       </c>
       <c r="D931" s="1" t="s">
@@ -28294,7 +28282,7 @@
       <c r="B932" s="1" t="s">
         <v>2860</v>
       </c>
-      <c r="C932" s="4">
+      <c r="C932" s="2">
         <v>1</v>
       </c>
       <c r="D932" s="1" t="s">
@@ -28314,7 +28302,7 @@
       <c r="B933" s="1" t="s">
         <v>2863</v>
       </c>
-      <c r="C933" s="4">
+      <c r="C933" s="2">
         <v>3</v>
       </c>
       <c r="D933" s="1" t="s">
@@ -28334,7 +28322,7 @@
       <c r="B934" s="1" t="s">
         <v>2866</v>
       </c>
-      <c r="C934" s="4">
+      <c r="C934" s="2">
         <v>2</v>
       </c>
       <c r="D934" s="1" t="s">
@@ -28354,7 +28342,7 @@
       <c r="B935" s="1" t="s">
         <v>2869</v>
       </c>
-      <c r="C935" s="4">
+      <c r="C935" s="2">
         <v>2</v>
       </c>
       <c r="D935" s="1" t="s">
@@ -28374,7 +28362,7 @@
       <c r="B936" s="1" t="s">
         <v>2871</v>
       </c>
-      <c r="C936" s="4">
+      <c r="C936" s="2">
         <v>2</v>
       </c>
       <c r="D936" s="1" t="s">
@@ -28394,7 +28382,7 @@
       <c r="B937" s="1" t="s">
         <v>2875</v>
       </c>
-      <c r="C937" s="4">
+      <c r="C937" s="2">
         <v>1</v>
       </c>
       <c r="D937" s="1" t="s">
@@ -28414,7 +28402,7 @@
       <c r="B938" s="1" t="s">
         <v>2878</v>
       </c>
-      <c r="C938" s="4">
+      <c r="C938" s="2">
         <v>1</v>
       </c>
       <c r="D938" s="1" t="s">
@@ -28434,7 +28422,7 @@
       <c r="B939" s="1" t="s">
         <v>2880</v>
       </c>
-      <c r="C939" s="4">
+      <c r="C939" s="2">
         <v>3</v>
       </c>
       <c r="D939" s="1" t="s">
@@ -28454,7 +28442,7 @@
       <c r="B940" s="1" t="s">
         <v>2883</v>
       </c>
-      <c r="C940" s="4">
+      <c r="C940" s="2">
         <v>1</v>
       </c>
       <c r="D940" s="1" t="s">
@@ -28474,7 +28462,7 @@
       <c r="B941" s="1" t="s">
         <v>2886</v>
       </c>
-      <c r="C941" s="4">
+      <c r="C941" s="2">
         <v>1</v>
       </c>
       <c r="D941" s="1" t="s">
@@ -28494,7 +28482,7 @@
       <c r="B942" s="1" t="s">
         <v>2888</v>
       </c>
-      <c r="C942" s="4">
+      <c r="C942" s="2">
         <v>1</v>
       </c>
       <c r="D942" s="1" t="s">
@@ -28514,7 +28502,7 @@
       <c r="B943" s="1" t="s">
         <v>2891</v>
       </c>
-      <c r="C943" s="4">
+      <c r="C943" s="2">
         <v>4</v>
       </c>
       <c r="D943" s="1" t="s">
@@ -28534,7 +28522,7 @@
       <c r="B944" s="1" t="s">
         <v>2894</v>
       </c>
-      <c r="C944" s="4">
+      <c r="C944" s="2">
         <v>4</v>
       </c>
       <c r="D944" s="1" t="s">
@@ -28554,7 +28542,7 @@
       <c r="B945" s="1" t="s">
         <v>2897</v>
       </c>
-      <c r="C945" s="4">
+      <c r="C945" s="2">
         <v>2</v>
       </c>
       <c r="D945" s="1" t="s">
@@ -28574,7 +28562,7 @@
       <c r="B946" s="1" t="s">
         <v>2900</v>
       </c>
-      <c r="C946" s="4">
+      <c r="C946" s="2">
         <v>5</v>
       </c>
       <c r="D946" s="1" t="s">
@@ -28594,7 +28582,7 @@
       <c r="B947" s="1" t="s">
         <v>2903</v>
       </c>
-      <c r="C947" s="4">
+      <c r="C947" s="2">
         <v>5</v>
       </c>
       <c r="D947" s="1" t="s">
@@ -28614,7 +28602,7 @@
       <c r="B948" s="1" t="s">
         <v>2906</v>
       </c>
-      <c r="C948" s="4">
+      <c r="C948" s="2">
         <v>5</v>
       </c>
       <c r="D948" s="1" t="s">
@@ -28634,7 +28622,7 @@
       <c r="B949" s="1" t="s">
         <v>2910</v>
       </c>
-      <c r="C949" s="4">
+      <c r="C949" s="2">
         <v>2</v>
       </c>
       <c r="D949" s="1" t="s">
@@ -28654,7 +28642,7 @@
       <c r="B950" s="1" t="s">
         <v>2913</v>
       </c>
-      <c r="C950" s="4">
+      <c r="C950" s="2">
         <v>7</v>
       </c>
       <c r="D950" s="1" t="s">
@@ -28674,7 +28662,7 @@
       <c r="B951" s="1" t="s">
         <v>2916</v>
       </c>
-      <c r="C951" s="4">
+      <c r="C951" s="2">
         <v>6</v>
       </c>
       <c r="D951" s="1" t="s">
@@ -28694,7 +28682,7 @@
       <c r="B952" s="1" t="s">
         <v>2919</v>
       </c>
-      <c r="C952" s="4">
+      <c r="C952" s="2">
         <v>1</v>
       </c>
       <c r="D952" s="1" t="s">
@@ -28714,7 +28702,7 @@
       <c r="B953" s="1" t="s">
         <v>2922</v>
       </c>
-      <c r="C953" s="4">
+      <c r="C953" s="2">
         <v>6</v>
       </c>
       <c r="D953" s="1" t="s">
@@ -28734,7 +28722,7 @@
       <c r="B954" s="1" t="s">
         <v>2926</v>
       </c>
-      <c r="C954" s="4">
+      <c r="C954" s="2">
         <v>1</v>
       </c>
       <c r="D954" s="1" t="s">
@@ -28754,7 +28742,7 @@
       <c r="B955" s="1" t="s">
         <v>2928</v>
       </c>
-      <c r="C955" s="4">
+      <c r="C955" s="2">
         <v>1</v>
       </c>
       <c r="D955" s="1" t="s">
@@ -28774,7 +28762,7 @@
       <c r="B956" s="1" t="s">
         <v>2931</v>
       </c>
-      <c r="C956" s="4">
+      <c r="C956" s="2">
         <v>1</v>
       </c>
       <c r="D956" s="1" t="s">
@@ -28794,7 +28782,7 @@
       <c r="B957" s="1" t="s">
         <v>2934</v>
       </c>
-      <c r="C957" s="4">
+      <c r="C957" s="2">
         <v>3</v>
       </c>
       <c r="D957" s="1" t="s">
@@ -28814,7 +28802,7 @@
       <c r="B958" s="1" t="s">
         <v>2937</v>
       </c>
-      <c r="C958" s="4">
+      <c r="C958" s="2">
         <v>4</v>
       </c>
       <c r="D958" s="1" t="s">
@@ -28834,7 +28822,7 @@
       <c r="B959" s="1" t="s">
         <v>2941</v>
       </c>
-      <c r="C959" s="4">
+      <c r="C959" s="2">
         <v>3</v>
       </c>
       <c r="D959" s="1" t="s">
@@ -28854,7 +28842,7 @@
       <c r="B960" s="1" t="s">
         <v>2944</v>
       </c>
-      <c r="C960" s="4">
+      <c r="C960" s="2">
         <v>1</v>
       </c>
       <c r="D960" s="1" t="s">
@@ -28874,7 +28862,7 @@
       <c r="B961" s="1" t="s">
         <v>2947</v>
       </c>
-      <c r="C961" s="4">
+      <c r="C961" s="2">
         <v>3</v>
       </c>
       <c r="D961" s="1" t="s">
@@ -28894,7 +28882,7 @@
       <c r="B962" s="1" t="s">
         <v>2950</v>
       </c>
-      <c r="C962" s="4">
+      <c r="C962" s="2">
         <v>1</v>
       </c>
       <c r="D962" s="1" t="s">
@@ -28914,7 +28902,7 @@
       <c r="B963" s="1" t="s">
         <v>2953</v>
       </c>
-      <c r="C963" s="4">
+      <c r="C963" s="2">
         <v>1</v>
       </c>
       <c r="D963" s="1" t="s">
@@ -28934,7 +28922,7 @@
       <c r="B964" s="1" t="s">
         <v>2957</v>
       </c>
-      <c r="C964" s="4">
+      <c r="C964" s="2">
         <v>5</v>
       </c>
       <c r="D964" s="1" t="s">
@@ -28954,7 +28942,7 @@
       <c r="B965" s="1" t="s">
         <v>2960</v>
       </c>
-      <c r="C965" s="4">
+      <c r="C965" s="2">
         <v>1</v>
       </c>
       <c r="D965" s="1" t="s">
@@ -28974,7 +28962,7 @@
       <c r="B966" s="1" t="s">
         <v>2963</v>
       </c>
-      <c r="C966" s="4">
+      <c r="C966" s="2">
         <v>1</v>
       </c>
       <c r="D966" s="1" t="s">
@@ -28994,7 +28982,7 @@
       <c r="B967" s="1" t="s">
         <v>2960</v>
       </c>
-      <c r="C967" s="4">
+      <c r="C967" s="2">
         <v>1</v>
       </c>
       <c r="D967" s="1" t="s">
@@ -29014,7 +29002,7 @@
       <c r="B968" s="1" t="s">
         <v>2968</v>
       </c>
-      <c r="C968" s="4">
+      <c r="C968" s="2">
         <v>1</v>
       </c>
       <c r="D968" s="1" t="s">
@@ -29034,7 +29022,7 @@
       <c r="B969" s="1" t="s">
         <v>2971</v>
       </c>
-      <c r="C969" s="4">
+      <c r="C969" s="2">
         <v>3</v>
       </c>
       <c r="D969" s="1" t="s">
@@ -29054,7 +29042,7 @@
       <c r="B970" s="1" t="s">
         <v>2974</v>
       </c>
-      <c r="C970" s="4">
+      <c r="C970" s="2">
         <v>1</v>
       </c>
       <c r="D970" s="1" t="s">
@@ -29074,7 +29062,7 @@
       <c r="B971" s="1" t="s">
         <v>2977</v>
       </c>
-      <c r="C971" s="4">
+      <c r="C971" s="2">
         <v>1</v>
       </c>
       <c r="D971" s="1" t="s">
@@ -29094,7 +29082,7 @@
       <c r="B972" s="1" t="s">
         <v>2980</v>
       </c>
-      <c r="C972" s="4">
+      <c r="C972" s="2">
         <v>2</v>
       </c>
       <c r="D972" s="1" t="s">
@@ -29114,7 +29102,7 @@
       <c r="B973" s="1" t="s">
         <v>2983</v>
       </c>
-      <c r="C973" s="4">
+      <c r="C973" s="2">
         <v>1</v>
       </c>
       <c r="D973" s="1" t="s">
@@ -29134,7 +29122,7 @@
       <c r="B974" s="1" t="s">
         <v>2987</v>
       </c>
-      <c r="C974" s="4">
+      <c r="C974" s="2">
         <v>1</v>
       </c>
       <c r="D974" s="1" t="s">
@@ -29154,7 +29142,7 @@
       <c r="B975" s="1" t="s">
         <v>2990</v>
       </c>
-      <c r="C975" s="4">
+      <c r="C975" s="2">
         <v>1</v>
       </c>
       <c r="D975" s="1" t="s">
@@ -29174,7 +29162,7 @@
       <c r="B976" s="1" t="s">
         <v>2992</v>
       </c>
-      <c r="C976" s="4">
+      <c r="C976" s="2">
         <v>1</v>
       </c>
       <c r="D976" s="1" t="s">
@@ -29194,7 +29182,7 @@
       <c r="B977" s="1" t="s">
         <v>2995</v>
       </c>
-      <c r="C977" s="4">
+      <c r="C977" s="2">
         <v>5</v>
       </c>
       <c r="D977" s="1" t="s">
@@ -29214,7 +29202,7 @@
       <c r="B978" s="1" t="s">
         <v>2998</v>
       </c>
-      <c r="C978" s="4">
+      <c r="C978" s="2">
         <v>4</v>
       </c>
       <c r="D978" s="1" t="s">
@@ -29234,7 +29222,7 @@
       <c r="B979" s="1" t="s">
         <v>3002</v>
       </c>
-      <c r="C979" s="4">
+      <c r="C979" s="2">
         <v>4</v>
       </c>
       <c r="D979" s="1" t="s">
@@ -29254,7 +29242,7 @@
       <c r="B980" s="1" t="s">
         <v>3005</v>
       </c>
-      <c r="C980" s="4">
+      <c r="C980" s="2">
         <v>1</v>
       </c>
       <c r="D980" s="1" t="s">
@@ -29274,7 +29262,7 @@
       <c r="B981" s="1" t="s">
         <v>3009</v>
       </c>
-      <c r="C981" s="4">
+      <c r="C981" s="2">
         <v>1</v>
       </c>
       <c r="D981" s="1" t="s">
@@ -29294,7 +29282,7 @@
       <c r="B982" s="1" t="s">
         <v>3012</v>
       </c>
-      <c r="C982" s="4">
+      <c r="C982" s="2">
         <v>2</v>
       </c>
       <c r="D982" s="1" t="s">
@@ -29314,7 +29302,7 @@
       <c r="B983" s="1" t="s">
         <v>3016</v>
       </c>
-      <c r="C983" s="4">
+      <c r="C983" s="2">
         <v>1</v>
       </c>
       <c r="D983" s="1" t="s">
@@ -29334,7 +29322,7 @@
       <c r="B984" s="1" t="s">
         <v>3020</v>
       </c>
-      <c r="C984" s="4">
+      <c r="C984" s="2">
         <v>1</v>
       </c>
       <c r="D984" s="1" t="s">
@@ -29354,7 +29342,7 @@
       <c r="B985" s="1" t="s">
         <v>3025</v>
       </c>
-      <c r="C985" s="4">
+      <c r="C985" s="2">
         <v>2</v>
       </c>
       <c r="D985" s="1" t="s">
@@ -29374,7 +29362,7 @@
       <c r="B986" s="1" t="s">
         <v>3028</v>
       </c>
-      <c r="C986" s="4">
+      <c r="C986" s="2">
         <v>1</v>
       </c>
       <c r="D986" s="1" t="s">
@@ -29394,7 +29382,7 @@
       <c r="B987" s="1" t="s">
         <v>3032</v>
       </c>
-      <c r="C987" s="4">
+      <c r="C987" s="2">
         <v>1</v>
       </c>
       <c r="D987" s="1" t="s">
@@ -29414,7 +29402,7 @@
       <c r="B988" s="1" t="s">
         <v>3036</v>
       </c>
-      <c r="C988" s="4">
+      <c r="C988" s="2">
         <v>2</v>
       </c>
       <c r="D988" s="1" t="s">
@@ -29434,7 +29422,7 @@
       <c r="B989" s="1" t="s">
         <v>3040</v>
       </c>
-      <c r="C989" s="4">
+      <c r="C989" s="2">
         <v>1</v>
       </c>
       <c r="D989" s="1" t="s">
@@ -29454,7 +29442,7 @@
       <c r="B990" s="1" t="s">
         <v>3044</v>
       </c>
-      <c r="C990" s="4">
+      <c r="C990" s="2">
         <v>1</v>
       </c>
       <c r="D990" s="1" t="s">
@@ -29474,7 +29462,7 @@
       <c r="B991" s="1" t="s">
         <v>3048</v>
       </c>
-      <c r="C991" s="4">
+      <c r="C991" s="2">
         <v>4</v>
       </c>
       <c r="D991" s="1" t="s">
@@ -29494,7 +29482,7 @@
       <c r="B992" s="1" t="s">
         <v>3053</v>
       </c>
-      <c r="C992" s="4">
+      <c r="C992" s="2">
         <v>1</v>
       </c>
       <c r="D992" s="1" t="s">
@@ -29514,7 +29502,7 @@
       <c r="B993" s="1" t="s">
         <v>3057</v>
       </c>
-      <c r="C993" s="4">
+      <c r="C993" s="2">
         <v>1</v>
       </c>
       <c r="D993" s="1" t="s">
@@ -29534,7 +29522,7 @@
       <c r="B994" s="1" t="s">
         <v>3061</v>
       </c>
-      <c r="C994" s="4">
+      <c r="C994" s="2">
         <v>2</v>
       </c>
       <c r="D994" s="1" t="s">
@@ -29554,7 +29542,7 @@
       <c r="B995" s="1" t="s">
         <v>3065</v>
       </c>
-      <c r="C995" s="4">
+      <c r="C995" s="2">
         <v>2</v>
       </c>
       <c r="D995" s="1" t="s">
@@ -29574,7 +29562,7 @@
       <c r="B996" s="1" t="s">
         <v>3068</v>
       </c>
-      <c r="C996" s="4">
+      <c r="C996" s="2">
         <v>2</v>
       </c>
       <c r="D996" s="1" t="s">
@@ -29594,7 +29582,7 @@
       <c r="B997" s="1" t="s">
         <v>3071</v>
       </c>
-      <c r="C997" s="4">
+      <c r="C997" s="2">
         <v>2</v>
       </c>
       <c r="D997" s="1" t="s">
@@ -29614,7 +29602,7 @@
       <c r="B998" s="1" t="s">
         <v>3073</v>
       </c>
-      <c r="C998" s="4">
+      <c r="C998" s="2">
         <v>2</v>
       </c>
       <c r="D998" s="1" t="s">
@@ -29634,7 +29622,7 @@
       <c r="B999" s="1" t="s">
         <v>3076</v>
       </c>
-      <c r="C999" s="4">
+      <c r="C999" s="2">
         <v>2</v>
       </c>
       <c r="D999" s="1" t="s">
@@ -29654,7 +29642,7 @@
       <c r="B1000" s="1" t="s">
         <v>3079</v>
       </c>
-      <c r="C1000" s="4">
+      <c r="C1000" s="2">
         <v>3</v>
       </c>
       <c r="D1000" s="1" t="s">
@@ -29674,7 +29662,7 @@
       <c r="B1001" s="1" t="s">
         <v>3082</v>
       </c>
-      <c r="C1001" s="4">
+      <c r="C1001" s="2">
         <v>3</v>
       </c>
       <c r="D1001" s="1" t="s">
